--- a/analysis/metadata/P09_1/P09_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P09_1/P09_1_minimal_metadata.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2019-09-03</t>
+          <t>03/09/2019 00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2019-09-03</t>
+          <t>03/09/2019 00:00</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2019-09-03</t>
+          <t>03/09/2019 00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2019-09-03</t>
+          <t>03/09/2019 00:00</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2019-09-03</t>
+          <t>03/09/2019 00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2019-09-03</t>
+          <t>03/09/2019 00:00</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -707,7 +707,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2019-09-04</t>
+          <t>04/09/2019 00:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -732,7 +732,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2019-09-04</t>
+          <t>04/09/2019 00:00</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2019-09-04</t>
+          <t>04/09/2019 00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2019-09-04</t>
+          <t>04/09/2019 00:00</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2019-09-04</t>
+          <t>04/09/2019 00:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2019-09-04</t>
+          <t>04/09/2019 00:00</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2019-09-02</t>
+          <t>02/09/2019 00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -966,7 +966,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2019-09-02</t>
+          <t>02/09/2019 00:00</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2019-09-02</t>
+          <t>02/09/2019 00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2019-09-02</t>
+          <t>02/09/2019 00:00</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2019-09-05</t>
+          <t>05/09/2019 00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2019-09-05</t>
+          <t>05/09/2019 00:00</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2019-09-04</t>
+          <t>04/09/2019 00:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2019-09-04</t>
+          <t>04/09/2019 00:00</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2019-09-04</t>
+          <t>04/09/2019 00:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2019-09-04</t>
+          <t>04/09/2019 00:00</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2019-09-04</t>
+          <t>04/09/2019 00:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2019-09-04</t>
+          <t>04/09/2019 00:00</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1404,7 +1404,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2019-09-04</t>
+          <t>04/09/2019 00:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2019-09-04</t>
+          <t>04/09/2019 00:00</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2019-09-04</t>
+          <t>04/09/2019 00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2019-09-04</t>
+          <t>04/09/2019 00:00</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2019-09-04</t>
+          <t>04/09/2019 00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2019-09-04</t>
+          <t>04/09/2019 00:00</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2019-09-04</t>
+          <t>04/09/2019 00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2019-09-04</t>
+          <t>04/09/2019 00:00</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1706,7 +1706,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2019-09-02</t>
+          <t>02/09/2019 00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2019-09-02</t>
+          <t>02/09/2019 00:00</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1784,7 +1784,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2019-09-03</t>
+          <t>03/09/2019 00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1809,7 +1809,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2019-09-03</t>
+          <t>03/09/2019 00:00</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1862,7 +1862,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2019-09-02</t>
+          <t>02/09/2019 00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2019-09-02</t>
+          <t>02/09/2019 00:00</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1940,7 +1940,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2019-09-02</t>
+          <t>02/09/2019 00:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1965,7 +1965,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2019-09-02</t>
+          <t>02/09/2019 00:00</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2019-09-02</t>
+          <t>02/09/2019 00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2043,7 +2043,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2019-09-02</t>
+          <t>02/09/2019 00:00</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2096,7 +2096,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2019-09-03</t>
+          <t>03/09/2019 00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2019-09-03</t>
+          <t>03/09/2019 00:00</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2174,7 +2174,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2019-09-02</t>
+          <t>02/09/2019 00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2019-09-02</t>
+          <t>02/09/2019 00:00</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2242,7 +2242,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-05-25</t>
+          <t>25/05/2020 00:00</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2262,7 +2262,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2020-05-25</t>
+          <t>25/05/2020 00:00</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>31/03/2020 00:00</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2330,7 +2330,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>31/03/2020 00:00</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2378,7 +2378,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2020-04-05</t>
+          <t>05/04/2020 00:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2403,7 +2403,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2020-04-05</t>
+          <t>05/04/2020 00:00</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-06-22</t>
+          <t>22/06/2020 00:00</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2466,7 +2466,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2020-06-22</t>
+          <t>22/06/2020 00:00</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2519,7 +2519,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2021-06-28</t>
+          <t>08/07/2020 00:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2021-06-28</t>
+          <t>08/07/2020 00:00</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2592,7 +2592,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2020-05-28</t>
+          <t>28/05/2020 00:00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2020-05-28</t>
+          <t>28/05/2020 00:00</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2020-06-22</t>
+          <t>22/06/2020 00:00</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2685,7 +2685,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2020-06-22</t>
+          <t>22/06/2020 00:00</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2733,7 +2733,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2021-06-28</t>
+          <t>28/05/2020 00:00</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2758,7 +2758,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2021-06-28</t>
+          <t>28/05/2020 00:00</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2806,7 +2806,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2020-04-30</t>
+          <t>30/04/2020 00:00</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2826,7 +2826,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2020-04-30</t>
+          <t>30/04/2020 00:00</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2874,7 +2874,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>31/03/2020 00:00</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>31/03/2020 00:00</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -2947,7 +2947,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2020-04-08</t>
+          <t>08/04/2020 00:00</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2972,7 +2972,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>2020-04-08</t>
+          <t>08/04/2020 00:00</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -3015,7 +3015,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2020-04-28</t>
+          <t>28/04/2020 00:00</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -3035,7 +3035,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2020-04-28</t>
+          <t>28/04/2020 00:00</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -3078,7 +3078,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2020-04-07</t>
+          <t>07/04/2020 00:00</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3103,7 +3103,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2020-04-07</t>
+          <t>07/04/2020 00:00</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -3146,7 +3146,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2020-04-15</t>
+          <t>15/04/2020 00:00</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2020-04-15</t>
+          <t>15/04/2020 00:00</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -3219,7 +3219,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2020-04-07</t>
+          <t>07/04/2020 00:00</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3244,7 +3244,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2020-04-07</t>
+          <t>07/04/2020 00:00</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3292,7 +3292,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>31/03/2020 00:00</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3317,7 +3317,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>31/03/2020 00:00</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3365,7 +3365,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2020-05-13</t>
+          <t>13/05/2020 00:00</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2020-05-13</t>
+          <t>13/05/2020 00:00</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>31/03/2020 00:00</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3458,7 +3458,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>31/03/2020 00:00</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -3506,7 +3506,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>27/05/2020 00:00</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>27/05/2020 00:00</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -3579,7 +3579,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2020-05-28</t>
+          <t>28/05/2020 00:00</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3604,7 +3604,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2020-05-28</t>
+          <t>28/05/2020 00:00</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -3652,7 +3652,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2020-05-28</t>
+          <t>28/05/2020 00:00</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3677,7 +3677,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2020-05-28</t>
+          <t>28/05/2020 00:00</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3730,7 +3730,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2020-05-28</t>
+          <t>28/05/2020 00:00</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3755,7 +3755,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2020-05-28</t>
+          <t>28/05/2020 00:00</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -3803,7 +3803,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2020-06-03</t>
+          <t>03/06/2020 00:00</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3828,7 +3828,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>2020-06-03</t>
+          <t>03/06/2020 00:00</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -3881,7 +3881,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2020-05-28</t>
+          <t>28/05/2020 00:00</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3906,7 +3906,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>2020-05-28</t>
+          <t>28/05/2020 00:00</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -3954,7 +3954,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2020-06-03</t>
+          <t>03/06/2020 00:00</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3979,7 +3979,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2020-06-03</t>
+          <t>03/06/2020 00:00</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -4032,7 +4032,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>27/05/2020 00:00</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>27/05/2020 00:00</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2020-05-20</t>
+          <t>20/05/2020 00:00</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4130,7 +4130,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2020-05-20</t>
+          <t>20/05/2020 00:00</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -4183,7 +4183,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2020-05-26</t>
+          <t>26/05/2020 00:00</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4208,7 +4208,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>2020-05-26</t>
+          <t>26/05/2020 00:00</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -4256,7 +4256,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2020-05-21</t>
+          <t>21/05/2020 00:00</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -4276,7 +4276,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2020-05-21</t>
+          <t>21/05/2020 00:00</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -4329,7 +4329,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>18/05/2020 00:00</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4354,7 +4354,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>18/05/2020 00:00</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -4407,7 +4407,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2020-05-26</t>
+          <t>26/05/2020 00:00</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4432,7 +4432,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>2020-05-26</t>
+          <t>26/05/2020 00:00</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -4480,7 +4480,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2020-05-07</t>
+          <t>07/05/2020 00:00</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -4500,7 +4500,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>2020-05-07</t>
+          <t>07/05/2020 00:00</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -4553,7 +4553,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2020-05-20</t>
+          <t>20/05/2020 00:00</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -4573,7 +4573,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2020-05-20</t>
+          <t>20/05/2020 00:00</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -4626,7 +4626,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2020-06-02</t>
+          <t>02/06/2020 00:00</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4651,7 +4651,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>2020-06-02</t>
+          <t>02/06/2020 00:00</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -4704,7 +4704,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2020-06-09</t>
+          <t>09/06/2020 00:00</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>2020-06-09</t>
+          <t>09/06/2020 00:00</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -4782,7 +4782,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2020-05-20</t>
+          <t>20/05/2020 00:00</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4807,7 +4807,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>2020-05-20</t>
+          <t>20/05/2020 00:00</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -4855,7 +4855,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2020-05-28</t>
+          <t>28/05/2020 00:00</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4880,7 +4880,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2020-05-28</t>
+          <t>28/05/2020 00:00</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -4928,7 +4928,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2020-05-26</t>
+          <t>26/05/2020 00:00</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -4948,7 +4948,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2020-05-26</t>
+          <t>26/05/2020 00:00</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -5001,7 +5001,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2020-05-28</t>
+          <t>28/05/2020 00:00</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -5026,7 +5026,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>2020-05-28</t>
+          <t>28/05/2020 00:00</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -5079,7 +5079,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2020-06-08</t>
+          <t>08/06/2020 00:00</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -5104,7 +5104,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>2020-06-08</t>
+          <t>08/06/2020 00:00</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -5157,7 +5157,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>18/05/2020 00:00</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5182,7 +5182,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>18/05/2020 00:00</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -5230,7 +5230,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2020-05-26</t>
+          <t>26/05/2020 00:00</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -5255,7 +5255,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>2020-05-26</t>
+          <t>26/05/2020 00:00</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -5303,7 +5303,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2020-05-26</t>
+          <t>26/05/2020 00:00</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -5328,7 +5328,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>2020-05-26</t>
+          <t>26/05/2020 00:00</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -5381,7 +5381,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>18/05/2020 00:00</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>18/05/2020 00:00</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -5459,7 +5459,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2020-05-20</t>
+          <t>20/05/2020 00:00</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -5479,7 +5479,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>2020-05-20</t>
+          <t>20/05/2020 00:00</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -5527,7 +5527,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2020-05-20</t>
+          <t>20/05/2020 00:00</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -5547,7 +5547,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>2020-05-20</t>
+          <t>20/05/2020 00:00</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -5600,7 +5600,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>18/05/2020 00:00</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5625,7 +5625,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>18/05/2020 00:00</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -5678,7 +5678,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2020-05-26</t>
+          <t>26/05/2020 00:00</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5703,7 +5703,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>2020-05-26</t>
+          <t>26/05/2020 00:00</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -5751,7 +5751,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2020-05-19</t>
+          <t>19/05/2020 00:00</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5776,7 +5776,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>2020-05-19</t>
+          <t>19/05/2020 00:00</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -5829,7 +5829,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2020-05-28</t>
+          <t>28/05/2020 00:00</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5854,7 +5854,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>2020-05-28</t>
+          <t>28/05/2020 00:00</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -5897,7 +5897,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2020-05-20</t>
+          <t>20/05/2020 00:00</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -5917,7 +5917,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>2020-05-20</t>
+          <t>20/05/2020 00:00</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -5965,7 +5965,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2020-05-21</t>
+          <t>21/05/2020 00:00</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -5985,7 +5985,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>2020-05-21</t>
+          <t>21/05/2020 00:00</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -6033,7 +6033,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2020-04-21</t>
+          <t>21/04/2020 00:00</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -6058,7 +6058,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>2020-04-21</t>
+          <t>21/04/2020 00:00</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -6106,7 +6106,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2020-05-26</t>
+          <t>26/05/2020 00:00</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -6131,7 +6131,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>2020-05-26</t>
+          <t>26/05/2020 00:00</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2020-05-19</t>
+          <t>19/05/2020 00:00</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -6209,7 +6209,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>2020-05-19</t>
+          <t>19/05/2020 00:00</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -6262,7 +6262,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2020-05-12</t>
+          <t>12/05/2020 00:00</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -6282,7 +6282,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>2020-05-12</t>
+          <t>12/05/2020 00:00</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -6330,7 +6330,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2020-05-20</t>
+          <t>20/05/2020 00:00</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -6350,7 +6350,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>2020-05-20</t>
+          <t>20/05/2020 00:00</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -6398,7 +6398,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2020-05-28</t>
+          <t>28/05/2020 00:00</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -6418,7 +6418,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>2020-05-28</t>
+          <t>28/05/2020 00:00</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -6466,7 +6466,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2020-06-08</t>
+          <t>08/06/2020 00:00</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -6491,7 +6491,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>2020-06-08</t>
+          <t>08/06/2020 00:00</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -6539,7 +6539,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2020-05-12</t>
+          <t>12/05/2020 00:00</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -6559,7 +6559,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>2020-05-12</t>
+          <t>12/05/2020 00:00</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>27/05/2020 00:00</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -6637,7 +6637,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>27/05/2020 00:00</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -6685,7 +6685,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2020-05-20</t>
+          <t>20/05/2020 00:00</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -6705,7 +6705,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>2020-05-20</t>
+          <t>20/05/2020 00:00</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -6758,7 +6758,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2020-06-02</t>
+          <t>02/06/2020 00:00</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6783,7 +6783,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>2020-06-02</t>
+          <t>02/06/2020 00:00</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -6836,7 +6836,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2020-05-20</t>
+          <t>20/05/2020 00:00</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>2020-05-20</t>
+          <t>20/05/2020 00:00</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -6899,7 +6899,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2020-05-12</t>
+          <t>12/05/2020 00:00</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -6919,7 +6919,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>2020-05-12</t>
+          <t>12/05/2020 00:00</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -6972,7 +6972,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>18/05/2020 00:00</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -6997,7 +6997,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>18/05/2020 00:00</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -7050,7 +7050,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2020-05-20</t>
+          <t>20/05/2020 00:00</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -7070,7 +7070,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>2020-05-20</t>
+          <t>20/05/2020 00:00</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -7123,7 +7123,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2020-05-19</t>
+          <t>19/05/2020 00:00</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -7148,7 +7148,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>2020-05-19</t>
+          <t>19/05/2020 00:00</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -7201,7 +7201,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>18/05/2020 00:00</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -7226,7 +7226,7 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>18/05/2020 00:00</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
@@ -7274,7 +7274,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2020-05-20</t>
+          <t>20/05/2020 00:00</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -7299,7 +7299,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>2020-05-20</t>
+          <t>20/05/2020 00:00</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -7342,7 +7342,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>22/04/2020 00:00</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -7367,7 +7367,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>22/04/2020 00:00</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -7415,7 +7415,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2020-04-21</t>
+          <t>21/04/2020 00:00</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -7440,7 +7440,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>2020-04-21</t>
+          <t>21/04/2020 00:00</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -7483,7 +7483,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2020-04-29</t>
+          <t>29/04/2020 00:00</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -7503,7 +7503,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>2020-04-29</t>
+          <t>29/04/2020 00:00</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -7556,7 +7556,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2020-04-21</t>
+          <t>21/04/2020 00:00</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7581,7 +7581,7 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>2020-04-21</t>
+          <t>21/04/2020 00:00</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -7629,7 +7629,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2020-04-21</t>
+          <t>21/04/2020 00:00</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -7649,7 +7649,7 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>2020-04-21</t>
+          <t>21/04/2020 00:00</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
@@ -7702,7 +7702,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2020-05-05</t>
+          <t>05/05/2020 00:00</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -7727,7 +7727,7 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>2020-05-05</t>
+          <t>05/05/2020 00:00</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
@@ -7775,7 +7775,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2020-04-21</t>
+          <t>21/04/2020 00:00</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -7800,7 +7800,7 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>2020-04-21</t>
+          <t>21/04/2020 00:00</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
@@ -7848,7 +7848,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2020-05-05</t>
+          <t>05/05/2020 00:00</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -7873,7 +7873,7 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>2020-05-05</t>
+          <t>05/05/2020 00:00</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
@@ -7921,7 +7921,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2020-05-06</t>
+          <t>06/05/2020 00:00</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7946,7 +7946,7 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>2020-05-06</t>
+          <t>06/05/2020 00:00</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
@@ -7999,7 +7999,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2020-05-05</t>
+          <t>05/05/2020 00:00</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -8024,7 +8024,7 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>2020-05-05</t>
+          <t>05/05/2020 00:00</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
@@ -8072,7 +8072,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2020-05-15</t>
+          <t>15/05/2020 00:00</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -8092,7 +8092,7 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>2020-05-15</t>
+          <t>15/05/2020 00:00</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
@@ -8145,7 +8145,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2020-05-20</t>
+          <t>20/05/2020 00:00</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -8170,7 +8170,7 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>2020-05-20</t>
+          <t>20/05/2020 00:00</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
@@ -8218,7 +8218,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2020-05-20</t>
+          <t>20/05/2020 00:00</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -8238,7 +8238,7 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>2020-05-20</t>
+          <t>20/05/2020 00:00</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
@@ -8291,7 +8291,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>18/05/2020 00:00</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -8316,7 +8316,7 @@
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>18/05/2020 00:00</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
@@ -8369,7 +8369,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2020-06-09</t>
+          <t>09/06/2020 00:00</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -8394,7 +8394,7 @@
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>2020-06-09</t>
+          <t>09/06/2020 00:00</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
@@ -8447,7 +8447,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>2020-05-06</t>
+          <t>06/05/2020 00:00</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -8467,7 +8467,7 @@
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>2020-05-06</t>
+          <t>06/05/2020 00:00</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
@@ -8515,7 +8515,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>2021-05-26</t>
+          <t>26/05/2021 05:52</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -8535,7 +8535,7 @@
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>2021-05-26</t>
+          <t>26/05/2021 05:52</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
@@ -8583,7 +8583,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>14/05/2021 05:41</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -8603,7 +8603,7 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>14/05/2021 05:41</t>
         </is>
       </c>
       <c r="N112" t="inlineStr">
@@ -8651,7 +8651,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>2021-07-26</t>
+          <t>26/07/2021 04:00</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -8671,7 +8671,7 @@
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>2021-07-26</t>
+          <t>26/07/2021 04:00</t>
         </is>
       </c>
       <c r="N113" t="inlineStr">
@@ -8719,7 +8719,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>2021-08-03</t>
+          <t>03/08/2021 08:17</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -8739,7 +8739,7 @@
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>2021-08-03</t>
+          <t>03/08/2021 08:17</t>
         </is>
       </c>
       <c r="N114" t="inlineStr">
@@ -8782,7 +8782,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>2021-06-02</t>
+          <t>02/06/2021 03:06</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -8802,7 +8802,7 @@
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>2021-06-02</t>
+          <t>02/06/2021 03:06</t>
         </is>
       </c>
       <c r="N115" t="inlineStr">
@@ -8850,7 +8850,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>2021-06-02</t>
+          <t>02/06/2021 09:14</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -8870,7 +8870,7 @@
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>2021-06-02</t>
+          <t>02/06/2021 09:14</t>
         </is>
       </c>
       <c r="N116" t="inlineStr">
@@ -8923,7 +8923,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>2020-07-15</t>
+          <t>15/07/2020 00:00</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -8948,7 +8948,7 @@
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>2020-07-15</t>
+          <t>15/07/2020 00:00</t>
         </is>
       </c>
       <c r="N117" t="inlineStr">
@@ -9001,7 +9001,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>2020-07-14</t>
+          <t>14/07/2020 00:00</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -9026,7 +9026,7 @@
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>2020-07-14</t>
+          <t>14/07/2020 00:00</t>
         </is>
       </c>
       <c r="N118" t="inlineStr">
@@ -9069,7 +9069,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>2020-08-24</t>
+          <t>24/08/2020 04:28</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -9094,7 +9094,7 @@
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>2020-08-24</t>
+          <t>24/08/2020 04:28</t>
         </is>
       </c>
       <c r="N119" t="inlineStr">
@@ -9142,7 +9142,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>2020-07-23</t>
+          <t>23/07/2020 00:00</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -9162,7 +9162,7 @@
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>2020-07-23</t>
+          <t>23/07/2020 00:00</t>
         </is>
       </c>
       <c r="N120" t="inlineStr">
@@ -9210,7 +9210,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>2020-08-26</t>
+          <t>26/08/2020 04:33</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -9235,7 +9235,7 @@
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>2020-08-26</t>
+          <t>26/08/2020 04:33</t>
         </is>
       </c>
       <c r="N121" t="inlineStr">
@@ -9283,7 +9283,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>2020-10-11</t>
+          <t>11/10/2020 04:25</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -9303,7 +9303,7 @@
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>2020-10-11</t>
+          <t>11/10/2020 04:25</t>
         </is>
       </c>
       <c r="N122" t="inlineStr">
@@ -9351,7 +9351,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>2020-08-25</t>
+          <t>25/08/2020 08:45</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -9376,7 +9376,7 @@
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>2020-08-25</t>
+          <t>25/08/2020 08:45</t>
         </is>
       </c>
       <c r="N123" t="inlineStr">
@@ -9429,7 +9429,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>2020-07-23</t>
+          <t>23/07/2020 00:00</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -9449,7 +9449,7 @@
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>2020-07-23</t>
+          <t>23/07/2020 00:00</t>
         </is>
       </c>
       <c r="N124" t="inlineStr">
@@ -9497,7 +9497,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>11/05/2021 09:08</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -9522,7 +9522,7 @@
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>11/05/2021 09:08</t>
         </is>
       </c>
       <c r="N125" t="inlineStr">
@@ -9570,7 +9570,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>2021-05-25</t>
+          <t>25/05/2021 09:17</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -9590,7 +9590,7 @@
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>2021-05-25</t>
+          <t>25/05/2021 09:17</t>
         </is>
       </c>
       <c r="N126" t="inlineStr">
@@ -9633,7 +9633,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>2021-11-23</t>
+          <t>23/11/2021 05:01</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -9653,7 +9653,7 @@
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>2021-11-23</t>
+          <t>23/11/2021 05:01</t>
         </is>
       </c>
       <c r="N127" t="inlineStr">
@@ -9696,7 +9696,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>2021-05-25</t>
+          <t>25/05/2021 08:34</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -9716,7 +9716,7 @@
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>2021-05-25</t>
+          <t>25/05/2021 08:34</t>
         </is>
       </c>
       <c r="N128" t="inlineStr">
@@ -9759,7 +9759,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>2021-05-25</t>
+          <t>25/05/2021 10:14</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -9779,7 +9779,7 @@
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>2021-05-25</t>
+          <t>25/05/2021 10:14</t>
         </is>
       </c>
       <c r="N129" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>2021-05-25</t>
+          <t>25/05/2021 00:00</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -9852,7 +9852,7 @@
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>2021-05-25</t>
+          <t>25/05/2021 00:00</t>
         </is>
       </c>
       <c r="N130" t="inlineStr">
@@ -9895,7 +9895,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>2021-08-03</t>
+          <t>02/08/2021 07:49</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -9915,7 +9915,7 @@
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>2021-08-03</t>
+          <t>02/08/2021 07:49</t>
         </is>
       </c>
       <c r="N131" t="inlineStr">
@@ -9958,7 +9958,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>2021-06-07</t>
+          <t>07/06/2021 05:25</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -9978,7 +9978,7 @@
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>2021-06-07</t>
+          <t>07/06/2021 05:25</t>
         </is>
       </c>
       <c r="N132" t="inlineStr">
@@ -10021,7 +10021,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>2021-06-09</t>
+          <t>09/06/2021 02:19</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -10041,7 +10041,7 @@
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>2021-06-09</t>
+          <t>09/06/2021 02:19</t>
         </is>
       </c>
       <c r="N133" t="inlineStr">
@@ -10084,7 +10084,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>2021-06-01</t>
+          <t>01/06/2021 09:17</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -10104,7 +10104,7 @@
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>2021-06-01</t>
+          <t>01/06/2021 09:17</t>
         </is>
       </c>
       <c r="N134" t="inlineStr">
@@ -10152,7 +10152,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>2021-06-08</t>
+          <t>08/06/2021 08:08</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -10172,7 +10172,7 @@
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>2021-06-08</t>
+          <t>08/06/2021 08:08</t>
         </is>
       </c>
       <c r="N135" t="inlineStr">
@@ -10215,7 +10215,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>11/05/2021 05:30</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -10235,7 +10235,7 @@
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>11/05/2021 05:30</t>
         </is>
       </c>
       <c r="N136" t="inlineStr">
@@ -10283,7 +10283,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>2021-06-07</t>
+          <t>07/06/2021 03:32</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -10303,7 +10303,7 @@
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>2021-06-07</t>
+          <t>07/06/2021 03:32</t>
         </is>
       </c>
       <c r="N137" t="inlineStr">
@@ -10346,7 +10346,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>2021-06-01</t>
+          <t>01/06/2021 04:28</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -10366,7 +10366,7 @@
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>2021-06-01</t>
+          <t>01/06/2021 04:28</t>
         </is>
       </c>
       <c r="N138" t="inlineStr">
@@ -10414,7 +10414,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>2021-06-09</t>
+          <t>09/06/2021 00:00</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -10434,7 +10434,7 @@
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>2021-06-09</t>
+          <t>09/06/2021 00:00</t>
         </is>
       </c>
       <c r="N139" t="inlineStr">
@@ -10482,7 +10482,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>2021-04-21</t>
+          <t>21/04/2021 08:23</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -10502,7 +10502,7 @@
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>2021-04-21</t>
+          <t>21/04/2021 08:23</t>
         </is>
       </c>
       <c r="N140" t="inlineStr">
@@ -10550,7 +10550,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>2021-06-08</t>
+          <t>08/06/2021 06:44</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -10570,7 +10570,7 @@
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>2021-06-08</t>
+          <t>08/06/2021 06:44</t>
         </is>
       </c>
       <c r="N141" t="inlineStr">
@@ -10613,7 +10613,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>2021-04-20</t>
+          <t>20/04/2021 00:00</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -10633,7 +10633,7 @@
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>2021-04-20</t>
+          <t>20/04/2021 00:00</t>
         </is>
       </c>
       <c r="N142" t="inlineStr">
@@ -10681,7 +10681,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>2021-06-07</t>
+          <t>07/06/2021 04:42</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -10701,7 +10701,7 @@
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>2021-06-07</t>
+          <t>07/06/2021 04:42</t>
         </is>
       </c>
       <c r="N143" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>2021-06-09</t>
+          <t>09/06/2021 07:29</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -10764,7 +10764,7 @@
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>2021-06-09</t>
+          <t>09/06/2021 07:29</t>
         </is>
       </c>
       <c r="N144" t="inlineStr">
@@ -10812,7 +10812,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>2020-06-08</t>
+          <t>08/06/2020 00:00</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -10837,7 +10837,7 @@
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>2020-06-08</t>
+          <t>08/06/2020 00:00</t>
         </is>
       </c>
       <c r="N145" t="inlineStr">
@@ -10885,7 +10885,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>2020-08-27</t>
+          <t>27/08/2020 05:14</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -10910,7 +10910,7 @@
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>2020-08-27</t>
+          <t>27/08/2020 05:14</t>
         </is>
       </c>
       <c r="N146" t="inlineStr">
@@ -10958,7 +10958,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>2021-05-06</t>
+          <t>06/05/2021 00:00</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -10978,7 +10978,7 @@
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>2021-05-06</t>
+          <t>06/05/2021 00:00</t>
         </is>
       </c>
       <c r="N147" t="inlineStr">
@@ -11026,7 +11026,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>2020-07-23</t>
+          <t>23/07/2020 00:00</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -11046,7 +11046,7 @@
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>2020-07-23</t>
+          <t>23/07/2020 00:00</t>
         </is>
       </c>
       <c r="N148" t="inlineStr">
@@ -11094,7 +11094,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>2021-06-09</t>
+          <t>09/06/2021 09:00</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -11114,7 +11114,7 @@
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>2021-06-09</t>
+          <t>09/06/2021 09:00</t>
         </is>
       </c>
       <c r="N149" t="inlineStr">
@@ -11157,7 +11157,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>2021-03-18</t>
+          <t>18/03/2021 00:00</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -11182,7 +11182,7 @@
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>2021-03-18</t>
+          <t>18/03/2021 00:00</t>
         </is>
       </c>
       <c r="N150" t="inlineStr">
@@ -11225,7 +11225,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>11/05/2021 09:31</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -11250,7 +11250,7 @@
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>11/05/2021 09:31</t>
         </is>
       </c>
       <c r="N151" t="inlineStr">
@@ -11298,7 +11298,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>2020-07-22</t>
+          <t>22/07/2020 00:00</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -11318,7 +11318,7 @@
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>2020-07-22</t>
+          <t>22/07/2020 00:00</t>
         </is>
       </c>
       <c r="N152" t="inlineStr">
@@ -11366,7 +11366,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>2021-06-08</t>
+          <t>08/06/2021 06:29</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -11386,7 +11386,7 @@
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>2021-06-08</t>
+          <t>08/06/2021 06:29</t>
         </is>
       </c>
       <c r="N153" t="inlineStr">
@@ -11429,7 +11429,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>2020-10-11</t>
+          <t>11/10/2020 00:00</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -11449,7 +11449,7 @@
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>2020-10-11</t>
+          <t>11/10/2020 00:00</t>
         </is>
       </c>
       <c r="N154" t="inlineStr">
@@ -11502,7 +11502,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>2020-07-23</t>
+          <t>23/07/2020 00:00</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -11522,7 +11522,7 @@
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>2020-07-23</t>
+          <t>23/07/2020 00:00</t>
         </is>
       </c>
       <c r="N155" t="inlineStr">
@@ -11570,7 +11570,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>2020-08-24</t>
+          <t>24/08/2020 04:41</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -11595,7 +11595,7 @@
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>2020-08-24</t>
+          <t>24/08/2020 04:41</t>
         </is>
       </c>
       <c r="N156" t="inlineStr">
@@ -11643,7 +11643,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>2021-06-28</t>
+          <t>23/07/2020 00:00</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -11668,7 +11668,7 @@
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>2021-06-28</t>
+          <t>23/07/2020 00:00</t>
         </is>
       </c>
       <c r="N157" t="inlineStr">
@@ -11716,7 +11716,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>22/10/2020 03:27</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -11736,7 +11736,7 @@
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>22/10/2020 03:27</t>
         </is>
       </c>
       <c r="N158" t="inlineStr">
@@ -11784,7 +11784,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>2020-09-09</t>
+          <t>09/09/2020 00:00</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -11809,7 +11809,7 @@
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>2020-09-09</t>
+          <t>09/09/2020 00:00</t>
         </is>
       </c>
       <c r="N159" t="inlineStr">
@@ -11857,7 +11857,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>2020-09-08</t>
+          <t>08/09/2020 09:55</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -11882,7 +11882,7 @@
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>2020-09-08</t>
+          <t>08/09/2020 09:55</t>
         </is>
       </c>
       <c r="N160" t="inlineStr">
@@ -11930,7 +11930,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>05/08/2020 00:00</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -11950,7 +11950,7 @@
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>05/08/2020 00:00</t>
         </is>
       </c>
       <c r="N161" t="inlineStr">
@@ -11998,7 +11998,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>2020-07-23</t>
+          <t>23/07/2020 00:00</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -12018,7 +12018,7 @@
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>2020-07-23</t>
+          <t>23/07/2020 00:00</t>
         </is>
       </c>
       <c r="N162" t="inlineStr">
@@ -12066,7 +12066,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>2020-08-24</t>
+          <t>24/08/2020 05:53</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -12091,7 +12091,7 @@
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>2020-08-24</t>
+          <t>24/08/2020 05:53</t>
         </is>
       </c>
       <c r="N163" t="inlineStr">
@@ -12134,7 +12134,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>2020-09-16</t>
+          <t>16/09/2020 03:57</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -12159,7 +12159,7 @@
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>2020-09-16</t>
+          <t>16/09/2020 03:57</t>
         </is>
       </c>
       <c r="N164" t="inlineStr">
@@ -12207,7 +12207,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>2020-09-16</t>
+          <t>16/09/2020 06:25</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>2020-09-16</t>
+          <t>16/09/2020 06:25</t>
         </is>
       </c>
       <c r="N165" t="inlineStr">
@@ -12275,7 +12275,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>2020-09-16</t>
+          <t>16/09/2020 03:58</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -12300,7 +12300,7 @@
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>2020-09-16</t>
+          <t>16/09/2020 03:58</t>
         </is>
       </c>
       <c r="N166" t="inlineStr">
@@ -12343,7 +12343,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>2020-09-16</t>
+          <t>16/09/2020 05:43</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -12368,7 +12368,7 @@
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>2020-09-16</t>
+          <t>16/09/2020 05:43</t>
         </is>
       </c>
       <c r="N167" t="inlineStr">
@@ -12411,7 +12411,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>2020-09-15</t>
+          <t>15/09/2020 08:38</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -12436,7 +12436,7 @@
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>2020-09-15</t>
+          <t>15/09/2020 08:38</t>
         </is>
       </c>
       <c r="N168" t="inlineStr">
@@ -12484,7 +12484,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>2020-09-22</t>
+          <t>22/09/2020 08:25</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -12509,7 +12509,7 @@
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>2020-09-22</t>
+          <t>22/09/2020 08:25</t>
         </is>
       </c>
       <c r="N169" t="inlineStr">
@@ -12557,7 +12557,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>2020-09-15</t>
+          <t>15/09/2020 08:21</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -12582,7 +12582,7 @@
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>2020-09-15</t>
+          <t>15/09/2020 08:21</t>
         </is>
       </c>
       <c r="N170" t="inlineStr">
@@ -12630,7 +12630,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>2020-09-15</t>
+          <t>15/09/2020 09:00</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -12655,7 +12655,7 @@
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>2020-09-15</t>
+          <t>15/09/2020 09:00</t>
         </is>
       </c>
       <c r="N171" t="inlineStr">
@@ -12703,7 +12703,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>2020-09-15</t>
+          <t>15/09/2020 10:00</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -12728,7 +12728,7 @@
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>2020-09-15</t>
+          <t>15/09/2020 10:00</t>
         </is>
       </c>
       <c r="N172" t="inlineStr">
@@ -12781,7 +12781,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>05/08/2020 00:00</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -12801,7 +12801,7 @@
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>05/08/2020 00:00</t>
         </is>
       </c>
       <c r="N173" t="inlineStr">
@@ -12849,7 +12849,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>2020-09-16</t>
+          <t>16/09/2020 00:00</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -12874,7 +12874,7 @@
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>2020-09-16</t>
+          <t>16/09/2020 00:00</t>
         </is>
       </c>
       <c r="N174" t="inlineStr">
@@ -12922,7 +12922,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>2020-10-21</t>
+          <t>21/10/2020 05:16</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -12942,7 +12942,7 @@
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>2020-10-21</t>
+          <t>21/10/2020 05:16</t>
         </is>
       </c>
       <c r="N175" t="inlineStr">
@@ -12990,7 +12990,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>2020-10-13</t>
+          <t>13/10/2020 00:00</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -13015,7 +13015,7 @@
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>2020-10-13</t>
+          <t>13/10/2020 00:00</t>
         </is>
       </c>
       <c r="N176" t="inlineStr">
@@ -13068,7 +13068,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>2020-08-06</t>
+          <t>06/08/2020 00:00</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -13088,7 +13088,7 @@
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>2020-08-06</t>
+          <t>06/08/2020 00:00</t>
         </is>
       </c>
       <c r="N177" t="inlineStr">
@@ -13136,7 +13136,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>2020-09-15</t>
+          <t>15/09/2020 07:57</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -13161,7 +13161,7 @@
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>2020-09-15</t>
+          <t>15/09/2020 07:57</t>
         </is>
       </c>
       <c r="N178" t="inlineStr">
@@ -13209,7 +13209,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>2020-09-15</t>
+          <t>15/09/2020 07:40</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -13234,7 +13234,7 @@
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>2020-09-15</t>
+          <t>15/09/2020 07:40</t>
         </is>
       </c>
       <c r="N179" t="inlineStr">
@@ -13282,7 +13282,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>2020-09-16</t>
+          <t>16/09/2020 07:09</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -13307,7 +13307,7 @@
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>2020-09-16</t>
+          <t>16/09/2020 07:09</t>
         </is>
       </c>
       <c r="N180" t="inlineStr">
@@ -13355,7 +13355,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>14/05/2021 04:14</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -13375,7 +13375,7 @@
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>14/05/2021 04:14</t>
         </is>
       </c>
       <c r="N181" t="inlineStr">
@@ -13423,7 +13423,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>2020-08-29</t>
+          <t>29/08/2020 06:05</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -13448,7 +13448,7 @@
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>2020-08-29</t>
+          <t>29/08/2020 06:05</t>
         </is>
       </c>
       <c r="N182" t="inlineStr">
@@ -13496,7 +13496,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>2020-09-08</t>
+          <t>08/09/2020 08:53</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -13521,7 +13521,7 @@
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>2020-09-08</t>
+          <t>08/09/2020 08:53</t>
         </is>
       </c>
       <c r="N183" t="inlineStr">
@@ -13569,7 +13569,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>2021-10-20</t>
+          <t>20/10/2021 09:42</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -13589,7 +13589,7 @@
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>2021-10-20</t>
+          <t>20/10/2021 09:42</t>
         </is>
       </c>
       <c r="N184" t="inlineStr">
@@ -13637,7 +13637,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>2021-09-22</t>
+          <t>22/09/2021 04:00</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -13657,7 +13657,7 @@
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>2021-09-22</t>
+          <t>22/09/2021 04:00</t>
         </is>
       </c>
       <c r="N185" t="inlineStr">
@@ -13700,7 +13700,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>2021-11-22</t>
+          <t>22/11/2021 02:56</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -13720,7 +13720,7 @@
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>2021-11-22</t>
+          <t>22/11/2021 02:56</t>
         </is>
       </c>
       <c r="N186" t="inlineStr">
@@ -13768,7 +13768,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>2021-11-24</t>
+          <t>24/11/2021 04:03</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -13788,7 +13788,7 @@
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>2021-11-24</t>
+          <t>24/11/2021 04:03</t>
         </is>
       </c>
       <c r="N187" t="inlineStr">
@@ -13836,7 +13836,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>2021-11-24</t>
+          <t>24/11/2021 02:08</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -13856,7 +13856,7 @@
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>2021-11-24</t>
+          <t>24/11/2021 02:08</t>
         </is>
       </c>
       <c r="N188" t="inlineStr">
@@ -13904,7 +13904,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>2021-09-22</t>
+          <t>22/09/2021 03:39</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -13924,7 +13924,7 @@
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>2021-09-22</t>
+          <t>22/09/2021 03:39</t>
         </is>
       </c>
       <c r="N189" t="inlineStr">
@@ -13967,7 +13967,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>2021-06-30</t>
+          <t>30/06/2021 05:42</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -13987,7 +13987,7 @@
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>2021-06-30</t>
+          <t>30/06/2021 05:42</t>
         </is>
       </c>
       <c r="N190" t="inlineStr">
@@ -14030,7 +14030,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>2021-07-14</t>
+          <t>14/07/2021 10:41</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -14050,7 +14050,7 @@
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>2021-07-14</t>
+          <t>14/07/2021 10:41</t>
         </is>
       </c>
       <c r="N191" t="inlineStr">
@@ -14098,7 +14098,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>2021-06-23</t>
+          <t>23/06/2021 02:44</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -14118,7 +14118,7 @@
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>2021-06-23</t>
+          <t>23/06/2021 02:44</t>
         </is>
       </c>
       <c r="N192" t="inlineStr">
@@ -14166,7 +14166,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>2021-07-21</t>
+          <t>21/07/2021 08:47</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -14186,7 +14186,7 @@
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>2021-07-21</t>
+          <t>21/07/2021 08:47</t>
         </is>
       </c>
       <c r="N193" t="inlineStr">
@@ -14234,7 +14234,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>2021-06-10</t>
+          <t>10/06/2021 09:05</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -14254,7 +14254,7 @@
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>2021-06-10</t>
+          <t>10/06/2021 09:05</t>
         </is>
       </c>
       <c r="N194" t="inlineStr">
@@ -14302,7 +14302,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>2021-06-08</t>
+          <t>08/06/2021 04:12</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -14322,7 +14322,7 @@
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>2021-06-08</t>
+          <t>08/06/2021 04:12</t>
         </is>
       </c>
       <c r="N195" t="inlineStr">
@@ -14370,7 +14370,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>2021-07-15</t>
+          <t>15/07/2021 02:22</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -14395,7 +14395,7 @@
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>2021-07-15</t>
+          <t>15/07/2021 02:22</t>
         </is>
       </c>
       <c r="N196" t="inlineStr">
@@ -14438,7 +14438,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>2021-06-10</t>
+          <t>10/06/2021 11:14</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -14463,7 +14463,7 @@
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>2021-06-10</t>
+          <t>10/06/2021 11:14</t>
         </is>
       </c>
       <c r="N197" t="inlineStr">
@@ -14506,7 +14506,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>2021-07-19</t>
+          <t>19/07/2021 06:53</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -14526,7 +14526,7 @@
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>2021-07-19</t>
+          <t>19/07/2021 06:53</t>
         </is>
       </c>
       <c r="N198" t="inlineStr">
@@ -14574,7 +14574,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>2021-06-28</t>
+          <t>28/06/2021 05:30</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -14594,7 +14594,7 @@
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>2021-06-28</t>
+          <t>28/06/2021 05:30</t>
         </is>
       </c>
       <c r="N199" t="inlineStr">
@@ -14637,7 +14637,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>2021-06-28</t>
+          <t>28/06/2021 09:41</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -14657,7 +14657,7 @@
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>2021-06-28</t>
+          <t>28/06/2021 09:41</t>
         </is>
       </c>
       <c r="N200" t="inlineStr">
@@ -14700,7 +14700,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>2021-06-10</t>
+          <t>10/06/2021 00:00</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -14720,7 +14720,7 @@
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>2021-06-10</t>
+          <t>10/06/2021 00:00</t>
         </is>
       </c>
       <c r="N201" t="inlineStr">
@@ -14768,7 +14768,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>2021-06-30</t>
+          <t>30/06/2021 03:35</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -14788,7 +14788,7 @@
       </c>
       <c r="M202" t="inlineStr">
         <is>
-          <t>2021-06-30</t>
+          <t>30/06/2021 03:35</t>
         </is>
       </c>
       <c r="N202" t="inlineStr">
@@ -14831,7 +14831,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>2021-06-10</t>
+          <t>10/06/2021 05:44</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -14851,7 +14851,7 @@
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>2021-06-10</t>
+          <t>10/06/2021 05:44</t>
         </is>
       </c>
       <c r="N203" t="inlineStr">
@@ -14899,7 +14899,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>2021-10-19</t>
+          <t>19/10/2021 08:40</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -14919,7 +14919,7 @@
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>2021-10-19</t>
+          <t>19/10/2021 08:40</t>
         </is>
       </c>
       <c r="N204" t="inlineStr">
@@ -14962,7 +14962,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>2021-11-23</t>
+          <t>23/11/2021 08:50</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -14982,7 +14982,7 @@
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>2021-11-23</t>
+          <t>23/11/2021 08:50</t>
         </is>
       </c>
       <c r="N205" t="inlineStr">
@@ -15028,6 +15028,11 @@
           <t>3150</t>
         </is>
       </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>20/09/2021 00:00</t>
+        </is>
+      </c>
       <c r="J206" t="inlineStr">
         <is>
           <t>P09_1</t>
@@ -15041,6 +15046,11 @@
       <c r="L206" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>20/09/2021 00:00</t>
         </is>
       </c>
       <c r="N206" t="inlineStr">
@@ -15088,7 +15098,7 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>2021-09-21</t>
+          <t>21/09/2021 08:27</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -15108,7 +15118,7 @@
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>2021-09-21</t>
+          <t>21/09/2021 08:27</t>
         </is>
       </c>
       <c r="N207" t="inlineStr">
@@ -15156,7 +15166,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>2021-09-22</t>
+          <t>22/09/2021 04:22</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -15176,7 +15186,7 @@
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>2021-09-22</t>
+          <t>22/09/2021 04:22</t>
         </is>
       </c>
       <c r="N208" t="inlineStr">
@@ -15219,7 +15229,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>2021-10-16</t>
+          <t>16/10/2021 08:02</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -15239,7 +15249,7 @@
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>2021-10-16</t>
+          <t>16/10/2021 08:02</t>
         </is>
       </c>
       <c r="N209" t="inlineStr">
@@ -15285,6 +15295,11 @@
           <t>3150</t>
         </is>
       </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>21/09/2021 00:00</t>
+        </is>
+      </c>
       <c r="J210" t="inlineStr">
         <is>
           <t>P09_1</t>
@@ -15298,6 +15313,11 @@
       <c r="L210" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>21/09/2021 00:00</t>
         </is>
       </c>
       <c r="N210" t="inlineStr">
@@ -15345,7 +15365,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>2021-09-22</t>
+          <t>22/09/2021 06:43</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -15365,7 +15385,7 @@
       </c>
       <c r="M211" t="inlineStr">
         <is>
-          <t>2021-09-22</t>
+          <t>22/09/2021 06:43</t>
         </is>
       </c>
       <c r="N211" t="inlineStr">
@@ -15413,7 +15433,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>2021-09-21</t>
+          <t>21/09/2021 05:50</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -15433,7 +15453,7 @@
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>2021-09-21</t>
+          <t>21/09/2021 05:50</t>
         </is>
       </c>
       <c r="N212" t="inlineStr">
@@ -15476,7 +15496,7 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>2021-09-22</t>
+          <t>22/09/2021 00:00</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -15496,7 +15516,7 @@
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>2021-09-22</t>
+          <t>22/09/2021 00:00</t>
         </is>
       </c>
       <c r="N213" t="inlineStr">
@@ -15544,7 +15564,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>2021-09-22</t>
+          <t>22/09/2021 10:11</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -15564,7 +15584,7 @@
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t>2021-09-22</t>
+          <t>22/09/2021 10:11</t>
         </is>
       </c>
       <c r="N214" t="inlineStr">
@@ -15612,7 +15632,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>2021-08-30</t>
+          <t>30/08/2021 06:06</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -15632,7 +15652,7 @@
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>2021-08-30</t>
+          <t>30/08/2021 06:06</t>
         </is>
       </c>
       <c r="N215" t="inlineStr">
@@ -15680,7 +15700,7 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>2021-07-22</t>
+          <t>22/07/2021 07:56</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -15700,7 +15720,7 @@
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>2021-07-22</t>
+          <t>22/07/2021 07:56</t>
         </is>
       </c>
       <c r="N216" t="inlineStr">
@@ -15743,7 +15763,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>2021-09-13</t>
+          <t>13/09/2021 05:07</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -15763,7 +15783,7 @@
       </c>
       <c r="M217" t="inlineStr">
         <is>
-          <t>2021-09-13</t>
+          <t>13/09/2021 05:07</t>
         </is>
       </c>
       <c r="N217" t="inlineStr">
@@ -15811,7 +15831,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>09/08/2021 07:31</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -15831,7 +15851,7 @@
       </c>
       <c r="M218" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>09/08/2021 07:31</t>
         </is>
       </c>
       <c r="N218" t="inlineStr">
@@ -15874,7 +15894,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>2021-09-13</t>
+          <t>13/09/2021 03:27</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -15894,7 +15914,7 @@
       </c>
       <c r="M219" t="inlineStr">
         <is>
-          <t>2021-09-13</t>
+          <t>13/09/2021 03:27</t>
         </is>
       </c>
       <c r="N219" t="inlineStr">
@@ -15942,7 +15962,7 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>2021-07-26</t>
+          <t>26/07/2021 08:29</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -15962,7 +15982,7 @@
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>2021-07-26</t>
+          <t>26/07/2021 08:29</t>
         </is>
       </c>
       <c r="N220" t="inlineStr">
@@ -16010,7 +16030,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>2021-07-22</t>
+          <t>22/07/2021 05:34</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -16030,7 +16050,7 @@
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>2021-07-22</t>
+          <t>22/07/2021 05:34</t>
         </is>
       </c>
       <c r="N221" t="inlineStr">
@@ -16078,7 +16098,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>2021-07-20</t>
+          <t>20/07/2021 04:24</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -16098,7 +16118,7 @@
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>2021-07-20</t>
+          <t>20/07/2021 04:24</t>
         </is>
       </c>
       <c r="N222" t="inlineStr">
@@ -16141,7 +16161,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>2021-08-25</t>
+          <t>25/08/2021 05:49</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -16161,7 +16181,7 @@
       </c>
       <c r="M223" t="inlineStr">
         <is>
-          <t>2021-08-25</t>
+          <t>25/08/2021 05:49</t>
         </is>
       </c>
       <c r="N223" t="inlineStr">
@@ -16209,7 +16229,7 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>2021-08-11</t>
+          <t>11/08/2021 07:39</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -16229,7 +16249,7 @@
       </c>
       <c r="M224" t="inlineStr">
         <is>
-          <t>2021-08-11</t>
+          <t>11/08/2021 07:39</t>
         </is>
       </c>
       <c r="N224" t="inlineStr">
@@ -16277,7 +16297,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>2021-07-14</t>
+          <t>14/07/2021 11:43</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -16297,7 +16317,7 @@
       </c>
       <c r="M225" t="inlineStr">
         <is>
-          <t>2021-07-14</t>
+          <t>14/07/2021 11:43</t>
         </is>
       </c>
       <c r="N225" t="inlineStr">
@@ -16345,7 +16365,7 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>2021-07-12</t>
+          <t>12/07/2021 05:07</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -16365,7 +16385,7 @@
       </c>
       <c r="M226" t="inlineStr">
         <is>
-          <t>2021-07-12</t>
+          <t>12/07/2021 05:07</t>
         </is>
       </c>
       <c r="N226" t="inlineStr">
@@ -16413,7 +16433,7 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>2021-07-15</t>
+          <t>15/07/2021 00:00</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -16433,7 +16453,7 @@
       </c>
       <c r="M227" t="inlineStr">
         <is>
-          <t>2021-07-15</t>
+          <t>15/07/2021 00:00</t>
         </is>
       </c>
       <c r="N227" t="inlineStr">
@@ -16476,7 +16496,7 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>2021-07-13</t>
+          <t>13/07/2021 09:04</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -16496,7 +16516,7 @@
       </c>
       <c r="M228" t="inlineStr">
         <is>
-          <t>2021-07-13</t>
+          <t>13/07/2021 09:04</t>
         </is>
       </c>
       <c r="N228" t="inlineStr">
@@ -16539,7 +16559,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>2021-07-15</t>
+          <t>15/07/2021 06:35</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -16559,7 +16579,7 @@
       </c>
       <c r="M229" t="inlineStr">
         <is>
-          <t>2021-07-15</t>
+          <t>15/07/2021 06:35</t>
         </is>
       </c>
       <c r="N229" t="inlineStr">
@@ -16607,7 +16627,7 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>2021-07-14</t>
+          <t>14/07/2021 08:25</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -16627,7 +16647,7 @@
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>2021-07-14</t>
+          <t>14/07/2021 08:25</t>
         </is>
       </c>
       <c r="N230" t="inlineStr">
@@ -16670,7 +16690,7 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>2021-07-15</t>
+          <t>15/07/2021 04:35</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -16690,7 +16710,7 @@
       </c>
       <c r="M231" t="inlineStr">
         <is>
-          <t>2021-07-15</t>
+          <t>15/07/2021 04:35</t>
         </is>
       </c>
       <c r="N231" t="inlineStr">
@@ -16738,7 +16758,7 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>2021-10-19</t>
+          <t>19/10/2021 08:28</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -16758,7 +16778,7 @@
       </c>
       <c r="M232" t="inlineStr">
         <is>
-          <t>2021-10-19</t>
+          <t>19/10/2021 08:28</t>
         </is>
       </c>
       <c r="N232" t="inlineStr">
@@ -16801,7 +16821,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>2021-07-14</t>
+          <t>14/07/2021 04:38</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -16821,7 +16841,7 @@
       </c>
       <c r="M233" t="inlineStr">
         <is>
-          <t>2021-07-14</t>
+          <t>14/07/2021 04:38</t>
         </is>
       </c>
       <c r="N233" t="inlineStr">
@@ -16869,7 +16889,7 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>09/08/2021 06:11</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -16889,7 +16909,7 @@
       </c>
       <c r="M234" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>09/08/2021 06:11</t>
         </is>
       </c>
       <c r="N234" t="inlineStr">
@@ -16932,7 +16952,7 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>09/08/2021 04:33</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -16952,7 +16972,7 @@
       </c>
       <c r="M235" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>09/08/2021 04:33</t>
         </is>
       </c>
       <c r="N235" t="inlineStr">
@@ -16995,7 +17015,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>2021-07-15</t>
+          <t>15/07/2021 09:25</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -17015,7 +17035,7 @@
       </c>
       <c r="M236" t="inlineStr">
         <is>
-          <t>2021-07-15</t>
+          <t>15/07/2021 09:25</t>
         </is>
       </c>
       <c r="N236" t="inlineStr">
@@ -17063,7 +17083,7 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>2021-07-13</t>
+          <t>13/07/2021 05:25</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -17083,7 +17103,7 @@
       </c>
       <c r="M237" t="inlineStr">
         <is>
-          <t>2021-07-13</t>
+          <t>13/07/2021 05:25</t>
         </is>
       </c>
       <c r="N237" t="inlineStr">
@@ -17126,7 +17146,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>2021-07-15</t>
+          <t>15/07/2021 10:20</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -17146,7 +17166,7 @@
       </c>
       <c r="M238" t="inlineStr">
         <is>
-          <t>2021-07-15</t>
+          <t>15/07/2021 10:20</t>
         </is>
       </c>
       <c r="N238" t="inlineStr">
@@ -17189,7 +17209,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>2021-10-22</t>
+          <t>22/10/2021 04:32</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -17209,7 +17229,7 @@
       </c>
       <c r="M239" t="inlineStr">
         <is>
-          <t>2021-10-22</t>
+          <t>22/10/2021 04:32</t>
         </is>
       </c>
       <c r="N239" t="inlineStr">
@@ -17257,7 +17277,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>2021-10-09</t>
+          <t>09/10/2021 08:37</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -17277,7 +17297,7 @@
       </c>
       <c r="M240" t="inlineStr">
         <is>
-          <t>2021-10-09</t>
+          <t>09/10/2021 08:37</t>
         </is>
       </c>
       <c r="N240" t="inlineStr">
@@ -17325,7 +17345,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>2021-11-23</t>
+          <t>23/11/2021 03:23</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -17345,7 +17365,7 @@
       </c>
       <c r="M241" t="inlineStr">
         <is>
-          <t>2021-11-23</t>
+          <t>23/11/2021 03:23</t>
         </is>
       </c>
       <c r="N241" t="inlineStr">
@@ -17388,7 +17408,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>2021-10-22</t>
+          <t>22/10/2021 08:11</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -17408,7 +17428,7 @@
       </c>
       <c r="M242" t="inlineStr">
         <is>
-          <t>2021-10-22</t>
+          <t>22/10/2021 08:11</t>
         </is>
       </c>
       <c r="N242" t="inlineStr">
@@ -17456,7 +17476,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>2021-11-24</t>
+          <t>24/11/2021 03:02</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -17476,7 +17496,7 @@
       </c>
       <c r="M243" t="inlineStr">
         <is>
-          <t>2021-11-24</t>
+          <t>24/11/2021 03:02</t>
         </is>
       </c>
       <c r="N243" t="inlineStr">
@@ -17524,7 +17544,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>2021-10-22</t>
+          <t>22/10/2021 05:56</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -17544,7 +17564,7 @@
       </c>
       <c r="M244" t="inlineStr">
         <is>
-          <t>2021-10-22</t>
+          <t>22/10/2021 05:56</t>
         </is>
       </c>
       <c r="N244" t="inlineStr">
@@ -17592,7 +17612,7 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>2021-10-06</t>
+          <t>06/10/2021 07:54</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -17612,7 +17632,7 @@
       </c>
       <c r="M245" t="inlineStr">
         <is>
-          <t>2021-10-06</t>
+          <t>06/10/2021 07:54</t>
         </is>
       </c>
       <c r="N245" t="inlineStr">
@@ -17655,7 +17675,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 09:34</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -17675,7 +17695,7 @@
       </c>
       <c r="M246" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 09:34</t>
         </is>
       </c>
       <c r="N246" t="inlineStr">
@@ -17723,7 +17743,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>2021-10-19</t>
+          <t>19/10/2021 07:50</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -17743,7 +17763,7 @@
       </c>
       <c r="M247" t="inlineStr">
         <is>
-          <t>2021-10-19</t>
+          <t>19/10/2021 07:50</t>
         </is>
       </c>
       <c r="N247" t="inlineStr">
@@ -17791,7 +17811,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>2021-09-28</t>
+          <t>28/09/2021 07:44</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -17811,7 +17831,7 @@
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>2021-09-28</t>
+          <t>28/09/2021 07:44</t>
         </is>
       </c>
       <c r="N248" t="inlineStr">
@@ -17859,7 +17879,7 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>2021-09-29</t>
+          <t>29/09/2021 09:20</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -17879,7 +17899,7 @@
       </c>
       <c r="M249" t="inlineStr">
         <is>
-          <t>2021-09-29</t>
+          <t>29/09/2021 09:20</t>
         </is>
       </c>
       <c r="N249" t="inlineStr">
@@ -17927,7 +17947,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 05:19</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -17947,7 +17967,7 @@
       </c>
       <c r="M250" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 05:19</t>
         </is>
       </c>
       <c r="N250" t="inlineStr">
@@ -17995,7 +18015,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>2021-09-28</t>
+          <t>28/09/2021 08:52</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -18015,7 +18035,7 @@
       </c>
       <c r="M251" t="inlineStr">
         <is>
-          <t>2021-09-28</t>
+          <t>28/09/2021 08:52</t>
         </is>
       </c>
       <c r="N251" t="inlineStr">
@@ -18058,7 +18078,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>2021-10-22</t>
+          <t>22/10/2021 05:48</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -18078,7 +18098,7 @@
       </c>
       <c r="M252" t="inlineStr">
         <is>
-          <t>2021-10-22</t>
+          <t>22/10/2021 05:48</t>
         </is>
       </c>
       <c r="N252" t="inlineStr">
@@ -18126,7 +18146,7 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>2021-09-29</t>
+          <t>29/09/2021 10:56</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -18146,7 +18166,7 @@
       </c>
       <c r="M253" t="inlineStr">
         <is>
-          <t>2021-09-29</t>
+          <t>29/09/2021 10:56</t>
         </is>
       </c>
       <c r="N253" t="inlineStr">
@@ -18194,7 +18214,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>2021-09-28</t>
+          <t>28/09/2021 04:46</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -18214,7 +18234,7 @@
       </c>
       <c r="M254" t="inlineStr">
         <is>
-          <t>2021-09-28</t>
+          <t>28/09/2021 04:46</t>
         </is>
       </c>
       <c r="N254" t="inlineStr">
@@ -18262,7 +18282,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>2021-10-13</t>
+          <t>13/10/2021 02:40</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -18282,7 +18302,7 @@
       </c>
       <c r="M255" t="inlineStr">
         <is>
-          <t>2021-10-13</t>
+          <t>13/10/2021 02:40</t>
         </is>
       </c>
       <c r="N255" t="inlineStr">
@@ -18330,7 +18350,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>2021-10-19</t>
+          <t>19/10/2021 06:35</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -18350,7 +18370,7 @@
       </c>
       <c r="M256" t="inlineStr">
         <is>
-          <t>2021-10-19</t>
+          <t>19/10/2021 06:35</t>
         </is>
       </c>
       <c r="N256" t="inlineStr">
@@ -18393,7 +18413,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>2021-10-13</t>
+          <t>13/10/2021 02:15</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -18413,7 +18433,7 @@
       </c>
       <c r="M257" t="inlineStr">
         <is>
-          <t>2021-10-13</t>
+          <t>13/10/2021 02:15</t>
         </is>
       </c>
       <c r="N257" t="inlineStr">
@@ -18461,7 +18481,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>2021-10-13</t>
+          <t>13/10/2021 01:52</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -18481,7 +18501,7 @@
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t>2021-10-13</t>
+          <t>13/10/2021 01:52</t>
         </is>
       </c>
       <c r="N258" t="inlineStr">
@@ -18524,7 +18544,7 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>2021-11-23</t>
+          <t>23/11/2021 09:18</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -18544,7 +18564,7 @@
       </c>
       <c r="M259" t="inlineStr">
         <is>
-          <t>2021-11-23</t>
+          <t>23/11/2021 09:18</t>
         </is>
       </c>
       <c r="N259" t="inlineStr">
@@ -18587,7 +18607,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>2021-11-24</t>
+          <t>24/11/2021 04:28</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -18607,7 +18627,7 @@
       </c>
       <c r="M260" t="inlineStr">
         <is>
-          <t>2021-11-24</t>
+          <t>24/11/2021 04:28</t>
         </is>
       </c>
       <c r="N260" t="inlineStr">
@@ -18655,7 +18675,7 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>2021-11-23</t>
+          <t>23/11/2021 09:41</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -18675,7 +18695,7 @@
       </c>
       <c r="M261" t="inlineStr">
         <is>
-          <t>2021-11-23</t>
+          <t>23/11/2021 09:41</t>
         </is>
       </c>
       <c r="N261" t="inlineStr">
@@ -18723,7 +18743,7 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>2021-11-24</t>
+          <t>24/11/2021 05:40</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -18743,7 +18763,7 @@
       </c>
       <c r="M262" t="inlineStr">
         <is>
-          <t>2021-11-24</t>
+          <t>24/11/2021 05:40</t>
         </is>
       </c>
       <c r="N262" t="inlineStr">
@@ -18786,7 +18806,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>2021-11-24</t>
+          <t>24/11/2021 05:14</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -18806,7 +18826,7 @@
       </c>
       <c r="M263" t="inlineStr">
         <is>
-          <t>2021-11-24</t>
+          <t>24/11/2021 05:14</t>
         </is>
       </c>
       <c r="N263" t="inlineStr">

--- a/analysis/metadata/P09_1/P09_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P09_1/P09_1_minimal_metadata.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>03/09/2019 00:00</t>
+          <t>2019-09-03</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>03/09/2019 00:00</t>
+          <t>2019-09-03</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>03/09/2019 00:00</t>
+          <t>2019-09-03</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>03/09/2019 00:00</t>
+          <t>2019-09-03</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>03/09/2019 00:00</t>
+          <t>2019-09-03</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>03/09/2019 00:00</t>
+          <t>2019-09-03</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -707,7 +707,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>04/09/2019 00:00</t>
+          <t>2019-09-04</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -732,7 +732,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>04/09/2019 00:00</t>
+          <t>2019-09-04</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>04/09/2019 00:00</t>
+          <t>2019-09-04</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>04/09/2019 00:00</t>
+          <t>2019-09-04</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>04/09/2019 00:00</t>
+          <t>2019-09-04</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>04/09/2019 00:00</t>
+          <t>2019-09-04</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>02/09/2019 00:00</t>
+          <t>2019-09-02</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -966,7 +966,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>02/09/2019 00:00</t>
+          <t>2019-09-02</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>02/09/2019 00:00</t>
+          <t>2019-09-02</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>02/09/2019 00:00</t>
+          <t>2019-09-02</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>05/09/2019 00:00</t>
+          <t>2019-09-05</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>05/09/2019 00:00</t>
+          <t>2019-09-05</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>04/09/2019 00:00</t>
+          <t>2019-09-04</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>04/09/2019 00:00</t>
+          <t>2019-09-04</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>04/09/2019 00:00</t>
+          <t>2019-09-04</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>04/09/2019 00:00</t>
+          <t>2019-09-04</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>04/09/2019 00:00</t>
+          <t>2019-09-04</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>04/09/2019 00:00</t>
+          <t>2019-09-04</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1404,7 +1404,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>04/09/2019 00:00</t>
+          <t>2019-09-04</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>04/09/2019 00:00</t>
+          <t>2019-09-04</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>04/09/2019 00:00</t>
+          <t>2019-09-04</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>04/09/2019 00:00</t>
+          <t>2019-09-04</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>04/09/2019 00:00</t>
+          <t>2019-09-04</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>04/09/2019 00:00</t>
+          <t>2019-09-04</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>04/09/2019 00:00</t>
+          <t>2019-09-04</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>04/09/2019 00:00</t>
+          <t>2019-09-04</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1706,7 +1706,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>02/09/2019 00:00</t>
+          <t>2019-09-02</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>02/09/2019 00:00</t>
+          <t>2019-09-02</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1784,7 +1784,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>03/09/2019 00:00</t>
+          <t>2019-09-03</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1809,7 +1809,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>03/09/2019 00:00</t>
+          <t>2019-09-03</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1862,7 +1862,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>02/09/2019 00:00</t>
+          <t>2019-09-02</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>02/09/2019 00:00</t>
+          <t>2019-09-02</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1940,7 +1940,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>02/09/2019 00:00</t>
+          <t>2019-09-02</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1965,7 +1965,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>02/09/2019 00:00</t>
+          <t>2019-09-02</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>02/09/2019 00:00</t>
+          <t>2019-09-02</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2043,7 +2043,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>02/09/2019 00:00</t>
+          <t>2019-09-02</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2096,7 +2096,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>03/09/2019 00:00</t>
+          <t>2019-09-03</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>03/09/2019 00:00</t>
+          <t>2019-09-03</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2174,7 +2174,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>02/09/2019 00:00</t>
+          <t>2019-09-02</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>02/09/2019 00:00</t>
+          <t>2019-09-02</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2242,7 +2242,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>25/05/2020 00:00</t>
+          <t>2020-05-25</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2262,7 +2262,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>25/05/2020 00:00</t>
+          <t>2020-05-25</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>31/03/2020 00:00</t>
+          <t>2020-03-31</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2330,7 +2330,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>31/03/2020 00:00</t>
+          <t>2020-03-31</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2378,7 +2378,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>05/04/2020 00:00</t>
+          <t>2020-04-05</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2403,7 +2403,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>05/04/2020 00:00</t>
+          <t>2020-04-05</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>22/06/2020 00:00</t>
+          <t>2020-06-22</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2466,7 +2466,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>22/06/2020 00:00</t>
+          <t>2020-06-22</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2519,7 +2519,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>08/07/2020 00:00</t>
+          <t>2020-07-08</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>08/07/2020 00:00</t>
+          <t>2020-07-08</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2592,7 +2592,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>28/05/2020 00:00</t>
+          <t>2020-05-28</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>28/05/2020 00:00</t>
+          <t>2020-05-28</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>22/06/2020 00:00</t>
+          <t>2020-06-22</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2685,7 +2685,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>22/06/2020 00:00</t>
+          <t>2020-06-22</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2733,7 +2733,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>28/05/2020 00:00</t>
+          <t>2020-05-28</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2758,7 +2758,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>28/05/2020 00:00</t>
+          <t>2020-05-28</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2806,7 +2806,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>30/04/2020 00:00</t>
+          <t>2020-04-30</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2826,7 +2826,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>30/04/2020 00:00</t>
+          <t>2020-04-30</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2874,7 +2874,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>31/03/2020 00:00</t>
+          <t>2020-03-31</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>31/03/2020 00:00</t>
+          <t>2020-03-31</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -2947,7 +2947,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>08/04/2020 00:00</t>
+          <t>2020-04-08</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2972,7 +2972,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>08/04/2020 00:00</t>
+          <t>2020-04-08</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -3015,7 +3015,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>28/04/2020 00:00</t>
+          <t>2020-04-28</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -3035,7 +3035,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>28/04/2020 00:00</t>
+          <t>2020-04-28</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -3078,7 +3078,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>07/04/2020 00:00</t>
+          <t>2020-04-07</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3103,7 +3103,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>07/04/2020 00:00</t>
+          <t>2020-04-07</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -3146,7 +3146,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>15/04/2020 00:00</t>
+          <t>2020-04-15</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>15/04/2020 00:00</t>
+          <t>2020-04-15</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -3219,7 +3219,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>07/04/2020 00:00</t>
+          <t>2020-04-07</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3244,7 +3244,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>07/04/2020 00:00</t>
+          <t>2020-04-07</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3292,7 +3292,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>31/03/2020 00:00</t>
+          <t>2020-03-31</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3317,7 +3317,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>31/03/2020 00:00</t>
+          <t>2020-03-31</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3365,7 +3365,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>13/05/2020 00:00</t>
+          <t>2020-05-13</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>13/05/2020 00:00</t>
+          <t>2020-05-13</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>31/03/2020 00:00</t>
+          <t>2020-03-31</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3458,7 +3458,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>31/03/2020 00:00</t>
+          <t>2020-03-31</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -3506,7 +3506,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>27/05/2020 00:00</t>
+          <t>2020-05-27</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>27/05/2020 00:00</t>
+          <t>2020-05-27</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -3579,7 +3579,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>28/05/2020 00:00</t>
+          <t>2020-05-28</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3604,7 +3604,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>28/05/2020 00:00</t>
+          <t>2020-05-28</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -3652,7 +3652,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>28/05/2020 00:00</t>
+          <t>2020-05-28</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3677,7 +3677,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>28/05/2020 00:00</t>
+          <t>2020-05-28</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3730,7 +3730,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>28/05/2020 00:00</t>
+          <t>2020-05-28</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3755,7 +3755,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>28/05/2020 00:00</t>
+          <t>2020-05-28</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -3803,7 +3803,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>03/06/2020 00:00</t>
+          <t>2020-06-03</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3828,7 +3828,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>03/06/2020 00:00</t>
+          <t>2020-06-03</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -3881,7 +3881,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>28/05/2020 00:00</t>
+          <t>2020-05-28</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3906,7 +3906,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>28/05/2020 00:00</t>
+          <t>2020-05-28</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -3954,7 +3954,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>03/06/2020 00:00</t>
+          <t>2020-06-03</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3979,7 +3979,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>03/06/2020 00:00</t>
+          <t>2020-06-03</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -4032,7 +4032,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>27/05/2020 00:00</t>
+          <t>2020-05-27</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>27/05/2020 00:00</t>
+          <t>2020-05-27</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>20/05/2020 00:00</t>
+          <t>2020-05-20</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4130,7 +4130,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>20/05/2020 00:00</t>
+          <t>2020-05-20</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -4183,7 +4183,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>26/05/2020 00:00</t>
+          <t>2020-05-26</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4208,7 +4208,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>26/05/2020 00:00</t>
+          <t>2020-05-26</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -4256,7 +4256,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>21/05/2020 00:00</t>
+          <t>2020-05-21</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -4276,7 +4276,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>21/05/2020 00:00</t>
+          <t>2020-05-21</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -4329,7 +4329,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>18/05/2020 00:00</t>
+          <t>2020-05-18</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4354,7 +4354,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>18/05/2020 00:00</t>
+          <t>2020-05-18</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -4407,7 +4407,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>26/05/2020 00:00</t>
+          <t>2020-05-26</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4432,7 +4432,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>26/05/2020 00:00</t>
+          <t>2020-05-26</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -4480,7 +4480,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>07/05/2020 00:00</t>
+          <t>2020-05-07</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -4500,7 +4500,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>07/05/2020 00:00</t>
+          <t>2020-05-07</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -4553,7 +4553,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>20/05/2020 00:00</t>
+          <t>2020-05-20</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -4573,7 +4573,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>20/05/2020 00:00</t>
+          <t>2020-05-20</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -4626,7 +4626,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>02/06/2020 00:00</t>
+          <t>2020-06-02</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4651,7 +4651,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>02/06/2020 00:00</t>
+          <t>2020-06-02</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -4704,7 +4704,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>09/06/2020 00:00</t>
+          <t>2020-06-09</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>09/06/2020 00:00</t>
+          <t>2020-06-09</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -4782,7 +4782,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>20/05/2020 00:00</t>
+          <t>2020-05-20</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4807,7 +4807,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>20/05/2020 00:00</t>
+          <t>2020-05-20</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -4855,7 +4855,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>28/05/2020 00:00</t>
+          <t>2020-05-28</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4880,7 +4880,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>28/05/2020 00:00</t>
+          <t>2020-05-28</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -4928,7 +4928,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>26/05/2020 00:00</t>
+          <t>2020-05-26</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -4948,7 +4948,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>26/05/2020 00:00</t>
+          <t>2020-05-26</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -5001,7 +5001,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>28/05/2020 00:00</t>
+          <t>2020-05-28</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -5026,7 +5026,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>28/05/2020 00:00</t>
+          <t>2020-05-28</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -5079,7 +5079,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>08/06/2020 00:00</t>
+          <t>2020-06-08</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -5104,7 +5104,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>08/06/2020 00:00</t>
+          <t>2020-06-08</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -5157,7 +5157,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>18/05/2020 00:00</t>
+          <t>2020-05-18</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5182,7 +5182,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>18/05/2020 00:00</t>
+          <t>2020-05-18</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -5230,7 +5230,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>26/05/2020 00:00</t>
+          <t>2020-05-26</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -5255,7 +5255,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>26/05/2020 00:00</t>
+          <t>2020-05-26</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -5303,7 +5303,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>26/05/2020 00:00</t>
+          <t>2020-05-26</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -5328,7 +5328,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>26/05/2020 00:00</t>
+          <t>2020-05-26</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -5381,7 +5381,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>18/05/2020 00:00</t>
+          <t>2020-05-18</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>18/05/2020 00:00</t>
+          <t>2020-05-18</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -5459,7 +5459,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>20/05/2020 00:00</t>
+          <t>2020-05-20</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -5479,7 +5479,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>20/05/2020 00:00</t>
+          <t>2020-05-20</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -5527,7 +5527,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>20/05/2020 00:00</t>
+          <t>2020-05-20</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -5547,7 +5547,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>20/05/2020 00:00</t>
+          <t>2020-05-20</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -5600,7 +5600,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>18/05/2020 00:00</t>
+          <t>2020-05-18</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5625,7 +5625,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>18/05/2020 00:00</t>
+          <t>2020-05-18</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -5678,7 +5678,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>26/05/2020 00:00</t>
+          <t>2020-05-26</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5703,7 +5703,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>26/05/2020 00:00</t>
+          <t>2020-05-26</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -5751,7 +5751,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>19/05/2020 00:00</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5776,7 +5776,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>19/05/2020 00:00</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -5829,7 +5829,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>28/05/2020 00:00</t>
+          <t>2020-05-28</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5854,7 +5854,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>28/05/2020 00:00</t>
+          <t>2020-05-28</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -5897,7 +5897,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>20/05/2020 00:00</t>
+          <t>2020-05-20</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -5917,7 +5917,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>20/05/2020 00:00</t>
+          <t>2020-05-20</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -5965,7 +5965,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>21/05/2020 00:00</t>
+          <t>2020-05-21</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -5985,7 +5985,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>21/05/2020 00:00</t>
+          <t>2020-05-21</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -6033,7 +6033,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>21/04/2020 00:00</t>
+          <t>2020-04-21</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -6058,7 +6058,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>21/04/2020 00:00</t>
+          <t>2020-04-21</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -6106,7 +6106,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>26/05/2020 00:00</t>
+          <t>2020-05-26</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -6131,7 +6131,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>26/05/2020 00:00</t>
+          <t>2020-05-26</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>19/05/2020 00:00</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -6209,7 +6209,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>19/05/2020 00:00</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -6262,7 +6262,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>12/05/2020 00:00</t>
+          <t>2020-05-12</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -6282,7 +6282,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>12/05/2020 00:00</t>
+          <t>2020-05-12</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -6330,7 +6330,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>20/05/2020 00:00</t>
+          <t>2020-05-20</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -6350,7 +6350,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>20/05/2020 00:00</t>
+          <t>2020-05-20</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -6398,7 +6398,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>28/05/2020 00:00</t>
+          <t>2020-05-28</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -6418,7 +6418,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>28/05/2020 00:00</t>
+          <t>2020-05-28</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -6466,7 +6466,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>08/06/2020 00:00</t>
+          <t>2020-06-08</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -6491,7 +6491,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>08/06/2020 00:00</t>
+          <t>2020-06-08</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -6539,7 +6539,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>12/05/2020 00:00</t>
+          <t>2020-05-12</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -6559,7 +6559,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>12/05/2020 00:00</t>
+          <t>2020-05-12</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>27/05/2020 00:00</t>
+          <t>2020-05-27</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -6637,7 +6637,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>27/05/2020 00:00</t>
+          <t>2020-05-27</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -6685,7 +6685,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>20/05/2020 00:00</t>
+          <t>2020-05-20</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -6705,7 +6705,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>20/05/2020 00:00</t>
+          <t>2020-05-20</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -6758,7 +6758,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>02/06/2020 00:00</t>
+          <t>2020-06-02</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6783,7 +6783,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>02/06/2020 00:00</t>
+          <t>2020-06-02</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -6836,7 +6836,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>20/05/2020 00:00</t>
+          <t>2020-05-20</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>20/05/2020 00:00</t>
+          <t>2020-05-20</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -6899,7 +6899,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>12/05/2020 00:00</t>
+          <t>2020-05-12</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -6919,7 +6919,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>12/05/2020 00:00</t>
+          <t>2020-05-12</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -6972,7 +6972,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>18/05/2020 00:00</t>
+          <t>2020-05-18</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -6997,7 +6997,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>18/05/2020 00:00</t>
+          <t>2020-05-18</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -7050,7 +7050,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>20/05/2020 00:00</t>
+          <t>2020-05-20</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -7070,7 +7070,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>20/05/2020 00:00</t>
+          <t>2020-05-20</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -7123,7 +7123,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>19/05/2020 00:00</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -7148,7 +7148,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>19/05/2020 00:00</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -7201,7 +7201,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>18/05/2020 00:00</t>
+          <t>2020-05-18</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -7226,7 +7226,7 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>18/05/2020 00:00</t>
+          <t>2020-05-18</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
@@ -7274,7 +7274,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>20/05/2020 00:00</t>
+          <t>2020-05-20</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -7299,7 +7299,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>20/05/2020 00:00</t>
+          <t>2020-05-20</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -7342,7 +7342,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>22/04/2020 00:00</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -7367,7 +7367,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>22/04/2020 00:00</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -7415,7 +7415,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>21/04/2020 00:00</t>
+          <t>2020-04-21</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -7440,7 +7440,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>21/04/2020 00:00</t>
+          <t>2020-04-21</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -7483,7 +7483,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>29/04/2020 00:00</t>
+          <t>2020-04-29</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -7503,7 +7503,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>29/04/2020 00:00</t>
+          <t>2020-04-29</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -7556,7 +7556,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>21/04/2020 00:00</t>
+          <t>2020-04-21</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7581,7 +7581,7 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>21/04/2020 00:00</t>
+          <t>2020-04-21</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -7629,7 +7629,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>21/04/2020 00:00</t>
+          <t>2020-04-21</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -7649,7 +7649,7 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>21/04/2020 00:00</t>
+          <t>2020-04-21</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
@@ -7702,7 +7702,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>05/05/2020 00:00</t>
+          <t>2020-05-05</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -7727,7 +7727,7 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>05/05/2020 00:00</t>
+          <t>2020-05-05</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
@@ -7775,7 +7775,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>21/04/2020 00:00</t>
+          <t>2020-04-21</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -7800,7 +7800,7 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>21/04/2020 00:00</t>
+          <t>2020-04-21</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
@@ -7848,7 +7848,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>05/05/2020 00:00</t>
+          <t>2020-05-05</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -7873,7 +7873,7 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>05/05/2020 00:00</t>
+          <t>2020-05-05</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
@@ -7921,7 +7921,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>06/05/2020 00:00</t>
+          <t>2020-05-06</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7946,7 +7946,7 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>06/05/2020 00:00</t>
+          <t>2020-05-06</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
@@ -7999,7 +7999,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>05/05/2020 00:00</t>
+          <t>2020-05-05</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -8024,7 +8024,7 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>05/05/2020 00:00</t>
+          <t>2020-05-05</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
@@ -8072,7 +8072,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>15/05/2020 00:00</t>
+          <t>2020-05-15</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -8092,7 +8092,7 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>15/05/2020 00:00</t>
+          <t>2020-05-15</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
@@ -8145,7 +8145,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>20/05/2020 00:00</t>
+          <t>2020-05-20</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -8170,7 +8170,7 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>20/05/2020 00:00</t>
+          <t>2020-05-20</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
@@ -8218,7 +8218,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>20/05/2020 00:00</t>
+          <t>2020-05-20</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -8238,7 +8238,7 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>20/05/2020 00:00</t>
+          <t>2020-05-20</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
@@ -8291,7 +8291,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>18/05/2020 00:00</t>
+          <t>2020-05-18</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -8316,7 +8316,7 @@
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>18/05/2020 00:00</t>
+          <t>2020-05-18</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
@@ -8369,7 +8369,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>09/06/2020 00:00</t>
+          <t>2020-06-09</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -8394,7 +8394,7 @@
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>09/06/2020 00:00</t>
+          <t>2020-06-09</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
@@ -8447,7 +8447,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>06/05/2020 00:00</t>
+          <t>2020-05-06</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -8467,7 +8467,7 @@
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>06/05/2020 00:00</t>
+          <t>2020-05-06</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
@@ -8515,7 +8515,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>26/05/2021 05:52</t>
+          <t>2021-05-26</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -8535,7 +8535,7 @@
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>26/05/2021 05:52</t>
+          <t>2021-05-26</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
@@ -8583,7 +8583,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>14/05/2021 05:41</t>
+          <t>2021-05-14</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -8603,7 +8603,7 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>14/05/2021 05:41</t>
+          <t>2021-05-14</t>
         </is>
       </c>
       <c r="N112" t="inlineStr">
@@ -8651,7 +8651,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>26/07/2021 04:00</t>
+          <t>2021-07-26</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -8671,7 +8671,7 @@
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>26/07/2021 04:00</t>
+          <t>2021-07-26</t>
         </is>
       </c>
       <c r="N113" t="inlineStr">
@@ -8719,7 +8719,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>03/08/2021 08:17</t>
+          <t>2021-08-03</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -8739,7 +8739,7 @@
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>03/08/2021 08:17</t>
+          <t>2021-08-03</t>
         </is>
       </c>
       <c r="N114" t="inlineStr">
@@ -8782,7 +8782,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>02/06/2021 03:06</t>
+          <t>2021-06-02</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -8802,7 +8802,7 @@
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>02/06/2021 03:06</t>
+          <t>2021-06-02</t>
         </is>
       </c>
       <c r="N115" t="inlineStr">
@@ -8850,7 +8850,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>02/06/2021 09:14</t>
+          <t>2021-06-02</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -8870,7 +8870,7 @@
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>02/06/2021 09:14</t>
+          <t>2021-06-02</t>
         </is>
       </c>
       <c r="N116" t="inlineStr">
@@ -8923,7 +8923,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>15/07/2020 00:00</t>
+          <t>2020-07-15</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -8948,7 +8948,7 @@
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>15/07/2020 00:00</t>
+          <t>2020-07-15</t>
         </is>
       </c>
       <c r="N117" t="inlineStr">
@@ -9001,7 +9001,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>14/07/2020 00:00</t>
+          <t>2020-07-14</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -9026,7 +9026,7 @@
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>14/07/2020 00:00</t>
+          <t>2020-07-14</t>
         </is>
       </c>
       <c r="N118" t="inlineStr">
@@ -9069,7 +9069,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>24/08/2020 04:28</t>
+          <t>2020-08-24</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -9094,7 +9094,7 @@
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>24/08/2020 04:28</t>
+          <t>2020-08-24</t>
         </is>
       </c>
       <c r="N119" t="inlineStr">
@@ -9142,7 +9142,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>23/07/2020 00:00</t>
+          <t>2020-07-23</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -9162,7 +9162,7 @@
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>23/07/2020 00:00</t>
+          <t>2020-07-23</t>
         </is>
       </c>
       <c r="N120" t="inlineStr">
@@ -9210,7 +9210,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>26/08/2020 04:33</t>
+          <t>2020-08-26</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -9235,7 +9235,7 @@
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>26/08/2020 04:33</t>
+          <t>2020-08-26</t>
         </is>
       </c>
       <c r="N121" t="inlineStr">
@@ -9283,7 +9283,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>11/10/2020 04:25</t>
+          <t>2020-10-11</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -9303,7 +9303,7 @@
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>11/10/2020 04:25</t>
+          <t>2020-10-11</t>
         </is>
       </c>
       <c r="N122" t="inlineStr">
@@ -9351,7 +9351,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>25/08/2020 08:45</t>
+          <t>2020-08-25</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -9376,7 +9376,7 @@
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>25/08/2020 08:45</t>
+          <t>2020-08-25</t>
         </is>
       </c>
       <c r="N123" t="inlineStr">
@@ -9429,7 +9429,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>23/07/2020 00:00</t>
+          <t>2020-07-23</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -9449,7 +9449,7 @@
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>23/07/2020 00:00</t>
+          <t>2020-07-23</t>
         </is>
       </c>
       <c r="N124" t="inlineStr">
@@ -9497,7 +9497,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>11/05/2021 09:08</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -9522,7 +9522,7 @@
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>11/05/2021 09:08</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="N125" t="inlineStr">
@@ -9570,7 +9570,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>25/05/2021 09:17</t>
+          <t>2021-05-25</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -9590,7 +9590,7 @@
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>25/05/2021 09:17</t>
+          <t>2021-05-25</t>
         </is>
       </c>
       <c r="N126" t="inlineStr">
@@ -9633,7 +9633,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>23/11/2021 05:01</t>
+          <t>2021-11-23</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -9653,7 +9653,7 @@
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>23/11/2021 05:01</t>
+          <t>2021-11-23</t>
         </is>
       </c>
       <c r="N127" t="inlineStr">
@@ -9696,7 +9696,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>25/05/2021 08:34</t>
+          <t>2021-05-25</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -9716,7 +9716,7 @@
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>25/05/2021 08:34</t>
+          <t>2021-05-25</t>
         </is>
       </c>
       <c r="N128" t="inlineStr">
@@ -9759,7 +9759,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>25/05/2021 10:14</t>
+          <t>2021-05-25</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -9779,7 +9779,7 @@
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>25/05/2021 10:14</t>
+          <t>2021-05-25</t>
         </is>
       </c>
       <c r="N129" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>25/05/2021 00:00</t>
+          <t>2021-05-25</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -9852,7 +9852,7 @@
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>25/05/2021 00:00</t>
+          <t>2021-05-25</t>
         </is>
       </c>
       <c r="N130" t="inlineStr">
@@ -9895,7 +9895,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>02/08/2021 07:49</t>
+          <t>2021-08-02</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -9915,7 +9915,7 @@
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>02/08/2021 07:49</t>
+          <t>2021-08-02</t>
         </is>
       </c>
       <c r="N131" t="inlineStr">
@@ -9958,7 +9958,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>07/06/2021 05:25</t>
+          <t>2021-06-07</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -9978,7 +9978,7 @@
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>07/06/2021 05:25</t>
+          <t>2021-06-07</t>
         </is>
       </c>
       <c r="N132" t="inlineStr">
@@ -10021,7 +10021,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>09/06/2021 02:19</t>
+          <t>2021-06-09</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -10041,7 +10041,7 @@
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>09/06/2021 02:19</t>
+          <t>2021-06-09</t>
         </is>
       </c>
       <c r="N133" t="inlineStr">
@@ -10084,7 +10084,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>01/06/2021 09:17</t>
+          <t>2021-06-01</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -10104,7 +10104,7 @@
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>01/06/2021 09:17</t>
+          <t>2021-06-01</t>
         </is>
       </c>
       <c r="N134" t="inlineStr">
@@ -10152,7 +10152,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>08/06/2021 08:08</t>
+          <t>2021-06-08</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -10172,7 +10172,7 @@
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>08/06/2021 08:08</t>
+          <t>2021-06-08</t>
         </is>
       </c>
       <c r="N135" t="inlineStr">
@@ -10215,7 +10215,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>11/05/2021 05:30</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -10235,7 +10235,7 @@
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>11/05/2021 05:30</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="N136" t="inlineStr">
@@ -10283,7 +10283,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>07/06/2021 03:32</t>
+          <t>2021-06-07</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -10303,7 +10303,7 @@
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>07/06/2021 03:32</t>
+          <t>2021-06-07</t>
         </is>
       </c>
       <c r="N137" t="inlineStr">
@@ -10346,7 +10346,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>01/06/2021 04:28</t>
+          <t>2021-06-01</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -10366,7 +10366,7 @@
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>01/06/2021 04:28</t>
+          <t>2021-06-01</t>
         </is>
       </c>
       <c r="N138" t="inlineStr">
@@ -10414,7 +10414,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>09/06/2021 00:00</t>
+          <t>2021-06-09</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -10434,7 +10434,7 @@
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>09/06/2021 00:00</t>
+          <t>2021-06-09</t>
         </is>
       </c>
       <c r="N139" t="inlineStr">
@@ -10482,7 +10482,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>21/04/2021 08:23</t>
+          <t>2021-04-21</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -10502,7 +10502,7 @@
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>21/04/2021 08:23</t>
+          <t>2021-04-21</t>
         </is>
       </c>
       <c r="N140" t="inlineStr">
@@ -10550,7 +10550,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>08/06/2021 06:44</t>
+          <t>2021-06-08</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -10570,7 +10570,7 @@
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>08/06/2021 06:44</t>
+          <t>2021-06-08</t>
         </is>
       </c>
       <c r="N141" t="inlineStr">
@@ -10613,7 +10613,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>20/04/2021 00:00</t>
+          <t>2021-04-20</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -10633,7 +10633,7 @@
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>20/04/2021 00:00</t>
+          <t>2021-04-20</t>
         </is>
       </c>
       <c r="N142" t="inlineStr">
@@ -10681,7 +10681,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>07/06/2021 04:42</t>
+          <t>2021-06-07</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -10701,7 +10701,7 @@
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>07/06/2021 04:42</t>
+          <t>2021-06-07</t>
         </is>
       </c>
       <c r="N143" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>09/06/2021 07:29</t>
+          <t>2021-06-09</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -10764,7 +10764,7 @@
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>09/06/2021 07:29</t>
+          <t>2021-06-09</t>
         </is>
       </c>
       <c r="N144" t="inlineStr">
@@ -10812,7 +10812,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>08/06/2020 00:00</t>
+          <t>2020-06-08</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -10837,7 +10837,7 @@
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>08/06/2020 00:00</t>
+          <t>2020-06-08</t>
         </is>
       </c>
       <c r="N145" t="inlineStr">
@@ -10885,7 +10885,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>27/08/2020 05:14</t>
+          <t>2020-08-27</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -10910,7 +10910,7 @@
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>27/08/2020 05:14</t>
+          <t>2020-08-27</t>
         </is>
       </c>
       <c r="N146" t="inlineStr">
@@ -10958,7 +10958,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>06/05/2021 00:00</t>
+          <t>2021-05-06</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -10978,7 +10978,7 @@
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>06/05/2021 00:00</t>
+          <t>2021-05-06</t>
         </is>
       </c>
       <c r="N147" t="inlineStr">
@@ -11026,7 +11026,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>23/07/2020 00:00</t>
+          <t>2020-07-23</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -11046,7 +11046,7 @@
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>23/07/2020 00:00</t>
+          <t>2020-07-23</t>
         </is>
       </c>
       <c r="N148" t="inlineStr">
@@ -11094,7 +11094,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>09/06/2021 09:00</t>
+          <t>2021-06-09</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -11114,7 +11114,7 @@
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>09/06/2021 09:00</t>
+          <t>2021-06-09</t>
         </is>
       </c>
       <c r="N149" t="inlineStr">
@@ -11157,7 +11157,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>18/03/2021 00:00</t>
+          <t>2021-03-18</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -11182,7 +11182,7 @@
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>18/03/2021 00:00</t>
+          <t>2021-03-18</t>
         </is>
       </c>
       <c r="N150" t="inlineStr">
@@ -11225,7 +11225,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>11/05/2021 09:31</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -11250,7 +11250,7 @@
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>11/05/2021 09:31</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="N151" t="inlineStr">
@@ -11298,7 +11298,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>22/07/2020 00:00</t>
+          <t>2020-07-22</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -11318,7 +11318,7 @@
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>22/07/2020 00:00</t>
+          <t>2020-07-22</t>
         </is>
       </c>
       <c r="N152" t="inlineStr">
@@ -11366,7 +11366,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>08/06/2021 06:29</t>
+          <t>2021-06-08</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -11386,7 +11386,7 @@
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>08/06/2021 06:29</t>
+          <t>2021-06-08</t>
         </is>
       </c>
       <c r="N153" t="inlineStr">
@@ -11429,7 +11429,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>11/10/2020 00:00</t>
+          <t>2020-10-11</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -11449,7 +11449,7 @@
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>11/10/2020 00:00</t>
+          <t>2020-10-11</t>
         </is>
       </c>
       <c r="N154" t="inlineStr">
@@ -11502,7 +11502,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>23/07/2020 00:00</t>
+          <t>2020-07-23</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -11522,7 +11522,7 @@
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>23/07/2020 00:00</t>
+          <t>2020-07-23</t>
         </is>
       </c>
       <c r="N155" t="inlineStr">
@@ -11570,7 +11570,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>24/08/2020 04:41</t>
+          <t>2020-08-24</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -11595,7 +11595,7 @@
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>24/08/2020 04:41</t>
+          <t>2020-08-24</t>
         </is>
       </c>
       <c r="N156" t="inlineStr">
@@ -11643,7 +11643,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>23/07/2020 00:00</t>
+          <t>2020-07-23</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -11668,7 +11668,7 @@
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>23/07/2020 00:00</t>
+          <t>2020-07-23</t>
         </is>
       </c>
       <c r="N157" t="inlineStr">
@@ -11716,7 +11716,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>22/10/2020 03:27</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -11736,7 +11736,7 @@
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>22/10/2020 03:27</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N158" t="inlineStr">
@@ -11784,7 +11784,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>09/09/2020 00:00</t>
+          <t>2020-09-09</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -11809,7 +11809,7 @@
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>09/09/2020 00:00</t>
+          <t>2020-09-09</t>
         </is>
       </c>
       <c r="N159" t="inlineStr">
@@ -11857,7 +11857,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>08/09/2020 09:55</t>
+          <t>2020-09-08</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -11882,7 +11882,7 @@
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>08/09/2020 09:55</t>
+          <t>2020-09-08</t>
         </is>
       </c>
       <c r="N160" t="inlineStr">
@@ -11930,7 +11930,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>05/08/2020 00:00</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -11950,7 +11950,7 @@
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>05/08/2020 00:00</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="N161" t="inlineStr">
@@ -11998,7 +11998,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>23/07/2020 00:00</t>
+          <t>2020-07-23</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -12018,7 +12018,7 @@
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>23/07/2020 00:00</t>
+          <t>2020-07-23</t>
         </is>
       </c>
       <c r="N162" t="inlineStr">
@@ -12066,7 +12066,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>24/08/2020 05:53</t>
+          <t>2020-08-24</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -12091,7 +12091,7 @@
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>24/08/2020 05:53</t>
+          <t>2020-08-24</t>
         </is>
       </c>
       <c r="N163" t="inlineStr">
@@ -12134,7 +12134,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>16/09/2020 03:57</t>
+          <t>2020-09-16</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -12159,7 +12159,7 @@
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>16/09/2020 03:57</t>
+          <t>2020-09-16</t>
         </is>
       </c>
       <c r="N164" t="inlineStr">
@@ -12207,7 +12207,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>16/09/2020 06:25</t>
+          <t>2020-09-16</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>16/09/2020 06:25</t>
+          <t>2020-09-16</t>
         </is>
       </c>
       <c r="N165" t="inlineStr">
@@ -12275,7 +12275,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>16/09/2020 03:58</t>
+          <t>2020-09-16</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -12300,7 +12300,7 @@
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>16/09/2020 03:58</t>
+          <t>2020-09-16</t>
         </is>
       </c>
       <c r="N166" t="inlineStr">
@@ -12343,7 +12343,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>16/09/2020 05:43</t>
+          <t>2020-09-16</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -12368,7 +12368,7 @@
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>16/09/2020 05:43</t>
+          <t>2020-09-16</t>
         </is>
       </c>
       <c r="N167" t="inlineStr">
@@ -12411,7 +12411,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>15/09/2020 08:38</t>
+          <t>2020-09-15</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -12436,7 +12436,7 @@
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>15/09/2020 08:38</t>
+          <t>2020-09-15</t>
         </is>
       </c>
       <c r="N168" t="inlineStr">
@@ -12484,7 +12484,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>22/09/2020 08:25</t>
+          <t>2020-09-22</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -12509,7 +12509,7 @@
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>22/09/2020 08:25</t>
+          <t>2020-09-22</t>
         </is>
       </c>
       <c r="N169" t="inlineStr">
@@ -12557,7 +12557,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>15/09/2020 08:21</t>
+          <t>2020-09-15</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -12582,7 +12582,7 @@
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>15/09/2020 08:21</t>
+          <t>2020-09-15</t>
         </is>
       </c>
       <c r="N170" t="inlineStr">
@@ -12630,7 +12630,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>15/09/2020 09:00</t>
+          <t>2020-09-15</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -12655,7 +12655,7 @@
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>15/09/2020 09:00</t>
+          <t>2020-09-15</t>
         </is>
       </c>
       <c r="N171" t="inlineStr">
@@ -12703,7 +12703,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>15/09/2020 10:00</t>
+          <t>2020-09-15</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -12728,7 +12728,7 @@
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>15/09/2020 10:00</t>
+          <t>2020-09-15</t>
         </is>
       </c>
       <c r="N172" t="inlineStr">
@@ -12781,7 +12781,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>05/08/2020 00:00</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -12801,7 +12801,7 @@
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>05/08/2020 00:00</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="N173" t="inlineStr">
@@ -12849,7 +12849,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>16/09/2020 00:00</t>
+          <t>2020-09-16</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -12874,7 +12874,7 @@
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>16/09/2020 00:00</t>
+          <t>2020-09-16</t>
         </is>
       </c>
       <c r="N174" t="inlineStr">
@@ -12922,7 +12922,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>21/10/2020 05:16</t>
+          <t>2020-10-21</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -12942,7 +12942,7 @@
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>21/10/2020 05:16</t>
+          <t>2020-10-21</t>
         </is>
       </c>
       <c r="N175" t="inlineStr">
@@ -12990,7 +12990,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>13/10/2020 00:00</t>
+          <t>2020-10-13</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -13015,7 +13015,7 @@
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>13/10/2020 00:00</t>
+          <t>2020-10-13</t>
         </is>
       </c>
       <c r="N176" t="inlineStr">
@@ -13068,7 +13068,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>06/08/2020 00:00</t>
+          <t>2020-08-06</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -13088,7 +13088,7 @@
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>06/08/2020 00:00</t>
+          <t>2020-08-06</t>
         </is>
       </c>
       <c r="N177" t="inlineStr">
@@ -13136,7 +13136,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>15/09/2020 07:57</t>
+          <t>2020-09-15</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -13161,7 +13161,7 @@
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>15/09/2020 07:57</t>
+          <t>2020-09-15</t>
         </is>
       </c>
       <c r="N178" t="inlineStr">
@@ -13209,7 +13209,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>15/09/2020 07:40</t>
+          <t>2020-09-15</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -13234,7 +13234,7 @@
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>15/09/2020 07:40</t>
+          <t>2020-09-15</t>
         </is>
       </c>
       <c r="N179" t="inlineStr">
@@ -13282,7 +13282,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>16/09/2020 07:09</t>
+          <t>2020-09-16</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -13307,7 +13307,7 @@
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>16/09/2020 07:09</t>
+          <t>2020-09-16</t>
         </is>
       </c>
       <c r="N180" t="inlineStr">
@@ -13355,7 +13355,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>14/05/2021 04:14</t>
+          <t>2021-05-14</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -13375,7 +13375,7 @@
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>14/05/2021 04:14</t>
+          <t>2021-05-14</t>
         </is>
       </c>
       <c r="N181" t="inlineStr">
@@ -13423,7 +13423,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>29/08/2020 06:05</t>
+          <t>2020-08-29</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -13448,7 +13448,7 @@
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>29/08/2020 06:05</t>
+          <t>2020-08-29</t>
         </is>
       </c>
       <c r="N182" t="inlineStr">
@@ -13496,7 +13496,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>08/09/2020 08:53</t>
+          <t>2020-09-08</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -13521,7 +13521,7 @@
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>08/09/2020 08:53</t>
+          <t>2020-09-08</t>
         </is>
       </c>
       <c r="N183" t="inlineStr">
@@ -13569,7 +13569,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>20/10/2021 09:42</t>
+          <t>2021-10-20</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -13589,7 +13589,7 @@
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>20/10/2021 09:42</t>
+          <t>2021-10-20</t>
         </is>
       </c>
       <c r="N184" t="inlineStr">
@@ -13637,7 +13637,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>22/09/2021 04:00</t>
+          <t>2021-09-22</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -13657,7 +13657,7 @@
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>22/09/2021 04:00</t>
+          <t>2021-09-22</t>
         </is>
       </c>
       <c r="N185" t="inlineStr">
@@ -13700,7 +13700,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>22/11/2021 02:56</t>
+          <t>2021-11-22</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -13720,7 +13720,7 @@
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>22/11/2021 02:56</t>
+          <t>2021-11-22</t>
         </is>
       </c>
       <c r="N186" t="inlineStr">
@@ -13768,7 +13768,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>24/11/2021 04:03</t>
+          <t>2021-11-24</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -13788,7 +13788,7 @@
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>24/11/2021 04:03</t>
+          <t>2021-11-24</t>
         </is>
       </c>
       <c r="N187" t="inlineStr">
@@ -13836,7 +13836,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>24/11/2021 02:08</t>
+          <t>2021-11-24</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -13856,7 +13856,7 @@
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>24/11/2021 02:08</t>
+          <t>2021-11-24</t>
         </is>
       </c>
       <c r="N188" t="inlineStr">
@@ -13904,7 +13904,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>22/09/2021 03:39</t>
+          <t>2021-09-22</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -13924,7 +13924,7 @@
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>22/09/2021 03:39</t>
+          <t>2021-09-22</t>
         </is>
       </c>
       <c r="N189" t="inlineStr">
@@ -13967,7 +13967,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>30/06/2021 05:42</t>
+          <t>2021-06-30</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -13987,7 +13987,7 @@
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>30/06/2021 05:42</t>
+          <t>2021-06-30</t>
         </is>
       </c>
       <c r="N190" t="inlineStr">
@@ -14030,7 +14030,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>14/07/2021 10:41</t>
+          <t>2021-07-14</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -14050,7 +14050,7 @@
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>14/07/2021 10:41</t>
+          <t>2021-07-14</t>
         </is>
       </c>
       <c r="N191" t="inlineStr">
@@ -14098,7 +14098,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>23/06/2021 02:44</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -14118,7 +14118,7 @@
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>23/06/2021 02:44</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="N192" t="inlineStr">
@@ -14166,7 +14166,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>21/07/2021 08:47</t>
+          <t>2021-07-21</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -14186,7 +14186,7 @@
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>21/07/2021 08:47</t>
+          <t>2021-07-21</t>
         </is>
       </c>
       <c r="N193" t="inlineStr">
@@ -14234,7 +14234,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>10/06/2021 09:05</t>
+          <t>2021-06-10</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -14254,7 +14254,7 @@
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>10/06/2021 09:05</t>
+          <t>2021-06-10</t>
         </is>
       </c>
       <c r="N194" t="inlineStr">
@@ -14302,7 +14302,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>08/06/2021 04:12</t>
+          <t>2021-06-08</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -14322,7 +14322,7 @@
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>08/06/2021 04:12</t>
+          <t>2021-06-08</t>
         </is>
       </c>
       <c r="N195" t="inlineStr">
@@ -14370,7 +14370,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>15/07/2021 02:22</t>
+          <t>2021-07-15</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -14395,7 +14395,7 @@
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>15/07/2021 02:22</t>
+          <t>2021-07-15</t>
         </is>
       </c>
       <c r="N196" t="inlineStr">
@@ -14438,7 +14438,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>10/06/2021 11:14</t>
+          <t>2021-06-10</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -14463,7 +14463,7 @@
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>10/06/2021 11:14</t>
+          <t>2021-06-10</t>
         </is>
       </c>
       <c r="N197" t="inlineStr">
@@ -14506,7 +14506,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>19/07/2021 06:53</t>
+          <t>2021-07-19</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -14526,7 +14526,7 @@
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>19/07/2021 06:53</t>
+          <t>2021-07-19</t>
         </is>
       </c>
       <c r="N198" t="inlineStr">
@@ -14574,7 +14574,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>28/06/2021 05:30</t>
+          <t>2021-06-28</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -14594,7 +14594,7 @@
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>28/06/2021 05:30</t>
+          <t>2021-06-28</t>
         </is>
       </c>
       <c r="N199" t="inlineStr">
@@ -14637,7 +14637,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>28/06/2021 09:41</t>
+          <t>2021-06-28</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -14657,7 +14657,7 @@
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>28/06/2021 09:41</t>
+          <t>2021-06-28</t>
         </is>
       </c>
       <c r="N200" t="inlineStr">
@@ -14700,7 +14700,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>10/06/2021 00:00</t>
+          <t>2021-06-10</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -14720,7 +14720,7 @@
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>10/06/2021 00:00</t>
+          <t>2021-06-10</t>
         </is>
       </c>
       <c r="N201" t="inlineStr">
@@ -14768,7 +14768,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>30/06/2021 03:35</t>
+          <t>2021-06-30</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -14788,7 +14788,7 @@
       </c>
       <c r="M202" t="inlineStr">
         <is>
-          <t>30/06/2021 03:35</t>
+          <t>2021-06-30</t>
         </is>
       </c>
       <c r="N202" t="inlineStr">
@@ -14831,7 +14831,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>10/06/2021 05:44</t>
+          <t>2021-06-10</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -14851,7 +14851,7 @@
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>10/06/2021 05:44</t>
+          <t>2021-06-10</t>
         </is>
       </c>
       <c r="N203" t="inlineStr">
@@ -14899,7 +14899,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>19/10/2021 08:40</t>
+          <t>2021-10-19</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -14919,7 +14919,7 @@
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>19/10/2021 08:40</t>
+          <t>2021-10-19</t>
         </is>
       </c>
       <c r="N204" t="inlineStr">
@@ -14962,7 +14962,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>23/11/2021 08:50</t>
+          <t>2021-11-23</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -14982,7 +14982,7 @@
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>23/11/2021 08:50</t>
+          <t>2021-11-23</t>
         </is>
       </c>
       <c r="N205" t="inlineStr">
@@ -15030,7 +15030,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>20/09/2021 00:00</t>
+          <t>2021-09-20</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -15050,7 +15050,7 @@
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>20/09/2021 00:00</t>
+          <t>2021-09-20</t>
         </is>
       </c>
       <c r="N206" t="inlineStr">
@@ -15098,7 +15098,7 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>21/09/2021 08:27</t>
+          <t>2021-09-21</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -15118,7 +15118,7 @@
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>21/09/2021 08:27</t>
+          <t>2021-09-21</t>
         </is>
       </c>
       <c r="N207" t="inlineStr">
@@ -15166,7 +15166,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>22/09/2021 04:22</t>
+          <t>2021-09-22</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -15186,7 +15186,7 @@
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>22/09/2021 04:22</t>
+          <t>2021-09-22</t>
         </is>
       </c>
       <c r="N208" t="inlineStr">
@@ -15229,7 +15229,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>16/10/2021 08:02</t>
+          <t>2021-10-16</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -15249,7 +15249,7 @@
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>16/10/2021 08:02</t>
+          <t>2021-10-16</t>
         </is>
       </c>
       <c r="N209" t="inlineStr">
@@ -15297,7 +15297,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>21/09/2021 00:00</t>
+          <t>2021-09-21</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -15317,7 +15317,7 @@
       </c>
       <c r="M210" t="inlineStr">
         <is>
-          <t>21/09/2021 00:00</t>
+          <t>2021-09-21</t>
         </is>
       </c>
       <c r="N210" t="inlineStr">
@@ -15365,7 +15365,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>22/09/2021 06:43</t>
+          <t>2021-09-22</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -15385,7 +15385,7 @@
       </c>
       <c r="M211" t="inlineStr">
         <is>
-          <t>22/09/2021 06:43</t>
+          <t>2021-09-22</t>
         </is>
       </c>
       <c r="N211" t="inlineStr">
@@ -15433,7 +15433,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>21/09/2021 05:50</t>
+          <t>2021-09-21</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -15453,7 +15453,7 @@
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>21/09/2021 05:50</t>
+          <t>2021-09-21</t>
         </is>
       </c>
       <c r="N212" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>22/09/2021 00:00</t>
+          <t>2021-09-22</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -15516,7 +15516,7 @@
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>22/09/2021 00:00</t>
+          <t>2021-09-22</t>
         </is>
       </c>
       <c r="N213" t="inlineStr">
@@ -15564,7 +15564,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>22/09/2021 10:11</t>
+          <t>2021-09-22</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -15584,7 +15584,7 @@
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t>22/09/2021 10:11</t>
+          <t>2021-09-22</t>
         </is>
       </c>
       <c r="N214" t="inlineStr">
@@ -15632,7 +15632,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>30/08/2021 06:06</t>
+          <t>2021-08-30</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -15652,7 +15652,7 @@
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>30/08/2021 06:06</t>
+          <t>2021-08-30</t>
         </is>
       </c>
       <c r="N215" t="inlineStr">
@@ -15700,7 +15700,7 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>22/07/2021 07:56</t>
+          <t>2021-07-22</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -15720,7 +15720,7 @@
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>22/07/2021 07:56</t>
+          <t>2021-07-22</t>
         </is>
       </c>
       <c r="N216" t="inlineStr">
@@ -15763,7 +15763,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>13/09/2021 05:07</t>
+          <t>2021-09-13</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -15783,7 +15783,7 @@
       </c>
       <c r="M217" t="inlineStr">
         <is>
-          <t>13/09/2021 05:07</t>
+          <t>2021-09-13</t>
         </is>
       </c>
       <c r="N217" t="inlineStr">
@@ -15831,7 +15831,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>09/08/2021 07:31</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -15851,7 +15851,7 @@
       </c>
       <c r="M218" t="inlineStr">
         <is>
-          <t>09/08/2021 07:31</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="N218" t="inlineStr">
@@ -15894,7 +15894,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>13/09/2021 03:27</t>
+          <t>2021-09-13</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -15914,7 +15914,7 @@
       </c>
       <c r="M219" t="inlineStr">
         <is>
-          <t>13/09/2021 03:27</t>
+          <t>2021-09-13</t>
         </is>
       </c>
       <c r="N219" t="inlineStr">
@@ -15962,7 +15962,7 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>26/07/2021 08:29</t>
+          <t>2021-07-26</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -15982,7 +15982,7 @@
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>26/07/2021 08:29</t>
+          <t>2021-07-26</t>
         </is>
       </c>
       <c r="N220" t="inlineStr">
@@ -16030,7 +16030,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>22/07/2021 05:34</t>
+          <t>2021-07-22</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -16050,7 +16050,7 @@
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>22/07/2021 05:34</t>
+          <t>2021-07-22</t>
         </is>
       </c>
       <c r="N221" t="inlineStr">
@@ -16098,7 +16098,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>20/07/2021 04:24</t>
+          <t>2021-07-20</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -16118,7 +16118,7 @@
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>20/07/2021 04:24</t>
+          <t>2021-07-20</t>
         </is>
       </c>
       <c r="N222" t="inlineStr">
@@ -16161,7 +16161,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>25/08/2021 05:49</t>
+          <t>2021-08-25</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -16181,7 +16181,7 @@
       </c>
       <c r="M223" t="inlineStr">
         <is>
-          <t>25/08/2021 05:49</t>
+          <t>2021-08-25</t>
         </is>
       </c>
       <c r="N223" t="inlineStr">
@@ -16229,7 +16229,7 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>11/08/2021 07:39</t>
+          <t>2021-08-11</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -16249,7 +16249,7 @@
       </c>
       <c r="M224" t="inlineStr">
         <is>
-          <t>11/08/2021 07:39</t>
+          <t>2021-08-11</t>
         </is>
       </c>
       <c r="N224" t="inlineStr">
@@ -16297,7 +16297,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>14/07/2021 11:43</t>
+          <t>2021-07-14</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -16317,7 +16317,7 @@
       </c>
       <c r="M225" t="inlineStr">
         <is>
-          <t>14/07/2021 11:43</t>
+          <t>2021-07-14</t>
         </is>
       </c>
       <c r="N225" t="inlineStr">
@@ -16365,7 +16365,7 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>12/07/2021 05:07</t>
+          <t>2021-07-12</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -16385,7 +16385,7 @@
       </c>
       <c r="M226" t="inlineStr">
         <is>
-          <t>12/07/2021 05:07</t>
+          <t>2021-07-12</t>
         </is>
       </c>
       <c r="N226" t="inlineStr">
@@ -16433,7 +16433,7 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>15/07/2021 00:00</t>
+          <t>2021-07-15</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -16453,7 +16453,7 @@
       </c>
       <c r="M227" t="inlineStr">
         <is>
-          <t>15/07/2021 00:00</t>
+          <t>2021-07-15</t>
         </is>
       </c>
       <c r="N227" t="inlineStr">
@@ -16496,7 +16496,7 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>13/07/2021 09:04</t>
+          <t>2021-07-13</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -16516,7 +16516,7 @@
       </c>
       <c r="M228" t="inlineStr">
         <is>
-          <t>13/07/2021 09:04</t>
+          <t>2021-07-13</t>
         </is>
       </c>
       <c r="N228" t="inlineStr">
@@ -16559,7 +16559,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>15/07/2021 06:35</t>
+          <t>2021-07-15</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -16579,7 +16579,7 @@
       </c>
       <c r="M229" t="inlineStr">
         <is>
-          <t>15/07/2021 06:35</t>
+          <t>2021-07-15</t>
         </is>
       </c>
       <c r="N229" t="inlineStr">
@@ -16627,7 +16627,7 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>14/07/2021 08:25</t>
+          <t>2021-07-14</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -16647,7 +16647,7 @@
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>14/07/2021 08:25</t>
+          <t>2021-07-14</t>
         </is>
       </c>
       <c r="N230" t="inlineStr">
@@ -16690,7 +16690,7 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>15/07/2021 04:35</t>
+          <t>2021-07-15</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -16710,7 +16710,7 @@
       </c>
       <c r="M231" t="inlineStr">
         <is>
-          <t>15/07/2021 04:35</t>
+          <t>2021-07-15</t>
         </is>
       </c>
       <c r="N231" t="inlineStr">
@@ -16758,7 +16758,7 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>19/10/2021 08:28</t>
+          <t>2021-10-19</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -16778,7 +16778,7 @@
       </c>
       <c r="M232" t="inlineStr">
         <is>
-          <t>19/10/2021 08:28</t>
+          <t>2021-10-19</t>
         </is>
       </c>
       <c r="N232" t="inlineStr">
@@ -16821,7 +16821,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>14/07/2021 04:38</t>
+          <t>2021-07-14</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -16841,7 +16841,7 @@
       </c>
       <c r="M233" t="inlineStr">
         <is>
-          <t>14/07/2021 04:38</t>
+          <t>2021-07-14</t>
         </is>
       </c>
       <c r="N233" t="inlineStr">
@@ -16889,7 +16889,7 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>09/08/2021 06:11</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -16909,7 +16909,7 @@
       </c>
       <c r="M234" t="inlineStr">
         <is>
-          <t>09/08/2021 06:11</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="N234" t="inlineStr">
@@ -16952,7 +16952,7 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>09/08/2021 04:33</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -16972,7 +16972,7 @@
       </c>
       <c r="M235" t="inlineStr">
         <is>
-          <t>09/08/2021 04:33</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="N235" t="inlineStr">
@@ -17015,7 +17015,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>15/07/2021 09:25</t>
+          <t>2021-07-15</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -17035,7 +17035,7 @@
       </c>
       <c r="M236" t="inlineStr">
         <is>
-          <t>15/07/2021 09:25</t>
+          <t>2021-07-15</t>
         </is>
       </c>
       <c r="N236" t="inlineStr">
@@ -17083,7 +17083,7 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>13/07/2021 05:25</t>
+          <t>2021-07-13</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -17103,7 +17103,7 @@
       </c>
       <c r="M237" t="inlineStr">
         <is>
-          <t>13/07/2021 05:25</t>
+          <t>2021-07-13</t>
         </is>
       </c>
       <c r="N237" t="inlineStr">
@@ -17146,7 +17146,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>15/07/2021 10:20</t>
+          <t>2021-07-15</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -17166,7 +17166,7 @@
       </c>
       <c r="M238" t="inlineStr">
         <is>
-          <t>15/07/2021 10:20</t>
+          <t>2021-07-15</t>
         </is>
       </c>
       <c r="N238" t="inlineStr">
@@ -17209,7 +17209,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>22/10/2021 04:32</t>
+          <t>2021-10-22</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -17229,7 +17229,7 @@
       </c>
       <c r="M239" t="inlineStr">
         <is>
-          <t>22/10/2021 04:32</t>
+          <t>2021-10-22</t>
         </is>
       </c>
       <c r="N239" t="inlineStr">
@@ -17277,7 +17277,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>09/10/2021 08:37</t>
+          <t>2021-10-09</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -17297,7 +17297,7 @@
       </c>
       <c r="M240" t="inlineStr">
         <is>
-          <t>09/10/2021 08:37</t>
+          <t>2021-10-09</t>
         </is>
       </c>
       <c r="N240" t="inlineStr">
@@ -17345,7 +17345,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>23/11/2021 03:23</t>
+          <t>2021-11-23</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -17365,7 +17365,7 @@
       </c>
       <c r="M241" t="inlineStr">
         <is>
-          <t>23/11/2021 03:23</t>
+          <t>2021-11-23</t>
         </is>
       </c>
       <c r="N241" t="inlineStr">
@@ -17408,7 +17408,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>22/10/2021 08:11</t>
+          <t>2021-10-22</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -17428,7 +17428,7 @@
       </c>
       <c r="M242" t="inlineStr">
         <is>
-          <t>22/10/2021 08:11</t>
+          <t>2021-10-22</t>
         </is>
       </c>
       <c r="N242" t="inlineStr">
@@ -17476,7 +17476,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>24/11/2021 03:02</t>
+          <t>2021-11-24</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -17496,7 +17496,7 @@
       </c>
       <c r="M243" t="inlineStr">
         <is>
-          <t>24/11/2021 03:02</t>
+          <t>2021-11-24</t>
         </is>
       </c>
       <c r="N243" t="inlineStr">
@@ -17544,7 +17544,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>22/10/2021 05:56</t>
+          <t>2021-10-22</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -17564,7 +17564,7 @@
       </c>
       <c r="M244" t="inlineStr">
         <is>
-          <t>22/10/2021 05:56</t>
+          <t>2021-10-22</t>
         </is>
       </c>
       <c r="N244" t="inlineStr">
@@ -17612,7 +17612,7 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>06/10/2021 07:54</t>
+          <t>2021-10-06</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -17632,7 +17632,7 @@
       </c>
       <c r="M245" t="inlineStr">
         <is>
-          <t>06/10/2021 07:54</t>
+          <t>2021-10-06</t>
         </is>
       </c>
       <c r="N245" t="inlineStr">
@@ -17675,7 +17675,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>14/10/2021 09:34</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -17695,7 +17695,7 @@
       </c>
       <c r="M246" t="inlineStr">
         <is>
-          <t>14/10/2021 09:34</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="N246" t="inlineStr">
@@ -17743,7 +17743,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>19/10/2021 07:50</t>
+          <t>2021-10-19</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -17763,7 +17763,7 @@
       </c>
       <c r="M247" t="inlineStr">
         <is>
-          <t>19/10/2021 07:50</t>
+          <t>2021-10-19</t>
         </is>
       </c>
       <c r="N247" t="inlineStr">
@@ -17811,7 +17811,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>28/09/2021 07:44</t>
+          <t>2021-09-28</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -17831,7 +17831,7 @@
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>28/09/2021 07:44</t>
+          <t>2021-09-28</t>
         </is>
       </c>
       <c r="N248" t="inlineStr">
@@ -17879,7 +17879,7 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>29/09/2021 09:20</t>
+          <t>2021-09-29</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -17899,7 +17899,7 @@
       </c>
       <c r="M249" t="inlineStr">
         <is>
-          <t>29/09/2021 09:20</t>
+          <t>2021-09-29</t>
         </is>
       </c>
       <c r="N249" t="inlineStr">
@@ -17947,7 +17947,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>14/10/2021 05:19</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -17967,7 +17967,7 @@
       </c>
       <c r="M250" t="inlineStr">
         <is>
-          <t>14/10/2021 05:19</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="N250" t="inlineStr">
@@ -18015,7 +18015,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>28/09/2021 08:52</t>
+          <t>2021-09-28</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -18035,7 +18035,7 @@
       </c>
       <c r="M251" t="inlineStr">
         <is>
-          <t>28/09/2021 08:52</t>
+          <t>2021-09-28</t>
         </is>
       </c>
       <c r="N251" t="inlineStr">
@@ -18078,7 +18078,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>22/10/2021 05:48</t>
+          <t>2021-10-22</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -18098,7 +18098,7 @@
       </c>
       <c r="M252" t="inlineStr">
         <is>
-          <t>22/10/2021 05:48</t>
+          <t>2021-10-22</t>
         </is>
       </c>
       <c r="N252" t="inlineStr">
@@ -18146,7 +18146,7 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>29/09/2021 10:56</t>
+          <t>2021-09-29</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -18166,7 +18166,7 @@
       </c>
       <c r="M253" t="inlineStr">
         <is>
-          <t>29/09/2021 10:56</t>
+          <t>2021-09-29</t>
         </is>
       </c>
       <c r="N253" t="inlineStr">
@@ -18214,7 +18214,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>28/09/2021 04:46</t>
+          <t>2021-09-28</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -18234,7 +18234,7 @@
       </c>
       <c r="M254" t="inlineStr">
         <is>
-          <t>28/09/2021 04:46</t>
+          <t>2021-09-28</t>
         </is>
       </c>
       <c r="N254" t="inlineStr">
@@ -18282,7 +18282,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>13/10/2021 02:40</t>
+          <t>2021-10-13</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -18302,7 +18302,7 @@
       </c>
       <c r="M255" t="inlineStr">
         <is>
-          <t>13/10/2021 02:40</t>
+          <t>2021-10-13</t>
         </is>
       </c>
       <c r="N255" t="inlineStr">
@@ -18350,7 +18350,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>19/10/2021 06:35</t>
+          <t>2021-10-19</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -18370,7 +18370,7 @@
       </c>
       <c r="M256" t="inlineStr">
         <is>
-          <t>19/10/2021 06:35</t>
+          <t>2021-10-19</t>
         </is>
       </c>
       <c r="N256" t="inlineStr">
@@ -18413,7 +18413,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>13/10/2021 02:15</t>
+          <t>2021-10-13</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -18433,7 +18433,7 @@
       </c>
       <c r="M257" t="inlineStr">
         <is>
-          <t>13/10/2021 02:15</t>
+          <t>2021-10-13</t>
         </is>
       </c>
       <c r="N257" t="inlineStr">
@@ -18481,7 +18481,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>13/10/2021 01:52</t>
+          <t>2021-10-13</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -18501,7 +18501,7 @@
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t>13/10/2021 01:52</t>
+          <t>2021-10-13</t>
         </is>
       </c>
       <c r="N258" t="inlineStr">
@@ -18544,7 +18544,7 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>23/11/2021 09:18</t>
+          <t>2021-11-23</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -18564,7 +18564,7 @@
       </c>
       <c r="M259" t="inlineStr">
         <is>
-          <t>23/11/2021 09:18</t>
+          <t>2021-11-23</t>
         </is>
       </c>
       <c r="N259" t="inlineStr">
@@ -18607,7 +18607,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>24/11/2021 04:28</t>
+          <t>2021-11-24</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -18627,7 +18627,7 @@
       </c>
       <c r="M260" t="inlineStr">
         <is>
-          <t>24/11/2021 04:28</t>
+          <t>2021-11-24</t>
         </is>
       </c>
       <c r="N260" t="inlineStr">
@@ -18675,7 +18675,7 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>23/11/2021 09:41</t>
+          <t>2021-11-23</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -18695,7 +18695,7 @@
       </c>
       <c r="M261" t="inlineStr">
         <is>
-          <t>23/11/2021 09:41</t>
+          <t>2021-11-23</t>
         </is>
       </c>
       <c r="N261" t="inlineStr">
@@ -18743,7 +18743,7 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>24/11/2021 05:40</t>
+          <t>2021-11-24</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -18763,7 +18763,7 @@
       </c>
       <c r="M262" t="inlineStr">
         <is>
-          <t>24/11/2021 05:40</t>
+          <t>2021-11-24</t>
         </is>
       </c>
       <c r="N262" t="inlineStr">
@@ -18806,7 +18806,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>24/11/2021 05:14</t>
+          <t>2021-11-24</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -18826,7 +18826,7 @@
       </c>
       <c r="M263" t="inlineStr">
         <is>
-          <t>24/11/2021 05:14</t>
+          <t>2021-11-24</t>
         </is>
       </c>
       <c r="N263" t="inlineStr">

--- a/analysis/metadata/P09_1/P09_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P09_1/P09_1_minimal_metadata.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P263"/>
+  <dimension ref="A1:P268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -451,10 +451,10 @@
         </is>
       </c>
       <c r="C2">
-        <v>57.3858</v>
+        <v>57.38581885219561</v>
       </c>
       <c r="D2">
-        <v>10.0116</v>
+        <v>10.01156865454003</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -468,7 +468,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>guldager sø</t>
+          <t>NOR82101</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -529,10 +529,10 @@
         </is>
       </c>
       <c r="C3">
-        <v>57.4917</v>
+        <v>57.491729520817</v>
       </c>
       <c r="D3">
-        <v>9.8931</v>
+        <v>9.893109449496214</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>nørlev sø</t>
+          <t>NOR82102</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -607,10 +607,10 @@
         </is>
       </c>
       <c r="C4">
-        <v>57.1587</v>
+        <v>57.15875886287444</v>
       </c>
       <c r="D4">
-        <v>9.8514</v>
+        <v>9.851490561691975</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>smedsted sø</t>
+          <t>NOR84913</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -685,10 +685,10 @@
         </is>
       </c>
       <c r="C5">
-        <v>56.7672</v>
+        <v>56.76726362734203</v>
       </c>
       <c r="D5">
-        <v>8.2887</v>
+        <v>8.288747359027026</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>sø nr. 5544335</t>
+          <t>VIB5544335</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -763,10 +763,10 @@
         </is>
       </c>
       <c r="C6">
-        <v>56.9952</v>
+        <v>56.99529014784341</v>
       </c>
       <c r="D6">
-        <v>8.4818</v>
+        <v>8.481888090967049</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>røstrimme øst</t>
+          <t>VIB157-001</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -841,10 +841,10 @@
         </is>
       </c>
       <c r="C7">
-        <v>57.0548</v>
+        <v>57.05494642047768</v>
       </c>
       <c r="D7">
-        <v>8.886900000000001</v>
+        <v>8.88698991503176</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>stensig sø</t>
+          <t>VIB153-001</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -919,10 +919,10 @@
         </is>
       </c>
       <c r="C8">
-        <v>56.719</v>
+        <v>56.71661775672534</v>
       </c>
       <c r="D8">
-        <v>9.800700000000001</v>
+        <v>9.799110270623565</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>sø nr. 10410</t>
+          <t>NOR80112</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -997,10 +997,10 @@
         </is>
       </c>
       <c r="C9">
-        <v>56.8686</v>
+        <v>56.8686173362989</v>
       </c>
       <c r="D9">
-        <v>9.4152</v>
+        <v>9.415277998317706</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>øjesø</t>
+          <t>NOR86102</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1075,10 +1075,10 @@
         </is>
       </c>
       <c r="C10">
-        <v>57.0408</v>
+        <v>57.04085178816355</v>
       </c>
       <c r="D10">
-        <v>9.859999999999999</v>
+        <v>9.860014546236723</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>klostereng lergrav, syd</t>
+          <t>NOR85109</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1153,10 +1153,10 @@
         </is>
       </c>
       <c r="C11">
-        <v>56.8732</v>
+        <v>56.87326597952075</v>
       </c>
       <c r="D11">
-        <v>8.3293</v>
+        <v>8.329326624487091</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>sø nr. 5557818</t>
+          <t>VIB5557818</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1231,10 +1231,10 @@
         </is>
       </c>
       <c r="C12">
-        <v>56.8186</v>
+        <v>56.81869104414694</v>
       </c>
       <c r="D12">
-        <v>8.3165</v>
+        <v>8.31655713491552</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>n for ørum sø</t>
+          <t>VIB063-001</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1309,10 +1309,10 @@
         </is>
       </c>
       <c r="C13">
-        <v>56.6989</v>
+        <v>56.69892491256987</v>
       </c>
       <c r="D13">
-        <v>8.5116</v>
+        <v>8.511604843030243</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>sø nr. 5542708</t>
+          <t>VIB5542708</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1382,10 +1382,10 @@
         </is>
       </c>
       <c r="C14">
-        <v>56.8682</v>
+        <v>56.86828112590145</v>
       </c>
       <c r="D14">
-        <v>8.827500000000001</v>
+        <v>8.827516343179049</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>sø nr. 5624501</t>
+          <t>VIB5624501</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1455,10 +1455,10 @@
         </is>
       </c>
       <c r="C15">
-        <v>56.937</v>
+        <v>56.93706833301882</v>
       </c>
       <c r="D15">
-        <v>8.594099999999999</v>
+        <v>8.594150705664225</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>stenlillesø</t>
+          <t>VIB132-001</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1533,10 +1533,10 @@
         </is>
       </c>
       <c r="C16">
-        <v>56.8363</v>
+        <v>56.83634121651809</v>
       </c>
       <c r="D16">
-        <v>8.3162</v>
+        <v>8.315940599459882</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>sø nr. 5545159</t>
+          <t>VIB5545149</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="C17">
-        <v>56.9963</v>
+        <v>56.99630931511074</v>
       </c>
       <c r="D17">
-        <v>8.4763</v>
+        <v>8.476376246832844</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>køstrimme vest</t>
+          <t>VIB154-001</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1684,10 +1684,10 @@
         </is>
       </c>
       <c r="C18">
-        <v>56.9758</v>
+        <v>56.97581164571064</v>
       </c>
       <c r="D18">
-        <v>9.928599999999999</v>
+        <v>9.92869757133289</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>poulstrup sø</t>
+          <t>NOK85101</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="C19">
-        <v>57.3579</v>
+        <v>57.35799578955117</v>
       </c>
       <c r="D19">
-        <v>10.2641</v>
+        <v>10.26413431908175</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>gersholt sø</t>
+          <t>NOR84702</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1840,10 +1840,10 @@
         </is>
       </c>
       <c r="C20">
-        <v>56.7031</v>
+        <v>56.7026251225137</v>
       </c>
       <c r="D20">
-        <v>9.8033</v>
+        <v>9.857837977332405</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>sø nr. 10249</t>
+          <t>NOR80107</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1918,10 +1918,10 @@
         </is>
       </c>
       <c r="C21">
-        <v>56.7277</v>
+        <v>56.72775965649854</v>
       </c>
       <c r="D21">
-        <v>9.801600000000001</v>
+        <v>9.801683655562311</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>sø nr. 5377</t>
+          <t>NOR80111</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1996,10 +1996,10 @@
         </is>
       </c>
       <c r="C22">
-        <v>56.6852</v>
+        <v>56.68525812335192</v>
       </c>
       <c r="D22">
-        <v>9.799799999999999</v>
+        <v>9.799817250728941</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>sø nr. 10482</t>
+          <t>NOR80108</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -2074,10 +2074,10 @@
         </is>
       </c>
       <c r="C23">
-        <v>57.4981</v>
+        <v>57.49810154456116</v>
       </c>
       <c r="D23">
-        <v>10.205</v>
+        <v>10.20501369344585</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>sø nr. 5917</t>
+          <t>NOR83902</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="C24">
-        <v>56.8854</v>
+        <v>56.88549607578496</v>
       </c>
       <c r="D24">
-        <v>9.1708</v>
+        <v>9.170872596041674</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>sø nr. 16500001</t>
+          <t>NOR16500001</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2225,10 +2225,10 @@
         </is>
       </c>
       <c r="C25">
-        <v>55.9595</v>
+        <v>55.9595359736934</v>
       </c>
       <c r="D25">
-        <v>11.3991</v>
+        <v>11.39913847250607</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2238,6 +2238,11 @@
       <c r="F25" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Sjællands Odde</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -2293,10 +2298,10 @@
         </is>
       </c>
       <c r="C26">
-        <v>56.0998</v>
+        <v>56.09986400216636</v>
       </c>
       <c r="D26">
-        <v>10.5095</v>
+        <v>10.50949658755458</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2305,7 +2310,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3110</t>
+          <t>1150</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Slettehage Fyr</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -2335,17 +2345,12 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Freshwater</t>
+          <t>Saltwater</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Standing freshwater</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>Lake, Oligotrophic isoetid</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
     </row>
@@ -2361,10 +2366,10 @@
         </is>
       </c>
       <c r="C27">
-        <v>56.229</v>
+        <v>55.27628223959802</v>
       </c>
       <c r="D27">
-        <v>10.2307</v>
+        <v>8.943285054163303</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2373,7 +2378,12 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>3169</t>
+          <t>3104</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Stensbæk plantage</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -2403,7 +2413,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2020-04-05</t>
+          <t>2020-04-02</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2429,10 +2439,10 @@
         </is>
       </c>
       <c r="C28">
-        <v>55.873</v>
+        <v>55.87311731201897</v>
       </c>
       <c r="D28">
-        <v>9.8896</v>
+        <v>9.889900190186262</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2442,6 +2452,11 @@
       <c r="F28" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>615-L14 - Ny sø</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -2497,10 +2512,10 @@
         </is>
       </c>
       <c r="C29">
-        <v>55.8746</v>
+        <v>55.8745582950196</v>
       </c>
       <c r="D29">
-        <v>9.8604</v>
+        <v>9.860364832966559</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -2514,7 +2529,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>horsens</t>
+          <t>615-L13-sø-02</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2544,7 +2559,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2020-07-08</t>
+          <t>2020-06-08</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2575,10 +2590,10 @@
         </is>
       </c>
       <c r="C30">
-        <v>55.6032</v>
+        <v>55.60385311236559</v>
       </c>
       <c r="D30">
-        <v>12.3535</v>
+        <v>12.35403732887622</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -2588,6 +2603,11 @@
       <c r="F30" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Ishøj strandvej</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2648,10 +2668,10 @@
         </is>
       </c>
       <c r="C31">
-        <v>55.8753</v>
+        <v>55.87551961064929</v>
       </c>
       <c r="D31">
-        <v>9.8726</v>
+        <v>9.871878049843458</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -2661,6 +2681,11 @@
       <c r="F31" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>615-L14-SV01</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2716,10 +2741,10 @@
         </is>
       </c>
       <c r="C32">
-        <v>55.5131</v>
+        <v>55.51284109730368</v>
       </c>
       <c r="D32">
-        <v>11.7641</v>
+        <v>11.76354898747581</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2729,6 +2754,11 @@
       <c r="F32" t="inlineStr">
         <is>
           <t>3140</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Alindelille fredskov</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2789,10 +2819,10 @@
         </is>
       </c>
       <c r="C33">
-        <v>55.9091</v>
+        <v>55.9091489021225</v>
       </c>
       <c r="D33">
-        <v>9.854100000000001</v>
+        <v>9.854411783911086</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -2802,6 +2832,11 @@
       <c r="F33" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Egebjerg</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2857,10 +2892,10 @@
         </is>
       </c>
       <c r="C34">
-        <v>56.1674</v>
+        <v>56.16731466346388</v>
       </c>
       <c r="D34">
-        <v>10.5319</v>
+        <v>10.53195186668185</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -2869,7 +2904,12 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3150</t>
+          <t>3103</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Dragsmur</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2910,11 +2950,6 @@
       <c r="O34" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>
@@ -2930,10 +2965,10 @@
         </is>
       </c>
       <c r="C35">
-        <v>55.2475</v>
+        <v>55.24751388272966</v>
       </c>
       <c r="D35">
-        <v>9.5192</v>
+        <v>9.519285885863347</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -2942,7 +2977,12 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>3150</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Starup hede</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2983,6 +3023,11 @@
       <c r="O35" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>
@@ -2998,10 +3043,10 @@
         </is>
       </c>
       <c r="C36">
-        <v>56.5335</v>
+        <v>56.53365717510675</v>
       </c>
       <c r="D36">
-        <v>10.7996</v>
+        <v>10.80025850327344</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -3010,7 +3055,12 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>3150</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Gjerrild</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -3046,6 +3096,11 @@
       <c r="O36" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>
@@ -3061,10 +3116,10 @@
         </is>
       </c>
       <c r="C37">
-        <v>55.2329</v>
+        <v>55.22030443755078</v>
       </c>
       <c r="D37">
-        <v>9.3957</v>
+        <v>9.394247565465342</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -3074,6 +3129,11 @@
       <c r="F37" t="inlineStr">
         <is>
           <t>3100</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Pamhule skov</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -3129,10 +3189,10 @@
         </is>
       </c>
       <c r="C38">
-        <v>56.0778</v>
+        <v>56.07760707494216</v>
       </c>
       <c r="D38">
-        <v>10.0319</v>
+        <v>10.03185156270362</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -3142,6 +3202,11 @@
       <c r="F38" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Hørning Syd</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -3202,10 +3267,10 @@
         </is>
       </c>
       <c r="C39">
-        <v>55.2382</v>
+        <v>55.2385830855788</v>
       </c>
       <c r="D39">
-        <v>9.376799999999999</v>
+        <v>9.376925045987768</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -3215,6 +3280,11 @@
       <c r="F39" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Tørning mølle</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -3275,10 +3345,10 @@
         </is>
       </c>
       <c r="C40">
-        <v>56.1034</v>
+        <v>56.10343460279196</v>
       </c>
       <c r="D40">
-        <v>10.5412</v>
+        <v>10.54124770021371</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -3288,6 +3358,11 @@
       <c r="F40" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Lusager</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -3348,10 +3423,10 @@
         </is>
       </c>
       <c r="C41">
-        <v>56.0473</v>
+        <v>56.04732144271742</v>
       </c>
       <c r="D41">
-        <v>9.6914</v>
+        <v>9.691544324198594</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -3361,6 +3436,11 @@
       <c r="F41" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>615-B8-SØ-07</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -3416,10 +3496,10 @@
         </is>
       </c>
       <c r="C42">
-        <v>56.2833</v>
+        <v>56.28328198357235</v>
       </c>
       <c r="D42">
-        <v>10.4707</v>
+        <v>10.4707735287738</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -3429,6 +3509,11 @@
       <c r="F42" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Hestehave skov</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -3489,10 +3574,10 @@
         </is>
       </c>
       <c r="C43">
-        <v>55.7924</v>
+        <v>55.79241239012875</v>
       </c>
       <c r="D43">
-        <v>12.2649</v>
+        <v>12.26494712560289</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -3502,6 +3587,11 @@
       <c r="F43" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Ganløse</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -3562,10 +3652,10 @@
         </is>
       </c>
       <c r="C44">
-        <v>55.6033</v>
+        <v>55.60357330649087</v>
       </c>
       <c r="D44">
-        <v>12.3499</v>
+        <v>12.34980478660921</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -3575,6 +3665,11 @@
       <c r="F44" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Strandgårdsparken</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -3635,10 +3730,10 @@
         </is>
       </c>
       <c r="C45">
-        <v>55.6078</v>
+        <v>55.60780714184482</v>
       </c>
       <c r="D45">
-        <v>12.3224</v>
+        <v>12.32243380980031</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -3648,6 +3743,11 @@
       <c r="F45" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Hundige</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -3708,10 +3808,10 @@
         </is>
       </c>
       <c r="C46">
-        <v>55.9205</v>
+        <v>55.92256045734474</v>
       </c>
       <c r="D46">
-        <v>9.8376</v>
+        <v>9.836623891708459</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -3725,7 +3825,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>615-i13-sø-10</t>
+          <t>615-I13-SØ-10</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -3786,10 +3886,10 @@
         </is>
       </c>
       <c r="C47">
-        <v>56.0519</v>
+        <v>56.05163376221595</v>
       </c>
       <c r="D47">
-        <v>9.598800000000001</v>
+        <v>9.598835550733922</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -3799,6 +3899,11 @@
       <c r="F47" t="inlineStr">
         <is>
           <t>3140</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>615-B5-SØ-08</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -3859,10 +3964,10 @@
         </is>
       </c>
       <c r="C48">
-        <v>55.9165</v>
+        <v>55.91690450616773</v>
       </c>
       <c r="D48">
-        <v>9.8329</v>
+        <v>9.831926012745765</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -3876,7 +3981,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>615-i12-sø-15</t>
+          <t>615-I12-SØ-15</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -3937,10 +4042,10 @@
         </is>
       </c>
       <c r="C49">
-        <v>56.0514</v>
+        <v>56.04699969009894</v>
       </c>
       <c r="D49">
-        <v>9.598699999999999</v>
+        <v>9.598378474434686</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -3950,6 +4055,11 @@
       <c r="F49" t="inlineStr">
         <is>
           <t>3130</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>615-B5-SØ-07</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -4010,10 +4120,10 @@
         </is>
       </c>
       <c r="C50">
-        <v>55.932</v>
+        <v>55.9319950230845</v>
       </c>
       <c r="D50">
-        <v>9.6929</v>
+        <v>9.693378282811008</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -4027,7 +4137,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>615-i8-sø-01</t>
+          <t>615-I8-SØ-01</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -4088,10 +4198,10 @@
         </is>
       </c>
       <c r="C51">
-        <v>55.125</v>
+        <v>55.1251637119739</v>
       </c>
       <c r="D51">
-        <v>10.2749</v>
+        <v>10.27511802824784</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -4101,6 +4211,11 @@
       <c r="F51" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Svanning</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -4161,10 +4276,10 @@
         </is>
       </c>
       <c r="C52">
-        <v>55.972</v>
+        <v>55.9724710553125</v>
       </c>
       <c r="D52">
-        <v>9.7416</v>
+        <v>9.741674333331767</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -4178,7 +4293,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>615-f10-sø-18</t>
+          <t>615-F10-SØ-18</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -4239,10 +4354,10 @@
         </is>
       </c>
       <c r="C53">
-        <v>55.0356</v>
+        <v>55.04437466088913</v>
       </c>
       <c r="D53">
-        <v>10.588</v>
+        <v>10.58112196791406</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -4252,6 +4367,11 @@
       <c r="F53" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Svendborg</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -4307,10 +4427,10 @@
         </is>
       </c>
       <c r="C54">
-        <v>55.9356</v>
+        <v>55.93553638246701</v>
       </c>
       <c r="D54">
-        <v>9.8421</v>
+        <v>9.841753920923232</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -4324,7 +4444,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>615-h13-sø-09</t>
+          <t>615-H13-SØ-09</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -4385,10 +4505,10 @@
         </is>
       </c>
       <c r="C55">
-        <v>56.1862</v>
+        <v>56.1866562122156</v>
       </c>
       <c r="D55">
-        <v>10.1808</v>
+        <v>10.18012956014675</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -4402,7 +4522,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>vestereng</t>
+          <t>Vestereng</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -4463,10 +4583,10 @@
         </is>
       </c>
       <c r="C56">
-        <v>56.5211</v>
+        <v>56.5211048671596</v>
       </c>
       <c r="D56">
-        <v>10.4186</v>
+        <v>10.41869212947429</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -4476,6 +4596,11 @@
       <c r="F56" t="inlineStr">
         <is>
           <t>3160</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>4-15-10</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -4531,10 +4656,10 @@
         </is>
       </c>
       <c r="C57">
-        <v>55.133957</v>
+        <v>55.13395680352228</v>
       </c>
       <c r="D57">
-        <v>10.264402</v>
+        <v>10.26440220314031</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -4548,7 +4673,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>svanninge bjerge</t>
+          <t>Svanninge</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -4604,10 +4729,10 @@
         </is>
       </c>
       <c r="C58">
-        <v>56.3137</v>
+        <v>56.31352415679039</v>
       </c>
       <c r="D58">
-        <v>9.7582</v>
+        <v>9.758050955303295</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -4621,7 +4746,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>favrskov-nysø-kort35</t>
+          <t>Sø-5286</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -4682,10 +4807,10 @@
         </is>
       </c>
       <c r="C59">
-        <v>56.3592</v>
+        <v>56.35919059128695</v>
       </c>
       <c r="D59">
-        <v>9.7774</v>
+        <v>9.777407648290902</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -4699,7 +4824,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>sø-2502</t>
+          <t>Sø-2502</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -4760,10 +4885,10 @@
         </is>
       </c>
       <c r="C60">
-        <v>55.8821</v>
+        <v>55.88224216486632</v>
       </c>
       <c r="D60">
-        <v>9.9125</v>
+        <v>9.912601342690847</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -4777,7 +4902,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>615-k15-sø-ny</t>
+          <t>615-K15-SØ-NY</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -4838,10 +4963,10 @@
         </is>
       </c>
       <c r="C61">
-        <v>55.5201</v>
+        <v>55.52019142626209</v>
       </c>
       <c r="D61">
-        <v>11.7641</v>
+        <v>11.76408032947873</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -4851,6 +4976,11 @@
       <c r="F61" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Alllindelille</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -4911,10 +5041,10 @@
         </is>
       </c>
       <c r="C62">
-        <v>55.8025</v>
+        <v>55.80256686471829</v>
       </c>
       <c r="D62">
-        <v>12.32</v>
+        <v>12.3198144497681</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -4923,7 +5053,12 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>3150</t>
+          <t>3103</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Ganløse Ore</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -4959,11 +5094,6 @@
       <c r="O62" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
-        </is>
-      </c>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>
@@ -4979,10 +5109,10 @@
         </is>
       </c>
       <c r="C63">
-        <v>56.3073</v>
+        <v>56.30733080517284</v>
       </c>
       <c r="D63">
-        <v>9.6989</v>
+        <v>9.6989498522813</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -4996,7 +5126,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>favrskov sø-3059</t>
+          <t>Sø-3059</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -5057,10 +5187,10 @@
         </is>
       </c>
       <c r="C64">
-        <v>56.3107</v>
+        <v>56.3106369796435</v>
       </c>
       <c r="D64">
-        <v>9.7005</v>
+        <v>9.700578162037742</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -5074,7 +5204,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>favrskov sø-1422</t>
+          <t>Sø-1422</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -5135,10 +5265,10 @@
         </is>
       </c>
       <c r="C65">
-        <v>55.9225</v>
+        <v>55.92258990839849</v>
       </c>
       <c r="D65">
-        <v>9.8362</v>
+        <v>9.836256466902654</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -5152,7 +5282,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>615-i13-sø-11</t>
+          <t>615-I13-SØ-11</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -5213,10 +5343,10 @@
         </is>
       </c>
       <c r="C66">
-        <v>55.8042</v>
+        <v>55.80439596821859</v>
       </c>
       <c r="D66">
-        <v>12.3382</v>
+        <v>12.33824830776711</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -5226,6 +5356,11 @@
       <c r="F66" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Farum sø</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -5286,10 +5421,10 @@
         </is>
       </c>
       <c r="C67">
-        <v>55.8026</v>
+        <v>55.80272620939202</v>
       </c>
       <c r="D67">
-        <v>12.3392</v>
+        <v>12.339478076634</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -5299,6 +5434,11 @@
       <c r="F67" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Sortemose</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -5359,10 +5499,10 @@
         </is>
       </c>
       <c r="C68">
-        <v>55.9211</v>
+        <v>55.92118103338763</v>
       </c>
       <c r="D68">
-        <v>9.8345</v>
+        <v>9.835986102946752</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -5376,7 +5516,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>615-i13-sø-03</t>
+          <t>615-I13-SØ-03</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -5437,10 +5577,10 @@
         </is>
       </c>
       <c r="C69">
-        <v>55.140581</v>
+        <v>55.14058007508739</v>
       </c>
       <c r="D69">
-        <v>10.267749</v>
+        <v>10.2678748959547</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -5454,7 +5594,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>svaninge bjerge</t>
+          <t>Svanning-Ellemose</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -5510,10 +5650,10 @@
         </is>
       </c>
       <c r="C70">
-        <v>55.1461</v>
+        <v>55.12586950493596</v>
       </c>
       <c r="D70">
-        <v>10.2866</v>
+        <v>10.284926817254</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -5523,6 +5663,11 @@
       <c r="F70" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Svanninge</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -5578,10 +5723,10 @@
         </is>
       </c>
       <c r="C71">
-        <v>55.9275</v>
+        <v>55.92813174209683</v>
       </c>
       <c r="D71">
-        <v>9.8255</v>
+        <v>9.824580238670896</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -5595,7 +5740,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>615-i12-sø-10</t>
+          <t>615-I12-SØ-10</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -5656,10 +5801,10 @@
         </is>
       </c>
       <c r="C72">
-        <v>56.1832</v>
+        <v>56.18305287985115</v>
       </c>
       <c r="D72">
-        <v>10.169</v>
+        <v>10.17637779334678</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -5668,12 +5813,12 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>3150</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>vestereng</t>
+          <t>Vestereng</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -5714,6 +5859,11 @@
       <c r="O72" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>
@@ -5729,10 +5879,10 @@
         </is>
       </c>
       <c r="C73">
-        <v>55.9268</v>
+        <v>55.9278903342101</v>
       </c>
       <c r="D73">
-        <v>9.835900000000001</v>
+        <v>9.835074227648647</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -5746,7 +5896,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>615-i13-sø-04</t>
+          <t>615-I13-SØ-04</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -5807,10 +5957,10 @@
         </is>
       </c>
       <c r="C74">
-        <v>56.3073</v>
+        <v>56.30796738874771</v>
       </c>
       <c r="D74">
-        <v>9.7188</v>
+        <v>9.718033991105571</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -5819,12 +5969,12 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>3103</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>favrskov sø-2736</t>
+          <t>Sø-2736</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -5880,10 +6030,10 @@
         </is>
       </c>
       <c r="C75">
-        <v>55.1226</v>
+        <v>55.12271275602309</v>
       </c>
       <c r="D75">
-        <v>10.3018</v>
+        <v>10.30207561081094</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -5893,6 +6043,11 @@
       <c r="F75" t="inlineStr">
         <is>
           <t>3140</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Høbbet - hjerte sø</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -5948,10 +6103,10 @@
         </is>
       </c>
       <c r="C76">
-        <v>55.0339</v>
+        <v>55.03389935372437</v>
       </c>
       <c r="D76">
-        <v>10.7072</v>
+        <v>10.70720853340584</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -5961,6 +6116,11 @@
       <c r="F76" t="inlineStr">
         <is>
           <t>1150</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Thurø</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -6011,10 +6171,10 @@
         </is>
       </c>
       <c r="C77">
-        <v>55.6125</v>
+        <v>55.61261471924391</v>
       </c>
       <c r="D77">
-        <v>10.5934</v>
+        <v>10.59352807014696</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -6028,7 +6188,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>fyenshoved</t>
+          <t>Fynshoved</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -6084,10 +6244,10 @@
         </is>
       </c>
       <c r="C78">
-        <v>56.1873</v>
+        <v>56.18586634386281</v>
       </c>
       <c r="D78">
-        <v>10.1825</v>
+        <v>10.18004086728537</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -6096,12 +6256,12 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>3150</t>
+          <t>3140</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>vestereng</t>
+          <t>Vestereng</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -6146,7 +6306,7 @@
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Lake, Rich pondweed</t>
+          <t>Lake, Hard water</t>
         </is>
       </c>
     </row>
@@ -6162,10 +6322,10 @@
         </is>
       </c>
       <c r="C79">
-        <v>55.9327</v>
+        <v>55.93290552023165</v>
       </c>
       <c r="D79">
-        <v>9.824299999999999</v>
+        <v>9.8242014229369</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -6179,7 +6339,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>615-i12-sø-06</t>
+          <t>615-I12-SØ-06</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -6240,10 +6400,10 @@
         </is>
       </c>
       <c r="C80">
-        <v>55.7487</v>
+        <v>55.74790306822587</v>
       </c>
       <c r="D80">
-        <v>9.420199999999999</v>
+        <v>9.432096851123255</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -6257,7 +6417,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>jellingskov</t>
+          <t>Jelling skov</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -6308,10 +6468,10 @@
         </is>
       </c>
       <c r="C81">
-        <v>55.135384</v>
+        <v>55.1353840514362</v>
       </c>
       <c r="D81">
-        <v>10.268024</v>
+        <v>10.26802392582563</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -6325,7 +6485,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>svanninge bjerge</t>
+          <t>Svanninge</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -6381,10 +6541,10 @@
         </is>
       </c>
       <c r="C82">
-        <v>55.1774</v>
+        <v>55.17747427008985</v>
       </c>
       <c r="D82">
-        <v>9.6386</v>
+        <v>9.638717700974111</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -6394,6 +6554,11 @@
       <c r="F82" t="inlineStr">
         <is>
           <t>1150</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Halk</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -6444,10 +6609,10 @@
         </is>
       </c>
       <c r="C83">
-        <v>56.3058</v>
+        <v>56.30924485328807</v>
       </c>
       <c r="D83">
-        <v>9.6999</v>
+        <v>9.700488026231737</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -6461,7 +6626,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>favrskov sø-1449</t>
+          <t>Sø-1449</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -6522,10 +6687,10 @@
         </is>
       </c>
       <c r="C84">
-        <v>55.7456</v>
+        <v>55.74559067838306</v>
       </c>
       <c r="D84">
-        <v>9.4251</v>
+        <v>9.425269361319204</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -6535,6 +6700,11 @@
       <c r="F84" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Jelling skov</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -6590,10 +6760,10 @@
         </is>
       </c>
       <c r="C85">
-        <v>56.3011</v>
+        <v>56.30103972598812</v>
       </c>
       <c r="D85">
-        <v>9.6831</v>
+        <v>9.68315960801319</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -6607,7 +6777,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>favrskov sø-3005</t>
+          <t>Sø-3005</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -6668,10 +6838,10 @@
         </is>
       </c>
       <c r="C86">
-        <v>55.1261</v>
+        <v>55.12612070239237</v>
       </c>
       <c r="D86">
-        <v>10.2872</v>
+        <v>10.28752262520026</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -6681,6 +6851,11 @@
       <c r="F86" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Høbbet bæverdam sø</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -6736,10 +6911,10 @@
         </is>
       </c>
       <c r="C87">
-        <v>56.3132</v>
+        <v>56.31323527803055</v>
       </c>
       <c r="D87">
-        <v>9.765499999999999</v>
+        <v>9.765578331464125</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -6753,7 +6928,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>sø-3038</t>
+          <t>Sø-3038</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -6814,10 +6989,10 @@
         </is>
       </c>
       <c r="C88">
-        <v>56.015</v>
+        <v>56.01500631683313</v>
       </c>
       <c r="D88">
-        <v>9.612500000000001</v>
+        <v>9.612512659402288</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -6826,12 +7001,12 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>3103</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>615-d6-sø-09</t>
+          <t>615-06-SØ-09</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -6882,10 +7057,10 @@
         </is>
       </c>
       <c r="C89">
-        <v>55.7411</v>
+        <v>55.74102341013435</v>
       </c>
       <c r="D89">
-        <v>9.4183</v>
+        <v>9.418195566487622</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -6895,6 +7070,11 @@
       <c r="F89" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Jellingskov -  fårup sø</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -6950,10 +7130,10 @@
         </is>
       </c>
       <c r="C90">
-        <v>55.9275</v>
+        <v>55.92751449912726</v>
       </c>
       <c r="D90">
-        <v>9.8255</v>
+        <v>9.825511402143597</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -6967,7 +7147,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>615-i12-sø-ny</t>
+          <t>612-I12-SØ-25</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -7028,10 +7208,10 @@
         </is>
       </c>
       <c r="C91">
-        <v>56.0203</v>
+        <v>56.02040543491377</v>
       </c>
       <c r="D91">
-        <v>9.646100000000001</v>
+        <v>9.646159503068889</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -7045,7 +7225,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>615-d7-sø-03</t>
+          <t>615-07-SØ-03</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -7101,10 +7281,10 @@
         </is>
       </c>
       <c r="C92">
-        <v>55.9241</v>
+        <v>55.92969299933809</v>
       </c>
       <c r="D92">
-        <v>9.819599999999999</v>
+        <v>9.819523651473958</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -7118,7 +7298,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>615-i12-sø-03</t>
+          <t>615-I12-sø-03</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -7179,10 +7359,10 @@
         </is>
       </c>
       <c r="C93">
-        <v>55.9248</v>
+        <v>55.92774349045406</v>
       </c>
       <c r="D93">
-        <v>9.827299999999999</v>
+        <v>9.828877254029639</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -7196,7 +7376,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>615-i12-sø-17</t>
+          <t>615-I12-sø-16</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -7257,10 +7437,10 @@
         </is>
       </c>
       <c r="C94">
-        <v>55.1366</v>
+        <v>55.13694285199351</v>
       </c>
       <c r="D94">
-        <v>10.287</v>
+        <v>10.28735328951926</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -7270,6 +7450,11 @@
       <c r="F94" t="inlineStr">
         <is>
           <t>3100</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Svanninge</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -7325,10 +7510,10 @@
         </is>
       </c>
       <c r="C95">
-        <v>56.3963</v>
+        <v>56.39631603729114</v>
       </c>
       <c r="D95">
-        <v>10.8916</v>
+        <v>10.89136299028191</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -7338,6 +7523,11 @@
       <c r="F95" t="inlineStr">
         <is>
           <t>3100</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Grenå</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -7393,10 +7583,10 @@
         </is>
       </c>
       <c r="C96">
-        <v>55.6064</v>
+        <v>55.6065456458441</v>
       </c>
       <c r="D96">
-        <v>10.6059</v>
+        <v>10.60615678802891</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -7410,7 +7600,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>fyenshoved</t>
+          <t>Fynshoved</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -7466,10 +7656,10 @@
         </is>
       </c>
       <c r="C97">
-        <v>54.9735</v>
+        <v>54.97351103141862</v>
       </c>
       <c r="D97">
-        <v>9.4108</v>
+        <v>9.410917084682309</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -7479,6 +7669,11 @@
       <c r="F97" t="inlineStr">
         <is>
           <t>3160</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Hostrup sø</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -7534,10 +7729,10 @@
         </is>
       </c>
       <c r="C98">
-        <v>55.6113</v>
+        <v>55.6113227675102</v>
       </c>
       <c r="D98">
-        <v>10.5947</v>
+        <v>10.59474584344226</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -7551,7 +7746,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>fyenshoved</t>
+          <t>Fynshoved</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -7607,10 +7802,10 @@
         </is>
       </c>
       <c r="C99">
-        <v>55.615</v>
+        <v>55.61507836019744</v>
       </c>
       <c r="D99">
-        <v>10.5921</v>
+        <v>10.5927387995074</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -7624,7 +7819,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>fyenshoved</t>
+          <t>Fynshoved</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -7680,10 +7875,10 @@
         </is>
       </c>
       <c r="C100">
-        <v>55.7994</v>
+        <v>55.79963610094477</v>
       </c>
       <c r="D100">
-        <v>8.6127</v>
+        <v>8.612314068671582</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -7692,12 +7887,12 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>3150</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>ølgod</t>
+          <t>Ølgod</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -7738,6 +7933,11 @@
       <c r="O100" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>
@@ -7753,10 +7953,10 @@
         </is>
       </c>
       <c r="C101">
-        <v>55.6123</v>
+        <v>55.61250953427456</v>
       </c>
       <c r="D101">
-        <v>10.5954</v>
+        <v>10.59539736778368</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -7770,7 +7970,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>fynshoved</t>
+          <t>Fynshoved</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -7826,10 +8026,10 @@
         </is>
       </c>
       <c r="C102">
-        <v>55.7996</v>
+        <v>55.79956258157713</v>
       </c>
       <c r="D102">
-        <v>8.622199999999999</v>
+        <v>8.623353294821507</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -7838,12 +8038,12 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>3150</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>ølgod</t>
+          <t>Ølgod</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -7884,6 +8084,11 @@
       <c r="O102" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>
@@ -7899,10 +8104,10 @@
         </is>
       </c>
       <c r="C103">
-        <v>55.9612</v>
+        <v>55.90770290469498</v>
       </c>
       <c r="D103">
-        <v>9.8576</v>
+        <v>9.853020290821956</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -7916,7 +8121,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>egebjeg horsens</t>
+          <t>Egebjerg</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -7977,10 +8182,10 @@
         </is>
       </c>
       <c r="C104">
-        <v>55.8029</v>
+        <v>55.80287146825948</v>
       </c>
       <c r="D104">
-        <v>8.6271</v>
+        <v>8.627054338785092</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -7989,12 +8194,12 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>3150</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>ølgod</t>
+          <t>Ølgod</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -8035,6 +8240,11 @@
       <c r="O104" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>
@@ -8050,10 +8260,10 @@
         </is>
       </c>
       <c r="C105">
-        <v>55.7453</v>
+        <v>55.7531759185738</v>
       </c>
       <c r="D105">
-        <v>9.445499999999999</v>
+        <v>9.450063481290528</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -8067,7 +8277,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>jelling skov</t>
+          <t>Jelling skov</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -8123,10 +8333,10 @@
         </is>
       </c>
       <c r="C106">
-        <v>55.137863</v>
+        <v>55.13786299277605</v>
       </c>
       <c r="D106">
-        <v>10.269028</v>
+        <v>10.26902810105607</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -8140,7 +8350,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>svanninge bjerge</t>
+          <t>Svanning</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -8201,10 +8411,10 @@
         </is>
       </c>
       <c r="C107">
-        <v>55.1372</v>
+        <v>55.13722360092662</v>
       </c>
       <c r="D107">
-        <v>10.2885</v>
+        <v>10.28969978423554</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -8214,6 +8424,11 @@
       <c r="F107" t="inlineStr">
         <is>
           <t>3160</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Svanning, Brændelung</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -8269,10 +8484,10 @@
         </is>
       </c>
       <c r="C108">
-        <v>55.9356</v>
+        <v>55.93568987993358</v>
       </c>
       <c r="D108">
-        <v>9.819000000000001</v>
+        <v>9.818977914378234</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -8286,7 +8501,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>615-h12-sø-27</t>
+          <t>615-H12-sø-27</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -8347,10 +8562,10 @@
         </is>
       </c>
       <c r="C109">
-        <v>56.3539</v>
+        <v>56.35351069291956</v>
       </c>
       <c r="D109">
-        <v>9.7804</v>
+        <v>9.780512404686686</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -8364,7 +8579,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>sø-2499</t>
+          <t>Sø-2499</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -8425,10 +8640,10 @@
         </is>
       </c>
       <c r="C110">
-        <v>55.87</v>
+        <v>55.8705140384656</v>
       </c>
       <c r="D110">
-        <v>9.8246</v>
+        <v>9.826379370949075</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -8442,7 +8657,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>horsens</t>
+          <t>Horsens Statsgymnasium</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -8498,10 +8713,10 @@
         </is>
       </c>
       <c r="C111">
-        <v>56.3393</v>
+        <v>56.33931224821016</v>
       </c>
       <c r="D111">
-        <v>9.911099999999999</v>
+        <v>9.911204454175687</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -8511,6 +8726,11 @@
       <c r="F111" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Sø-2094</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -8566,10 +8786,10 @@
         </is>
       </c>
       <c r="C112">
-        <v>55.6564</v>
+        <v>55.6563888409286</v>
       </c>
       <c r="D112">
-        <v>9.3125</v>
+        <v>9.312699074744005</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -8579,6 +8799,11 @@
       <c r="F112" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Søballe naturcenter</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -8634,10 +8859,10 @@
         </is>
       </c>
       <c r="C113">
-        <v>56.5093</v>
+        <v>56.50596582836133</v>
       </c>
       <c r="D113">
-        <v>8.8035</v>
+        <v>8.826613963818037</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -8647,6 +8872,11 @@
       <c r="F113" t="inlineStr">
         <is>
           <t>3160</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Skånsø (Vinderup)</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -8702,10 +8932,10 @@
         </is>
       </c>
       <c r="C114">
-        <v>56.8658</v>
+        <v>56.86583080356857</v>
       </c>
       <c r="D114">
-        <v>9.8208</v>
+        <v>9.820595479671388</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -8714,7 +8944,12 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>3150</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Støvring S4</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -8750,6 +8985,11 @@
       <c r="O114" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>
@@ -8765,10 +9005,10 @@
         </is>
       </c>
       <c r="C115">
-        <v>56.3318</v>
+        <v>56.33192916495454</v>
       </c>
       <c r="D115">
-        <v>9.898400000000001</v>
+        <v>9.89855869785535</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -8778,6 +9018,11 @@
       <c r="F115" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Sø-2742</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -8833,10 +9078,10 @@
         </is>
       </c>
       <c r="C116">
-        <v>56.315</v>
+        <v>56.31514804422179</v>
       </c>
       <c r="D116">
-        <v>9.8483</v>
+        <v>9.848485169878316</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -8846,6 +9091,11 @@
       <c r="F116" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Sø-3344</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -8901,10 +9151,10 @@
         </is>
       </c>
       <c r="C117">
-        <v>55.4813</v>
+        <v>55.4789107130776</v>
       </c>
       <c r="D117">
-        <v>9.512499999999999</v>
+        <v>9.515504893364465</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -8918,7 +9168,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>kolding kos-kolding sø_sø-111</t>
+          <t>KOS-Kolding sø_sø-111</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -8979,10 +9229,10 @@
         </is>
       </c>
       <c r="C118">
-        <v>55.4955</v>
+        <v>55.48178123171676</v>
       </c>
       <c r="D118">
-        <v>9.392200000000001</v>
+        <v>9.398910853809769</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -8996,7 +9246,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>kolding kos-gelballe_eng-39_sø</t>
+          <t>KOS-Gelballe_eng-39_sø</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -9052,10 +9302,10 @@
         </is>
       </c>
       <c r="C119">
-        <v>55.572</v>
+        <v>55.57207338682758</v>
       </c>
       <c r="D119">
-        <v>10.1015</v>
+        <v>10.10161505492726</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -9065,6 +9315,11 @@
       <c r="F119" t="inlineStr">
         <is>
           <t>1150</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Bogense</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -9120,10 +9375,10 @@
         </is>
       </c>
       <c r="C120">
-        <v>56.1784</v>
+        <v>56.17819065119776</v>
       </c>
       <c r="D120">
-        <v>9.616300000000001</v>
+        <v>9.616365034418308</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -9137,7 +9392,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>silkeborg 15</t>
+          <t>Silkeborg 15</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -9193,10 +9448,10 @@
         </is>
       </c>
       <c r="C121">
-        <v>55.4443</v>
+        <v>55.44423093692271</v>
       </c>
       <c r="D121">
-        <v>10.0233</v>
+        <v>10.02340153878692</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -9206,6 +9461,11 @@
       <c r="F121" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Sø i Mose-387</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -9266,10 +9526,10 @@
         </is>
       </c>
       <c r="C122">
-        <v>55.4224</v>
+        <v>55.42242792408373</v>
       </c>
       <c r="D122">
-        <v>9.5715</v>
+        <v>9.571583429573208</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -9279,6 +9539,11 @@
       <c r="F122" t="inlineStr">
         <is>
           <t>3140</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Skamlingsbanken</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -9334,10 +9599,10 @@
         </is>
       </c>
       <c r="C123">
-        <v>55.449</v>
+        <v>55.44909091715106</v>
       </c>
       <c r="D123">
-        <v>10.0245</v>
+        <v>10.02466570893759</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -9347,6 +9612,11 @@
       <c r="F123" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Vandhul vest i Eng-382</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -9407,10 +9677,10 @@
         </is>
       </c>
       <c r="C124">
-        <v>56.1825</v>
+        <v>56.18258493887964</v>
       </c>
       <c r="D124">
-        <v>9.641</v>
+        <v>9.640971463511116</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -9424,7 +9694,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>silkeborg 13</t>
+          <t>Silkeborg13</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -9480,10 +9750,10 @@
         </is>
       </c>
       <c r="C125">
-        <v>56.2073</v>
+        <v>56.20736047512318</v>
       </c>
       <c r="D125">
-        <v>10.109</v>
+        <v>10.10904063965639</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -9493,6 +9763,11 @@
       <c r="F125" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Kasted 40-1</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -9553,10 +9828,10 @@
         </is>
       </c>
       <c r="C126">
-        <v>56.3238</v>
+        <v>56.3239594469539</v>
       </c>
       <c r="D126">
-        <v>9.864800000000001</v>
+        <v>9.864478814541696</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -9565,7 +9840,12 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>3150</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>sø-1568</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -9601,6 +9881,11 @@
       <c r="O126" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>
@@ -9616,10 +9901,10 @@
         </is>
       </c>
       <c r="C127">
-        <v>55.051</v>
+        <v>55.05109540580612</v>
       </c>
       <c r="D127">
-        <v>12.2434</v>
+        <v>12.24346597330656</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -9629,6 +9914,11 @@
       <c r="F127" t="inlineStr">
         <is>
           <t>1150</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Møn</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -9679,10 +9969,10 @@
         </is>
       </c>
       <c r="C128">
-        <v>56.3229</v>
+        <v>56.32296538663954</v>
       </c>
       <c r="D128">
-        <v>9.8674</v>
+        <v>9.867868161421182</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -9691,7 +9981,12 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>3103</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>sø-1559</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -9742,10 +10037,10 @@
         </is>
       </c>
       <c r="C129">
-        <v>56.339</v>
+        <v>56.33877028401419</v>
       </c>
       <c r="D129">
-        <v>9.8893</v>
+        <v>9.889337137965891</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -9755,6 +10050,11 @@
       <c r="F129" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Sø-2084</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -9810,10 +10110,10 @@
         </is>
       </c>
       <c r="C130">
-        <v>56.3289</v>
+        <v>56.32890760314223</v>
       </c>
       <c r="D130">
-        <v>9.846399999999999</v>
+        <v>9.846623324587247</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -9822,12 +10122,12 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>3103</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>favrskov</t>
+          <t>sø-3029</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -9878,10 +10178,10 @@
         </is>
       </c>
       <c r="C131">
-        <v>56.864</v>
+        <v>56.86428557906176</v>
       </c>
       <c r="D131">
-        <v>9.816800000000001</v>
+        <v>9.816477421486923</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -9890,7 +10190,12 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>3150</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Støvring S5</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -9926,6 +10231,11 @@
       <c r="O131" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>
@@ -9941,10 +10251,10 @@
         </is>
       </c>
       <c r="C132">
-        <v>56.3144</v>
+        <v>56.31428164254748</v>
       </c>
       <c r="D132">
-        <v>9.8043</v>
+        <v>9.804623803761114</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -9953,7 +10263,12 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>3150</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>sø-1778</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -9989,6 +10304,11 @@
       <c r="O132" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>
@@ -10004,10 +10324,10 @@
         </is>
       </c>
       <c r="C133">
-        <v>56.3129</v>
+        <v>56.31295869870096</v>
       </c>
       <c r="D133">
-        <v>9.829599999999999</v>
+        <v>9.829474558707124</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -10016,7 +10336,12 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>3140</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>sø-2681</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -10052,6 +10377,11 @@
       <c r="O133" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>Lake, Hard water</t>
         </is>
       </c>
     </row>
@@ -10067,10 +10397,10 @@
         </is>
       </c>
       <c r="C134">
-        <v>55.583</v>
+        <v>55.58305626803239</v>
       </c>
       <c r="D134">
-        <v>8.4657</v>
+        <v>8.465728668583891</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -10080,6 +10410,11 @@
       <c r="F134" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Vandhul i 4838_Nord</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -10135,10 +10470,10 @@
         </is>
       </c>
       <c r="C135">
-        <v>56.3111</v>
+        <v>56.31084949348939</v>
       </c>
       <c r="D135">
-        <v>9.831899999999999</v>
+        <v>9.831821197855913</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -10147,7 +10482,12 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>3150</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>sø-2655</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -10183,6 +10523,11 @@
       <c r="O135" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>
@@ -10198,10 +10543,10 @@
         </is>
       </c>
       <c r="C136">
-        <v>56.2075</v>
+        <v>56.20760189929632</v>
       </c>
       <c r="D136">
-        <v>10.12</v>
+        <v>10.12013926494707</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -10211,6 +10556,11 @@
       <c r="F136" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Kasted mose nær 17-8</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -10266,10 +10616,10 @@
         </is>
       </c>
       <c r="C137">
-        <v>56.3202</v>
+        <v>56.320229678921</v>
       </c>
       <c r="D137">
-        <v>9.7988</v>
+        <v>9.799057594007149</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -10278,7 +10628,12 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>3103</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>sø-1774</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -10329,10 +10684,10 @@
         </is>
       </c>
       <c r="C138">
-        <v>56.3399</v>
+        <v>56.33991891626493</v>
       </c>
       <c r="D138">
-        <v>9.9216</v>
+        <v>9.921507470119305</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -10342,6 +10697,11 @@
       <c r="F138" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Sø-2053</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -10397,10 +10757,10 @@
         </is>
       </c>
       <c r="C139">
-        <v>56.0588</v>
+        <v>56.05887609909785</v>
       </c>
       <c r="D139">
-        <v>9.602399999999999</v>
+        <v>9.602448573649696</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -10410,6 +10770,11 @@
       <c r="F139" t="inlineStr">
         <is>
           <t>3160</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>615-B5-sø-01</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -10465,10 +10830,10 @@
         </is>
       </c>
       <c r="C140">
-        <v>57.5382</v>
+        <v>57.53836780804847</v>
       </c>
       <c r="D140">
-        <v>10.2895</v>
+        <v>10.28940004159404</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -10478,6 +10843,11 @@
       <c r="F140" t="inlineStr">
         <is>
           <t>3160</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Måstrup mose</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -10533,10 +10903,10 @@
         </is>
       </c>
       <c r="C141">
-        <v>56.309</v>
+        <v>56.30883491662598</v>
       </c>
       <c r="D141">
-        <v>9.828200000000001</v>
+        <v>9.828092093805353</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -10545,7 +10915,12 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>3150</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>sø-3409</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -10581,6 +10956,11 @@
       <c r="O141" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>
@@ -10596,10 +10976,10 @@
         </is>
       </c>
       <c r="C142">
-        <v>57.4586</v>
+        <v>57.45867086264104</v>
       </c>
       <c r="D142">
-        <v>10.3147</v>
+        <v>10.31484672864326</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -10609,6 +10989,11 @@
       <c r="F142" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Tolne</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -10664,10 +11049,10 @@
         </is>
       </c>
       <c r="C143">
-        <v>56.3134</v>
+        <v>56.31337370290237</v>
       </c>
       <c r="D143">
-        <v>9.797700000000001</v>
+        <v>9.79775051468075</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -10676,7 +11061,12 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>3150</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>sø-1771</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -10712,6 +11102,11 @@
       <c r="O143" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>
@@ -10727,10 +11122,10 @@
         </is>
       </c>
       <c r="C144">
-        <v>56.314</v>
+        <v>56.31389837030418</v>
       </c>
       <c r="D144">
-        <v>9.8352</v>
+        <v>9.835379289874764</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -10739,7 +11134,12 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>3150</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>sø-1658</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -10775,6 +11175,11 @@
       <c r="O144" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>
@@ -10790,10 +11195,10 @@
         </is>
       </c>
       <c r="C145">
-        <v>56.3058</v>
+        <v>56.3086862682497</v>
       </c>
       <c r="D145">
-        <v>9.6999</v>
+        <v>9.69916856497883</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -10807,7 +11212,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>favrskov sø-1447</t>
+          <t>Sø-1447</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -10868,10 +11273,10 @@
         </is>
       </c>
       <c r="C146">
-        <v>55.4425</v>
+        <v>55.44269646172317</v>
       </c>
       <c r="D146">
-        <v>10.038</v>
+        <v>10.03807917895117</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -10881,6 +11286,11 @@
       <c r="F146" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Sø i Mose-391</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -10941,10 +11351,10 @@
         </is>
       </c>
       <c r="C147">
-        <v>57.4499</v>
+        <v>57.44998879666981</v>
       </c>
       <c r="D147">
-        <v>10.5363</v>
+        <v>10.53605015848373</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -10953,7 +11363,12 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>3103</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Frederrikshavn, park</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -11004,10 +11419,10 @@
         </is>
       </c>
       <c r="C148">
-        <v>56.1981</v>
+        <v>56.19814003349699</v>
       </c>
       <c r="D148">
-        <v>9.647500000000001</v>
+        <v>9.64743582066982</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -11021,7 +11436,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>silk 11</t>
+          <t>Silkeborg 11</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -11077,10 +11492,10 @@
         </is>
       </c>
       <c r="C149">
-        <v>56.3137</v>
+        <v>56.31378940581542</v>
       </c>
       <c r="D149">
-        <v>9.8363</v>
+        <v>9.836880330016475</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -11089,7 +11504,12 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>3150</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>sø-1661</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -11125,6 +11545,11 @@
       <c r="O149" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>
@@ -11140,10 +11565,10 @@
         </is>
       </c>
       <c r="C150">
-        <v>55.8946</v>
+        <v>55.89463491535939</v>
       </c>
       <c r="D150">
-        <v>8.573600000000001</v>
+        <v>8.573597621196159</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -11153,6 +11578,11 @@
       <c r="F150" t="inlineStr">
         <is>
           <t>3100</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Sø v. Tarm (45)</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -11208,10 +11638,10 @@
         </is>
       </c>
       <c r="C151">
-        <v>56.2074</v>
+        <v>56.20746263269299</v>
       </c>
       <c r="D151">
-        <v>10.1096</v>
+        <v>10.10967232796296</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -11220,7 +11650,12 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>3103</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Kasted 41-3</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -11276,10 +11711,10 @@
         </is>
       </c>
       <c r="C152">
-        <v>56.2702</v>
+        <v>56.27026538909593</v>
       </c>
       <c r="D152">
-        <v>9.6568</v>
+        <v>9.65687241472429</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -11293,7 +11728,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>silkeborg 3</t>
+          <t>Silkeborg 3</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -11349,10 +11784,10 @@
         </is>
       </c>
       <c r="C153">
-        <v>56.3086</v>
+        <v>56.30856721965104</v>
       </c>
       <c r="D153">
-        <v>9.8264</v>
+        <v>9.826469944807723</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -11361,7 +11796,12 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>3103</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>sø-2750</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -11412,10 +11852,10 @@
         </is>
       </c>
       <c r="C154">
-        <v>55.4201</v>
+        <v>55.42023160087164</v>
       </c>
       <c r="D154">
-        <v>9.570499999999999</v>
+        <v>9.570461614736319</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -11425,6 +11865,11 @@
       <c r="F154" t="inlineStr">
         <is>
           <t>3140</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Skamlingsbanke</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -11480,10 +11925,10 @@
         </is>
       </c>
       <c r="C155">
-        <v>56.1757</v>
+        <v>56.17573546965824</v>
       </c>
       <c r="D155">
-        <v>9.607699999999999</v>
+        <v>9.607756546574931</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -11497,7 +11942,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>slik 20</t>
+          <t>Silkeborg 20</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -11553,10 +11998,10 @@
         </is>
       </c>
       <c r="C156">
-        <v>55.5725</v>
+        <v>55.57246639930856</v>
       </c>
       <c r="D156">
-        <v>10.1027</v>
+        <v>10.10287902381353</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -11566,6 +12011,11 @@
       <c r="F156" t="inlineStr">
         <is>
           <t>1150</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Bogense</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -11621,10 +12071,10 @@
         </is>
       </c>
       <c r="C157">
-        <v>56.177</v>
+        <v>56.17704455141485</v>
       </c>
       <c r="D157">
-        <v>9.6119</v>
+        <v>9.611949193111894</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -11638,7 +12088,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>silkeborg v. gudenåen</t>
+          <t>Silkeborg 17</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -11699,10 +12149,10 @@
         </is>
       </c>
       <c r="C158">
-        <v>57.2875</v>
+        <v>57.28752581099587</v>
       </c>
       <c r="D158">
-        <v>10.9548</v>
+        <v>10.95474795097754</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -11712,6 +12162,11 @@
       <c r="F158" t="inlineStr">
         <is>
           <t>3110</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Store holmemose</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -11767,10 +12222,10 @@
         </is>
       </c>
       <c r="C159">
-        <v>55.3676</v>
+        <v>55.36763193077917</v>
       </c>
       <c r="D159">
-        <v>9.418200000000001</v>
+        <v>9.418272515484706</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -11780,6 +12235,11 @@
       <c r="F159" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Ny sø-FOS-Frøruprød_mose-3</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -11840,10 +12300,10 @@
         </is>
       </c>
       <c r="C160">
-        <v>55.378</v>
+        <v>55.37805125006126</v>
       </c>
       <c r="D160">
-        <v>9.372299999999999</v>
+        <v>9.372379225008579</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -11853,6 +12313,11 @@
       <c r="F160" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>FOS-Karholm_mose-6</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -11913,10 +12378,10 @@
         </is>
       </c>
       <c r="C161">
-        <v>55.5241</v>
+        <v>55.51649734086971</v>
       </c>
       <c r="D161">
-        <v>9.6174</v>
+        <v>9.616830560877542</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -11925,7 +12390,12 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>3150</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Eng-12</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -11961,6 +12431,11 @@
       <c r="O161" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>
@@ -11976,10 +12451,10 @@
         </is>
       </c>
       <c r="C162">
-        <v>56.1959</v>
+        <v>56.19599506680037</v>
       </c>
       <c r="D162">
-        <v>9.6485</v>
+        <v>9.648688969908871</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -11993,7 +12468,7 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>silkeborg 12</t>
+          <t>Silkeborg - 12</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -12049,10 +12524,10 @@
         </is>
       </c>
       <c r="C163">
-        <v>55.5735</v>
+        <v>55.57349766643047</v>
       </c>
       <c r="D163">
-        <v>10.1051</v>
+        <v>10.10511257289119</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -12062,6 +12537,11 @@
       <c r="F163" t="inlineStr">
         <is>
           <t>1150</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>10 C</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -12117,10 +12597,10 @@
         </is>
       </c>
       <c r="C164">
-        <v>55.6597</v>
+        <v>55.6597664258363</v>
       </c>
       <c r="D164">
-        <v>11.1467</v>
+        <v>11.14674247653275</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -12130,6 +12610,11 @@
       <c r="F164" t="inlineStr">
         <is>
           <t>3140</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>51_1sø</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -12190,10 +12675,10 @@
         </is>
       </c>
       <c r="C165">
-        <v>55.6657</v>
+        <v>55.66569907108664</v>
       </c>
       <c r="D165">
-        <v>11.1384</v>
+        <v>11.13846491356018</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -12202,7 +12687,12 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>3103</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>31_Sø</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -12258,10 +12748,10 @@
         </is>
       </c>
       <c r="C166">
-        <v>55.664</v>
+        <v>55.66403807937577</v>
       </c>
       <c r="D166">
-        <v>11.1378</v>
+        <v>11.13784959754103</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -12270,7 +12760,12 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>3103</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>64_sø</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -12326,10 +12821,10 @@
         </is>
       </c>
       <c r="C167">
-        <v>55.6665</v>
+        <v>55.66655398859315</v>
       </c>
       <c r="D167">
-        <v>11.1394</v>
+        <v>11.13943382981621</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -12338,7 +12833,12 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>3103</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>33_sø</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -12394,10 +12894,10 @@
         </is>
       </c>
       <c r="C168">
-        <v>55.6647</v>
+        <v>55.6648059413228</v>
       </c>
       <c r="D168">
-        <v>11.1469</v>
+        <v>11.14689123455115</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -12407,6 +12907,11 @@
       <c r="F168" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>34_sø</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -12467,10 +12972,10 @@
         </is>
       </c>
       <c r="C169">
-        <v>55.5463</v>
+        <v>55.5461972939786</v>
       </c>
       <c r="D169">
-        <v>9.849</v>
+        <v>9.849359155360638</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -12480,6 +12985,11 @@
       <c r="F169" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Ved overdrev-30b</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -12540,10 +13050,10 @@
         </is>
       </c>
       <c r="C170">
-        <v>55.6658</v>
+        <v>55.66596730595214</v>
       </c>
       <c r="D170">
-        <v>11.1467</v>
+        <v>11.14677992700495</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -12552,7 +13062,12 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>3150</t>
+          <t>3140</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>35_1_Sø</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -12597,7 +13112,7 @@
       </c>
       <c r="P170" t="inlineStr">
         <is>
-          <t>Lake, Rich pondweed</t>
+          <t>Lake, Hard water</t>
         </is>
       </c>
     </row>
@@ -12613,10 +13128,10 @@
         </is>
       </c>
       <c r="C171">
-        <v>55.667</v>
+        <v>55.66707587623381</v>
       </c>
       <c r="D171">
-        <v>11.148</v>
+        <v>11.14814456945875</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -12628,6 +13143,11 @@
           <t>3150</t>
         </is>
       </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>39_sø</t>
+        </is>
+      </c>
       <c r="H171" t="inlineStr">
         <is>
           <t>2020-09-15</t>
@@ -12655,7 +13175,7 @@
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>2020-09-15</t>
+          <t>2020-09-20</t>
         </is>
       </c>
       <c r="N171" t="inlineStr">
@@ -12686,10 +13206,10 @@
         </is>
       </c>
       <c r="C172">
-        <v>55.6734</v>
+        <v>55.6696633864367</v>
       </c>
       <c r="D172">
-        <v>11.1408</v>
+        <v>11.13996931263751</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -12699,6 +13219,11 @@
       <c r="F172" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>62_sø</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -12759,10 +13284,10 @@
         </is>
       </c>
       <c r="C173">
-        <v>55.5189</v>
+        <v>55.51907248956997</v>
       </c>
       <c r="D173">
-        <v>9.604900000000001</v>
+        <v>9.604976409296858</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -12776,7 +13301,7 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>fredericia</t>
+          <t>Fredericia</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -12827,10 +13352,10 @@
         </is>
       </c>
       <c r="C174">
-        <v>55.662</v>
+        <v>55.66206935172382</v>
       </c>
       <c r="D174">
-        <v>11.144</v>
+        <v>11.14405435479472</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -12844,7 +13369,7 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>kalundborg</t>
+          <t>56_sø</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -12905,10 +13430,10 @@
         </is>
       </c>
       <c r="C175">
-        <v>57.2767</v>
+        <v>57.27679356806702</v>
       </c>
       <c r="D175">
-        <v>10.9658</v>
+        <v>10.96594047076883</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -12918,6 +13443,11 @@
       <c r="F175" t="inlineStr">
         <is>
           <t>3110</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Læsø</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -12973,10 +13503,10 @@
         </is>
       </c>
       <c r="C176">
-        <v>56.8093</v>
+        <v>56.80939008251257</v>
       </c>
       <c r="D176">
-        <v>8.250400000000001</v>
+        <v>8.250394084162268</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -12986,6 +13516,11 @@
       <c r="F176" t="inlineStr">
         <is>
           <t>3160</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Thy</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -13046,10 +13581,10 @@
         </is>
       </c>
       <c r="C177">
-        <v>55.5231</v>
+        <v>55.52429859438914</v>
       </c>
       <c r="D177">
-        <v>9.6288</v>
+        <v>9.614734975777376</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -13063,7 +13598,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>fredericia v. 10</t>
+          <t>Ved overdrev-10</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -13119,10 +13654,10 @@
         </is>
       </c>
       <c r="C178">
-        <v>55.6655</v>
+        <v>55.66562729516139</v>
       </c>
       <c r="D178">
-        <v>11.1471</v>
+        <v>11.1472065342893</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -13132,6 +13667,11 @@
       <c r="F178" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Ny sø 35_Sø_2</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -13192,10 +13732,10 @@
         </is>
       </c>
       <c r="C179">
-        <v>55.6656</v>
+        <v>55.66558709045805</v>
       </c>
       <c r="D179">
-        <v>11.1486</v>
+        <v>11.14847641028369</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -13205,6 +13745,11 @@
       <c r="F179" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>36_Sø</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -13265,10 +13810,10 @@
         </is>
       </c>
       <c r="C180">
-        <v>55.6667</v>
+        <v>55.66670284939705</v>
       </c>
       <c r="D180">
-        <v>11.1426</v>
+        <v>11.14274944667569</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -13280,6 +13825,11 @@
           <t>3150</t>
         </is>
       </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>60_Sø</t>
+        </is>
+      </c>
       <c r="H180" t="inlineStr">
         <is>
           <t>2020-09-16</t>
@@ -13307,7 +13857,7 @@
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>2020-09-16</t>
+          <t>2020-09-15</t>
         </is>
       </c>
       <c r="N180" t="inlineStr">
@@ -13338,10 +13888,10 @@
         </is>
       </c>
       <c r="C181">
-        <v>55.6561</v>
+        <v>55.65621731161998</v>
       </c>
       <c r="D181">
-        <v>9.3094</v>
+        <v>9.309471386878156</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -13351,6 +13901,11 @@
       <c r="F181" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Søballegård</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -13406,10 +13961,10 @@
         </is>
       </c>
       <c r="C182">
-        <v>57.2805</v>
+        <v>57.28056250189324</v>
       </c>
       <c r="D182">
-        <v>10.9902</v>
+        <v>10.99023099766496</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -13419,6 +13974,11 @@
       <c r="F182" t="inlineStr">
         <is>
           <t>3160</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Læsø v. NOVANA 1096</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -13479,10 +14039,10 @@
         </is>
       </c>
       <c r="C183">
-        <v>55.3706</v>
+        <v>55.37784193022712</v>
       </c>
       <c r="D183">
-        <v>9.370200000000001</v>
+        <v>9.367311413647389</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -13492,6 +14052,11 @@
       <c r="F183" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Ny sø FOS-Karholm_mose-6</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -13552,10 +14117,10 @@
         </is>
       </c>
       <c r="C184">
-        <v>57.4735</v>
+        <v>57.47357472267652</v>
       </c>
       <c r="D184">
-        <v>10.1728</v>
+        <v>10.17277310304326</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -13565,6 +14130,11 @@
       <c r="F184" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Slotved 20</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -13620,10 +14190,10 @@
         </is>
       </c>
       <c r="C185">
-        <v>54.8529</v>
+        <v>54.85296892433303</v>
       </c>
       <c r="D185">
-        <v>10.7316</v>
+        <v>10.73166392169443</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -13632,7 +14202,12 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>3150</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Hennetved mose</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -13668,6 +14243,11 @@
       <c r="O185" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>
@@ -13683,10 +14263,10 @@
         </is>
       </c>
       <c r="C186">
-        <v>55.3934</v>
+        <v>55.39350955800633</v>
       </c>
       <c r="D186">
-        <v>10.1867</v>
+        <v>10.18678191206342</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -13696,6 +14276,11 @@
       <c r="F186" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Vissenbjerg</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -13751,10 +14336,10 @@
         </is>
       </c>
       <c r="C187">
-        <v>54.7389</v>
+        <v>54.73899977466105</v>
       </c>
       <c r="D187">
-        <v>11.5882</v>
+        <v>11.58823951277776</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -13764,6 +14349,11 @@
       <c r="F187" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Maribo</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -13819,10 +14409,10 @@
         </is>
       </c>
       <c r="C188">
-        <v>54.7728</v>
+        <v>54.77277882272142</v>
       </c>
       <c r="D188">
-        <v>11.4959</v>
+        <v>11.49585211744142</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -13832,6 +14422,11 @@
       <c r="F188" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Maribo</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -13887,10 +14482,10 @@
         </is>
       </c>
       <c r="C189">
-        <v>54.8505</v>
+        <v>54.85121241469641</v>
       </c>
       <c r="D189">
-        <v>10.7332</v>
+        <v>10.73319314943053</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -13899,7 +14494,12 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>3150</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Hennetved mose</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -13935,6 +14535,11 @@
       <c r="O189" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>
@@ -13950,10 +14555,10 @@
         </is>
       </c>
       <c r="C190">
-        <v>55.5811</v>
+        <v>55.58102365202997</v>
       </c>
       <c r="D190">
-        <v>9.392099999999999</v>
+        <v>9.392032651786382</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -13962,7 +14567,12 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>3150</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>KOV-sø-17</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -13998,6 +14608,11 @@
       <c r="O190" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>
@@ -14013,10 +14628,10 @@
         </is>
       </c>
       <c r="C191">
-        <v>55.0763</v>
+        <v>55.07631367082613</v>
       </c>
       <c r="D191">
-        <v>9.375500000000001</v>
+        <v>9.375507622549412</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -14026,6 +14641,11 @@
       <c r="F191" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Aabenraa 8</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -14081,10 +14701,10 @@
         </is>
       </c>
       <c r="C192">
-        <v>55.6213</v>
+        <v>55.62136216861524</v>
       </c>
       <c r="D192">
-        <v>8.2842</v>
+        <v>8.284087819511303</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -14094,6 +14714,11 @@
       <c r="F192" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Varde,sø ved 4571</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -14149,10 +14774,10 @@
         </is>
       </c>
       <c r="C193">
-        <v>54.8518</v>
+        <v>54.85186551336883</v>
       </c>
       <c r="D193">
-        <v>9.3955</v>
+        <v>9.395428200259602</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -14162,6 +14787,11 @@
       <c r="F193" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>69 - sø</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -14217,10 +14847,10 @@
         </is>
       </c>
       <c r="C194">
-        <v>56.0409</v>
+        <v>56.04099218993975</v>
       </c>
       <c r="D194">
-        <v>9.6692</v>
+        <v>9.66940869703121</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -14230,6 +14860,11 @@
       <c r="F194" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>615-C7-sø-10</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -14285,10 +14920,10 @@
         </is>
       </c>
       <c r="C195">
-        <v>56.0556</v>
+        <v>56.05543276556725</v>
       </c>
       <c r="D195">
-        <v>9.700100000000001</v>
+        <v>9.699910828924109</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -14298,6 +14933,11 @@
       <c r="F195" t="inlineStr">
         <is>
           <t>3160</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>615-B8-sø-01</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -14353,10 +14993,10 @@
         </is>
       </c>
       <c r="C196">
-        <v>56.3297</v>
+        <v>56.32911810639093</v>
       </c>
       <c r="D196">
-        <v>10.055</v>
+        <v>10.05564099651737</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -14366,6 +15006,11 @@
       <c r="F196" t="inlineStr">
         <is>
           <t>3100</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Hadsten</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -14421,10 +15066,10 @@
         </is>
       </c>
       <c r="C197">
-        <v>56.0542</v>
+        <v>56.05426101601047</v>
       </c>
       <c r="D197">
-        <v>9.6236</v>
+        <v>9.623507326213023</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -14434,6 +15079,11 @@
       <c r="F197" t="inlineStr">
         <is>
           <t>3100</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>615-B6-sø-05</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -14489,10 +15139,10 @@
         </is>
       </c>
       <c r="C198">
-        <v>55.9228</v>
+        <v>55.92281116668963</v>
       </c>
       <c r="D198">
-        <v>10.2442</v>
+        <v>10.24419433255387</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -14502,6 +15152,11 @@
       <c r="F198" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Vandhul i Egehoved skov</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -14557,10 +15212,10 @@
         </is>
       </c>
       <c r="C199">
-        <v>56.0252</v>
+        <v>56.02553438340527</v>
       </c>
       <c r="D199">
-        <v>9.678699999999999</v>
+        <v>9.678254722974229</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -14569,7 +15224,12 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>3103</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>615-C8-sø-09</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -14620,10 +15280,10 @@
         </is>
       </c>
       <c r="C200">
-        <v>56.0331</v>
+        <v>56.03303299097891</v>
       </c>
       <c r="D200">
-        <v>9.669</v>
+        <v>9.66911045836396</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -14632,7 +15292,12 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>3103</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>615-C7-sø-19</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -14683,10 +15348,10 @@
         </is>
       </c>
       <c r="C201">
-        <v>56.0379</v>
+        <v>56.03805439108225</v>
       </c>
       <c r="D201">
-        <v>9.6677</v>
+        <v>9.667688631303003</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -14696,6 +15361,11 @@
       <c r="F201" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>615-C7-sø-17</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -14751,10 +15421,10 @@
         </is>
       </c>
       <c r="C202">
-        <v>55.5802</v>
+        <v>55.58060938329876</v>
       </c>
       <c r="D202">
-        <v>9.3813</v>
+        <v>9.380924637619623</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -14763,7 +15433,12 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>3150</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>KOV-sø-13</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -14799,6 +15474,11 @@
       <c r="O202" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>
@@ -14814,10 +15494,10 @@
         </is>
       </c>
       <c r="C203">
-        <v>56.0605</v>
+        <v>56.06060859978683</v>
       </c>
       <c r="D203">
-        <v>9.648899999999999</v>
+        <v>9.648855170404984</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -14827,6 +15507,11 @@
       <c r="F203" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>615-A7-sø-01</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -14882,10 +15567,10 @@
         </is>
       </c>
       <c r="C204">
-        <v>54.9027</v>
+        <v>54.9027124171476</v>
       </c>
       <c r="D204">
-        <v>9.8445</v>
+        <v>9.844540638898245</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -14894,7 +15579,12 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>3140</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Sønderskoven, Als, S, Jyl</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -14930,6 +15620,11 @@
       <c r="O204" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>Lake, Hard water</t>
         </is>
       </c>
     </row>
@@ -14945,10 +15640,10 @@
         </is>
       </c>
       <c r="C205">
-        <v>54.9413</v>
+        <v>54.94129794057879</v>
       </c>
       <c r="D205">
-        <v>12.2176</v>
+        <v>12.21758880576388</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -14958,6 +15653,11 @@
       <c r="F205" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Møn</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -15013,10 +15713,10 @@
         </is>
       </c>
       <c r="C206">
-        <v>55.0598</v>
+        <v>55.05988178951576</v>
       </c>
       <c r="D206">
-        <v>9.394</v>
+        <v>9.394078536904903</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -15026,6 +15726,11 @@
       <c r="F206" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Aabenraa</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -15081,10 +15786,10 @@
         </is>
       </c>
       <c r="C207">
-        <v>54.954</v>
+        <v>54.95406786612835</v>
       </c>
       <c r="D207">
-        <v>9.5566</v>
+        <v>9.556781815260052</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -15094,6 +15799,11 @@
       <c r="F207" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Aabenraa 18</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -15149,10 +15859,10 @@
         </is>
       </c>
       <c r="C208">
-        <v>54.8475</v>
+        <v>54.84746202464481</v>
       </c>
       <c r="D208">
-        <v>9.3667</v>
+        <v>9.36679168438771</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -15161,7 +15871,12 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>3150</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>Skov 2 Bov Byskov, Kruså</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -15197,6 +15912,11 @@
       <c r="O208" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>
@@ -15212,10 +15932,10 @@
         </is>
       </c>
       <c r="C209">
-        <v>57.192</v>
+        <v>57.19198064991367</v>
       </c>
       <c r="D209">
-        <v>10.2614</v>
+        <v>10.26143610293135</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -15225,6 +15945,11 @@
       <c r="F209" t="inlineStr">
         <is>
           <t>3160</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>Sømose, jyske ås</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -15280,10 +16005,10 @@
         </is>
       </c>
       <c r="C210">
-        <v>54.951</v>
+        <v>54.95114877647621</v>
       </c>
       <c r="D210">
-        <v>9.562099999999999</v>
+        <v>9.562300039521121</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -15293,6 +16018,11 @@
       <c r="F210" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>Aabenraa 18</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -15348,10 +16078,10 @@
         </is>
       </c>
       <c r="C211">
-        <v>54.8256</v>
+        <v>54.82567550374253</v>
       </c>
       <c r="D211">
-        <v>9.3447</v>
+        <v>9.349425584394455</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -15361,6 +16091,11 @@
       <c r="F211" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>Padborg</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -15416,10 +16151,10 @@
         </is>
       </c>
       <c r="C212">
-        <v>54.8725</v>
+        <v>54.87251710584226</v>
       </c>
       <c r="D212">
-        <v>10.3293</v>
+        <v>10.32949976476513</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -15428,7 +16163,12 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>3150</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>Voderup Klint</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -15464,6 +16204,11 @@
       <c r="O212" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P212" t="inlineStr">
+        <is>
+          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>
@@ -15479,10 +16224,10 @@
         </is>
       </c>
       <c r="C213">
-        <v>54.9601</v>
+        <v>54.96015065012655</v>
       </c>
       <c r="D213">
-        <v>9.453099999999999</v>
+        <v>9.453181874574124</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -15492,6 +16237,11 @@
       <c r="F213" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>Bjergskov</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -15547,10 +16297,10 @@
         </is>
       </c>
       <c r="C214">
-        <v>57.1361</v>
+        <v>57.13614119323042</v>
       </c>
       <c r="D214">
-        <v>9.4176</v>
+        <v>9.417442805976011</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -15560,6 +16310,11 @@
       <c r="F214" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>Fosdal 16</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -15615,10 +16370,10 @@
         </is>
       </c>
       <c r="C215">
-        <v>55.5544</v>
+        <v>55.55439358242039</v>
       </c>
       <c r="D215">
-        <v>9.1717</v>
+        <v>9.171756553728311</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -15628,6 +16383,11 @@
       <c r="F215" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>Kongelund mose</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -15683,10 +16443,10 @@
         </is>
       </c>
       <c r="C216">
-        <v>56.9374</v>
+        <v>56.93737774426118</v>
       </c>
       <c r="D216">
-        <v>8.8513</v>
+        <v>8.851141780404504</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -15696,6 +16456,11 @@
       <c r="F216" t="inlineStr">
         <is>
           <t>3100</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>Skarrehage</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -15746,10 +16511,10 @@
         </is>
       </c>
       <c r="C217">
-        <v>56.8218</v>
+        <v>56.8279924726511</v>
       </c>
       <c r="D217">
-        <v>9.887700000000001</v>
+        <v>9.885937315341609</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -15759,6 +16524,11 @@
       <c r="F217" t="inlineStr">
         <is>
           <t>3130</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>Rold skov</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -15814,10 +16584,10 @@
         </is>
       </c>
       <c r="C218">
-        <v>55.7614</v>
+        <v>55.76140461682002</v>
       </c>
       <c r="D218">
-        <v>10.2955</v>
+        <v>10.2955791431774</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -15827,6 +16597,11 @@
       <c r="F218" t="inlineStr">
         <is>
           <t>1150</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>615-R27-sø-02</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -15877,10 +16652,10 @@
         </is>
       </c>
       <c r="C219">
-        <v>56.8008</v>
+        <v>56.80100470718025</v>
       </c>
       <c r="D219">
-        <v>9.8704</v>
+        <v>9.870514144688931</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -15890,6 +16665,11 @@
       <c r="F219" t="inlineStr">
         <is>
           <t>3160</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>Rold skov</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -15945,10 +16725,10 @@
         </is>
       </c>
       <c r="C220">
-        <v>56.5091</v>
+        <v>56.50913669260835</v>
       </c>
       <c r="D220">
-        <v>8.8263</v>
+        <v>8.826209534814918</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -15958,6 +16738,11 @@
       <c r="F220" t="inlineStr">
         <is>
           <t>3110</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>Skånsø</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -16013,10 +16798,10 @@
         </is>
       </c>
       <c r="C221">
-        <v>56.9303</v>
+        <v>56.93040867589744</v>
       </c>
       <c r="D221">
-        <v>8.845499999999999</v>
+        <v>8.845550183246194</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -16026,6 +16811,11 @@
       <c r="F221" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>Skarrehage</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -16081,10 +16871,10 @@
         </is>
       </c>
       <c r="C222">
-        <v>55.9862</v>
+        <v>55.98621653148201</v>
       </c>
       <c r="D222">
-        <v>10.1272</v>
+        <v>10.12724289212463</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -16094,6 +16884,11 @@
       <c r="F222" t="inlineStr">
         <is>
           <t>3100</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>27 Vestermarksskov (nord)</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -16144,10 +16939,10 @@
         </is>
       </c>
       <c r="C223">
-        <v>55.4216</v>
+        <v>55.42165587320171</v>
       </c>
       <c r="D223">
-        <v>10.4255</v>
+        <v>10.42573579268127</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -16157,6 +16952,11 @@
       <c r="F223" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>sø-226</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -16212,10 +17012,10 @@
         </is>
       </c>
       <c r="C224">
-        <v>55.7732</v>
+        <v>55.77324628249647</v>
       </c>
       <c r="D224">
-        <v>10.3017</v>
+        <v>10.30172709039019</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -16225,6 +17025,11 @@
       <c r="F224" t="inlineStr">
         <is>
           <t>3140</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>615-Q27-sø-02</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -16280,10 +17085,10 @@
         </is>
       </c>
       <c r="C225">
-        <v>55.0725</v>
+        <v>55.07256032014178</v>
       </c>
       <c r="D225">
-        <v>9.3565</v>
+        <v>9.356585221243275</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -16293,6 +17098,11 @@
       <c r="F225" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>Aabenraa 7</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -16348,10 +17158,10 @@
         </is>
       </c>
       <c r="C226">
-        <v>55.5787</v>
+        <v>55.57873799886143</v>
       </c>
       <c r="D226">
-        <v>9.401199999999999</v>
+        <v>9.401384288849869</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -16361,6 +17171,11 @@
       <c r="F226" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>KOV-sø-23</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -16416,10 +17231,10 @@
         </is>
       </c>
       <c r="C227">
-        <v>54.9583</v>
+        <v>54.95822384857065</v>
       </c>
       <c r="D227">
-        <v>9.397600000000001</v>
+        <v>9.397721219285652</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -16428,7 +17243,12 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>3104</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>50 - sø</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
@@ -16479,10 +17299,10 @@
         </is>
       </c>
       <c r="C228">
-        <v>55.1939</v>
+        <v>55.19394928030963</v>
       </c>
       <c r="D228">
-        <v>11.1949</v>
+        <v>11.19489112194905</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -16492,6 +17312,11 @@
       <c r="F228" t="inlineStr">
         <is>
           <t>1150</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>Agersø</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
@@ -16533,7 +17358,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>MFD05634</t>
+          <t>MFD05626</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -16542,24 +17367,29 @@
         </is>
       </c>
       <c r="C229">
-        <v>54.9753</v>
+        <v>55.11823602941318</v>
       </c>
       <c r="D229">
-        <v>9.4513</v>
+        <v>10.91082241138576</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>lakes</t>
+          <t>natural_sediment</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>3140</t>
+          <t>3150</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>Bræmlevænge</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>2021-07-15</t>
+          <t>2021-09-22</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -16579,7 +17409,7 @@
       </c>
       <c r="M229" t="inlineStr">
         <is>
-          <t>2021-07-15</t>
+          <t>2021-09-22</t>
         </is>
       </c>
       <c r="N229" t="inlineStr">
@@ -16594,14 +17424,14 @@
       </c>
       <c r="P229" t="inlineStr">
         <is>
-          <t>Lake, Hard water</t>
+          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>MFD05657</t>
+          <t>MFD05634</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -16610,10 +17440,10 @@
         </is>
       </c>
       <c r="C230">
-        <v>55.0713</v>
+        <v>54.975344106797</v>
       </c>
       <c r="D230">
-        <v>9.3872</v>
+        <v>9.451525026799285</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -16622,12 +17452,17 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>3140</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>45 - sø</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>2021-07-14</t>
+          <t>2021-07-15</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -16647,7 +17482,7 @@
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>2021-07-14</t>
+          <t>2021-07-15</t>
         </is>
       </c>
       <c r="N230" t="inlineStr">
@@ -16658,13 +17493,18 @@
       <c r="O230" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P230" t="inlineStr">
+        <is>
+          <t>Lake, Hard water</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>MFD05668</t>
+          <t>MFD05657</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -16673,10 +17513,10 @@
         </is>
       </c>
       <c r="C231">
-        <v>54.9757</v>
+        <v>55.0713166568783</v>
       </c>
       <c r="D231">
-        <v>9.4535</v>
+        <v>9.387174953317516</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -16685,12 +17525,17 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>3150</t>
+          <t>3103</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>Aabenraa 15</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>2021-07-15</t>
+          <t>2021-07-14</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -16710,7 +17555,7 @@
       </c>
       <c r="M231" t="inlineStr">
         <is>
-          <t>2021-07-15</t>
+          <t>2021-07-14</t>
         </is>
       </c>
       <c r="N231" t="inlineStr">
@@ -16721,18 +17566,13 @@
       <c r="O231" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
-        </is>
-      </c>
-      <c r="P231" t="inlineStr">
-        <is>
-          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>MFD05674</t>
+          <t>MFD05668</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -16741,10 +17581,10 @@
         </is>
       </c>
       <c r="C232">
-        <v>54.9018</v>
+        <v>54.9754010946961</v>
       </c>
       <c r="D232">
-        <v>9.8424</v>
+        <v>9.450697631567488</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -16753,12 +17593,17 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>3150</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>44 - sø</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>2021-10-19</t>
+          <t>2021-07-15</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -16778,7 +17623,7 @@
       </c>
       <c r="M232" t="inlineStr">
         <is>
-          <t>2021-10-19</t>
+          <t>2021-07-15</t>
         </is>
       </c>
       <c r="N232" t="inlineStr">
@@ -16789,13 +17634,18 @@
       <c r="O232" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P232" t="inlineStr">
+        <is>
+          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>MFD05676</t>
+          <t>MFD05674</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -16804,10 +17654,10 @@
         </is>
       </c>
       <c r="C233">
-        <v>55.0525</v>
+        <v>54.90177423198654</v>
       </c>
       <c r="D233">
-        <v>9.4078</v>
+        <v>9.842462439006106</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -16816,12 +17666,17 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>3140</t>
+          <t>3150</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>Sønderskoven, Als, S. Jyl</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>2021-07-14</t>
+          <t>2021-10-19</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -16841,7 +17696,7 @@
       </c>
       <c r="M233" t="inlineStr">
         <is>
-          <t>2021-07-14</t>
+          <t>2021-10-19</t>
         </is>
       </c>
       <c r="N233" t="inlineStr">
@@ -16856,14 +17711,14 @@
       </c>
       <c r="P233" t="inlineStr">
         <is>
-          <t>Lake, Hard water</t>
+          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>MFD05680</t>
+          <t>MFD05676</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -16872,10 +17727,10 @@
         </is>
       </c>
       <c r="C234">
-        <v>55.7498</v>
+        <v>55.05257543692599</v>
       </c>
       <c r="D234">
-        <v>10.2792</v>
+        <v>9.407844292932255</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -16884,12 +17739,17 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>3140</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>Aabenraa 21 - sø</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-07-14</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -16909,7 +17769,7 @@
       </c>
       <c r="M234" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-07-14</t>
         </is>
       </c>
       <c r="N234" t="inlineStr">
@@ -16920,13 +17780,18 @@
       <c r="O234" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P234" t="inlineStr">
+        <is>
+          <t>Lake, Hard water</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>MFD05700</t>
+          <t>MFD05680</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -16935,10 +17800,10 @@
         </is>
       </c>
       <c r="C235">
-        <v>55.7487</v>
+        <v>55.74982702643325</v>
       </c>
       <c r="D235">
-        <v>10.271</v>
+        <v>10.27961326869913</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -16947,7 +17812,12 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>3103</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>615-S27-sø-04</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
@@ -16989,7 +17859,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>MFD05713</t>
+          <t>MFD05700</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -16998,10 +17868,10 @@
         </is>
       </c>
       <c r="C236">
-        <v>55.0397</v>
+        <v>55.74868461680412</v>
       </c>
       <c r="D236">
-        <v>9.3904</v>
+        <v>10.27106811286553</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -17010,12 +17880,17 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>3150</t>
+          <t>3103</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>615-S26-sø-01</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>2021-07-15</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -17035,7 +17910,7 @@
       </c>
       <c r="M236" t="inlineStr">
         <is>
-          <t>2021-07-15</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="N236" t="inlineStr">
@@ -17046,18 +17921,13 @@
       <c r="O236" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
-        </is>
-      </c>
-      <c r="P236" t="inlineStr">
-        <is>
-          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>MFD05739</t>
+          <t>MFD05713</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -17066,10 +17936,10 @@
         </is>
       </c>
       <c r="C237">
-        <v>55.2647</v>
+        <v>55.0396381812395</v>
       </c>
       <c r="D237">
-        <v>11.284</v>
+        <v>9.39042154594676</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -17078,12 +17948,17 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>3150</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>Aabenraa 26 - sø</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>2021-07-13</t>
+          <t>2021-07-15</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -17103,7 +17978,7 @@
       </c>
       <c r="M237" t="inlineStr">
         <is>
-          <t>2021-07-13</t>
+          <t>2021-07-15</t>
         </is>
       </c>
       <c r="N237" t="inlineStr">
@@ -17114,13 +17989,18 @@
       <c r="O237" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P237" t="inlineStr">
+        <is>
+          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>MFD05755</t>
+          <t>MFD05739</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -17129,10 +18009,10 @@
         </is>
       </c>
       <c r="C238">
-        <v>55.0408</v>
+        <v>55.26485403782466</v>
       </c>
       <c r="D238">
-        <v>9.3926</v>
+        <v>11.283800346228</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -17144,9 +18024,14 @@
           <t>3100</t>
         </is>
       </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>Skælskør lystskov</t>
+        </is>
+      </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>2021-07-15</t>
+          <t>2021-07-13</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -17166,7 +18051,7 @@
       </c>
       <c r="M238" t="inlineStr">
         <is>
-          <t>2021-07-15</t>
+          <t>2021-07-13</t>
         </is>
       </c>
       <c r="N238" t="inlineStr">
@@ -17183,7 +18068,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>MFD09320</t>
+          <t>MFD05755</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -17192,10 +18077,10 @@
         </is>
       </c>
       <c r="C239">
-        <v>55.1561</v>
+        <v>55.04086218789941</v>
       </c>
       <c r="D239">
-        <v>8.7433</v>
+        <v>9.392639918719238</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -17204,12 +18089,17 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>3150</t>
+          <t>3103</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>Aabenraa 24 - sø</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>2021-10-22</t>
+          <t>2021-07-15</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -17229,7 +18119,7 @@
       </c>
       <c r="M239" t="inlineStr">
         <is>
-          <t>2021-10-22</t>
+          <t>2021-07-15</t>
         </is>
       </c>
       <c r="N239" t="inlineStr">
@@ -17240,18 +18130,13 @@
       <c r="O239" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
-        </is>
-      </c>
-      <c r="P239" t="inlineStr">
-        <is>
-          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>MFD09323</t>
+          <t>MFD09320</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -17260,10 +18145,10 @@
         </is>
       </c>
       <c r="C240">
-        <v>54.9388</v>
+        <v>55.15613252214831</v>
       </c>
       <c r="D240">
-        <v>12.228</v>
+        <v>8.743250999675636</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -17272,12 +18157,17 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>3140</t>
+          <t>3150</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>Skærbæk</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>2021-10-09</t>
+          <t>2021-10-22</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -17297,7 +18187,7 @@
       </c>
       <c r="M240" t="inlineStr">
         <is>
-          <t>2021-10-09</t>
+          <t>2021-10-22</t>
         </is>
       </c>
       <c r="N240" t="inlineStr">
@@ -17312,14 +18202,14 @@
       </c>
       <c r="P240" t="inlineStr">
         <is>
-          <t>Lake, Hard water</t>
+          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>MFD09332</t>
+          <t>MFD09323</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -17328,10 +18218,10 @@
         </is>
       </c>
       <c r="C241">
-        <v>55.04</v>
+        <v>54.93888464102336</v>
       </c>
       <c r="D241">
-        <v>12.2665</v>
+        <v>12.22789079063987</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -17340,12 +18230,17 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>3140</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>v. Damsholte</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>2021-11-23</t>
+          <t>2021-10-09</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -17365,7 +18260,7 @@
       </c>
       <c r="M241" t="inlineStr">
         <is>
-          <t>2021-11-23</t>
+          <t>2021-10-09</t>
         </is>
       </c>
       <c r="N241" t="inlineStr">
@@ -17376,13 +18271,18 @@
       <c r="O241" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P241" t="inlineStr">
+        <is>
+          <t>Lake, Hard water</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>MFD09336</t>
+          <t>MFD09332</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -17391,10 +18291,10 @@
         </is>
       </c>
       <c r="C242">
-        <v>55.376</v>
+        <v>55.04009953053102</v>
       </c>
       <c r="D242">
-        <v>9.2235</v>
+        <v>12.2666257334661</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -17403,12 +18303,17 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>3150</t>
+          <t>3100</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>Møn</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>2021-10-22</t>
+          <t>2021-11-23</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -17428,7 +18333,7 @@
       </c>
       <c r="M242" t="inlineStr">
         <is>
-          <t>2021-10-22</t>
+          <t>2021-11-23</t>
         </is>
       </c>
       <c r="N242" t="inlineStr">
@@ -17439,18 +18344,13 @@
       <c r="O242" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
-        </is>
-      </c>
-      <c r="P242" t="inlineStr">
-        <is>
-          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>MFD09338</t>
+          <t>MFD09336</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -17459,10 +18359,10 @@
         </is>
       </c>
       <c r="C243">
-        <v>54.7398</v>
+        <v>55.3760684846669</v>
       </c>
       <c r="D243">
-        <v>11.5864</v>
+        <v>9.223611685387249</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -17474,9 +18374,14 @@
           <t>3150</t>
         </is>
       </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>Jels</t>
+        </is>
+      </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>2021-11-24</t>
+          <t>2021-10-22</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -17496,7 +18401,7 @@
       </c>
       <c r="M243" t="inlineStr">
         <is>
-          <t>2021-11-24</t>
+          <t>2021-10-22</t>
         </is>
       </c>
       <c r="N243" t="inlineStr">
@@ -17518,7 +18423,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>MFD09358</t>
+          <t>MFD09338</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -17527,10 +18432,10 @@
         </is>
       </c>
       <c r="C244">
-        <v>55.1566</v>
+        <v>54.73990469022291</v>
       </c>
       <c r="D244">
-        <v>8.7453</v>
+        <v>11.58627734686452</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -17542,9 +18447,14 @@
           <t>3150</t>
         </is>
       </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>Maribo</t>
+        </is>
+      </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>2021-10-22</t>
+          <t>2021-11-24</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -17564,7 +18474,7 @@
       </c>
       <c r="M244" t="inlineStr">
         <is>
-          <t>2021-10-22</t>
+          <t>2021-11-24</t>
         </is>
       </c>
       <c r="N244" t="inlineStr">
@@ -17586,7 +18496,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>MFD09372</t>
+          <t>MFD09358</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -17595,10 +18505,10 @@
         </is>
       </c>
       <c r="C245">
-        <v>54.758</v>
+        <v>55.15667652447411</v>
       </c>
       <c r="D245">
-        <v>11.4888</v>
+        <v>8.745554516747191</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -17607,12 +18517,17 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>3150</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>Skærbæk 3</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>2021-10-06</t>
+          <t>2021-10-22</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -17632,7 +18547,7 @@
       </c>
       <c r="M245" t="inlineStr">
         <is>
-          <t>2021-10-06</t>
+          <t>2021-10-22</t>
         </is>
       </c>
       <c r="N245" t="inlineStr">
@@ -17643,13 +18558,18 @@
       <c r="O245" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P245" t="inlineStr">
+        <is>
+          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>MFD09378</t>
+          <t>MFD09372</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -17658,10 +18578,10 @@
         </is>
       </c>
       <c r="C246">
-        <v>55.2919</v>
+        <v>54.75822385338945</v>
       </c>
       <c r="D246">
-        <v>11.8103</v>
+        <v>11.48889380279095</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -17670,12 +18590,17 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>3160</t>
+          <t>3103</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>Maribo 5</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-06</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -17695,7 +18620,7 @@
       </c>
       <c r="M246" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-06</t>
         </is>
       </c>
       <c r="N246" t="inlineStr">
@@ -17706,18 +18631,13 @@
       <c r="O246" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
-        </is>
-      </c>
-      <c r="P246" t="inlineStr">
-        <is>
-          <t>Lake, Dystrophic</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>MFD09379</t>
+          <t>MFD09378</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -17726,10 +18646,10 @@
         </is>
       </c>
       <c r="C247">
-        <v>54.9031</v>
+        <v>55.29193367359531</v>
       </c>
       <c r="D247">
-        <v>9.834300000000001</v>
+        <v>11.81033100046505</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -17738,12 +18658,17 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>3140</t>
+          <t>3160</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>Holmegaard mose</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>2021-10-19</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -17763,7 +18688,7 @@
       </c>
       <c r="M247" t="inlineStr">
         <is>
-          <t>2021-10-19</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="N247" t="inlineStr">
@@ -17778,14 +18703,14 @@
       </c>
       <c r="P247" t="inlineStr">
         <is>
-          <t>Lake, Hard water</t>
+          <t>Lake, Dystrophic</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>MFD09398</t>
+          <t>MFD09379</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -17794,10 +18719,10 @@
         </is>
       </c>
       <c r="C248">
-        <v>55.1317</v>
+        <v>54.90317694757242</v>
       </c>
       <c r="D248">
-        <v>14.953</v>
+        <v>9.834537908676467</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -17806,12 +18731,17 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>3150</t>
+          <t>3140</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>Sønderskoven, Als, S, Jyl</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>2021-09-28</t>
+          <t>2021-10-19</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -17831,7 +18761,7 @@
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>2021-09-28</t>
+          <t>2021-10-19</t>
         </is>
       </c>
       <c r="N248" t="inlineStr">
@@ -17846,14 +18776,14 @@
       </c>
       <c r="P248" t="inlineStr">
         <is>
-          <t>Lake, Rich pondweed</t>
+          <t>Lake, Hard water</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>MFD09434</t>
+          <t>MFD09398</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -17862,10 +18792,10 @@
         </is>
       </c>
       <c r="C249">
-        <v>55.2683</v>
+        <v>55.13178852050869</v>
       </c>
       <c r="D249">
-        <v>14.7631</v>
+        <v>14.95304131752404</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -17877,9 +18807,14 @@
           <t>3150</t>
         </is>
       </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>Bornholm</t>
+        </is>
+      </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>2021-09-29</t>
+          <t>2021-09-28</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -17899,7 +18834,7 @@
       </c>
       <c r="M249" t="inlineStr">
         <is>
-          <t>2021-09-29</t>
+          <t>2021-09-28</t>
         </is>
       </c>
       <c r="N249" t="inlineStr">
@@ -17921,7 +18856,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>MFD09441</t>
+          <t>MFD09426</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -17930,24 +18865,34 @@
         </is>
       </c>
       <c r="C250">
-        <v>55.7713</v>
+        <v>55.0691959782507</v>
       </c>
       <c r="D250">
-        <v>12.3666</v>
+        <v>14.92199971554963</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>lakes</t>
+          <t>city_pond</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>3150</t>
+          <t>3100</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>Bornholm</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-09-28</t>
+        </is>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>vrj: habitatv assessment: 3100</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -17967,7 +18912,7 @@
       </c>
       <c r="M250" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-09-28</t>
         </is>
       </c>
       <c r="N250" t="inlineStr">
@@ -17978,18 +18923,13 @@
       <c r="O250" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
-        </is>
-      </c>
-      <c r="P250" t="inlineStr">
-        <is>
-          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>MFD09466</t>
+          <t>MFD09434</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -17998,10 +18938,10 @@
         </is>
       </c>
       <c r="C251">
-        <v>55.1311</v>
+        <v>55.26839088050328</v>
       </c>
       <c r="D251">
-        <v>14.9485</v>
+        <v>14.7631152218205</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -18010,12 +18950,17 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>3150</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>Bornholm</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>2021-09-28</t>
+          <t>2021-09-29</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -18035,7 +18980,7 @@
       </c>
       <c r="M251" t="inlineStr">
         <is>
-          <t>2021-09-28</t>
+          <t>2021-09-29</t>
         </is>
       </c>
       <c r="N251" t="inlineStr">
@@ -18046,13 +18991,18 @@
       <c r="O251" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P251" t="inlineStr">
+        <is>
+          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>MFD09487</t>
+          <t>MFD09441</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -18061,10 +19011,10 @@
         </is>
       </c>
       <c r="C252">
-        <v>55.1576</v>
+        <v>55.77135319224986</v>
       </c>
       <c r="D252">
-        <v>8.7462</v>
+        <v>12.36661889405176</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -18076,9 +19026,14 @@
           <t>3150</t>
         </is>
       </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>Værløse Søndersø</t>
+        </is>
+      </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>2021-10-22</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -18098,7 +19053,7 @@
       </c>
       <c r="M252" t="inlineStr">
         <is>
-          <t>2021-10-22</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="N252" t="inlineStr">
@@ -18120,7 +19075,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>MFD09496</t>
+          <t>MFD09466</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -18129,10 +19084,10 @@
         </is>
       </c>
       <c r="C253">
-        <v>55.2861</v>
+        <v>55.13121319927176</v>
       </c>
       <c r="D253">
-        <v>14.7578</v>
+        <v>14.94842994207989</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -18141,12 +19096,17 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>3150</t>
+          <t>3100</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>Bornholm</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>2021-09-29</t>
+          <t>2021-09-28</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -18166,7 +19126,7 @@
       </c>
       <c r="M253" t="inlineStr">
         <is>
-          <t>2021-09-29</t>
+          <t>2021-09-28</t>
         </is>
       </c>
       <c r="N253" t="inlineStr">
@@ -18177,18 +19137,13 @@
       <c r="O253" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
-        </is>
-      </c>
-      <c r="P253" t="inlineStr">
-        <is>
-          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>MFD09531</t>
+          <t>MFD09487</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -18197,10 +19152,10 @@
         </is>
       </c>
       <c r="C254">
-        <v>55.127</v>
+        <v>55.15763022881887</v>
       </c>
       <c r="D254">
-        <v>14.9451</v>
+        <v>8.746113441671337</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
@@ -18209,12 +19164,17 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>3140</t>
+          <t>3150</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>Skærbæk 2</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>2021-09-28</t>
+          <t>2021-10-22</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -18234,7 +19194,7 @@
       </c>
       <c r="M254" t="inlineStr">
         <is>
-          <t>2021-09-28</t>
+          <t>2021-10-22</t>
         </is>
       </c>
       <c r="N254" t="inlineStr">
@@ -18249,14 +19209,14 @@
       </c>
       <c r="P254" t="inlineStr">
         <is>
-          <t>Lake, Hard water</t>
+          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>MFD09605</t>
+          <t>MFD09496</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -18265,10 +19225,10 @@
         </is>
       </c>
       <c r="C255">
-        <v>56.0009</v>
+        <v>55.28614952126171</v>
       </c>
       <c r="D255">
-        <v>12.1105</v>
+        <v>14.7578414003093</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
@@ -18280,9 +19240,14 @@
           <t>3150</t>
         </is>
       </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>Bornholm</t>
+        </is>
+      </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>2021-10-13</t>
+          <t>2021-09-29</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -18302,7 +19267,7 @@
       </c>
       <c r="M255" t="inlineStr">
         <is>
-          <t>2021-10-13</t>
+          <t>2021-09-29</t>
         </is>
       </c>
       <c r="N255" t="inlineStr">
@@ -18324,7 +19289,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>MFD09630</t>
+          <t>MFD09531</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -18333,10 +19298,10 @@
         </is>
       </c>
       <c r="C256">
-        <v>55.0147</v>
+        <v>55.12708046935042</v>
       </c>
       <c r="D256">
-        <v>9.932600000000001</v>
+        <v>14.94512668801902</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -18345,12 +19310,17 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>3140</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>Bornholm</t>
         </is>
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>2021-10-19</t>
+          <t>2021-09-28</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -18370,7 +19340,7 @@
       </c>
       <c r="M256" t="inlineStr">
         <is>
-          <t>2021-10-19</t>
+          <t>2021-09-28</t>
         </is>
       </c>
       <c r="N256" t="inlineStr">
@@ -18381,13 +19351,18 @@
       <c r="O256" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P256" t="inlineStr">
+        <is>
+          <t>Lake, Hard water</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>MFD09633</t>
+          <t>MFD09605</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -18396,10 +19371,10 @@
         </is>
       </c>
       <c r="C257">
-        <v>56.0143</v>
+        <v>56.00090605617402</v>
       </c>
       <c r="D257">
-        <v>12.1109</v>
+        <v>12.11053415852007</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -18409,6 +19384,11 @@
       <c r="F257" t="inlineStr">
         <is>
           <t>3150</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>Arresø</t>
         </is>
       </c>
       <c r="H257" t="inlineStr">
@@ -18455,7 +19435,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>MFD09672</t>
+          <t>MFD09630</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -18464,10 +19444,10 @@
         </is>
       </c>
       <c r="C258">
-        <v>56.0223</v>
+        <v>55.01458977915017</v>
       </c>
       <c r="D258">
-        <v>12.1972</v>
+        <v>9.933061297875057</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -18476,12 +19456,17 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>3150</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>Nørreskoven, Als, S, Jyl</t>
         </is>
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>2021-10-13</t>
+          <t>2021-10-19</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -18501,7 +19486,7 @@
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t>2021-10-13</t>
+          <t>2021-10-19</t>
         </is>
       </c>
       <c r="N258" t="inlineStr">
@@ -18512,13 +19497,18 @@
       <c r="O258" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P258" t="inlineStr">
+        <is>
+          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>MFD09710</t>
+          <t>MFD09633</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -18527,10 +19517,10 @@
         </is>
       </c>
       <c r="C259">
-        <v>54.9099</v>
+        <v>56.01444942941629</v>
       </c>
       <c r="D259">
-        <v>12.08</v>
+        <v>12.11070872836103</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -18539,12 +19529,17 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>1150</t>
+          <t>3150</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>Ramløse</t>
         </is>
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>2021-11-23</t>
+          <t>2021-10-13</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -18564,24 +19559,29 @@
       </c>
       <c r="M259" t="inlineStr">
         <is>
-          <t>2021-11-23</t>
+          <t>2021-10-13</t>
         </is>
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>Saltwater</t>
+          <t>Freshwater</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P259" t="inlineStr">
+        <is>
+          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>MFD09750</t>
+          <t>MFD09672</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -18590,10 +19590,10 @@
         </is>
       </c>
       <c r="C260">
-        <v>54.7313</v>
+        <v>56.02239226815664</v>
       </c>
       <c r="D260">
-        <v>11.5648</v>
+        <v>12.19729198211425</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
@@ -18602,12 +19602,17 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>3150</t>
+          <t>3100</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>Helsing</t>
         </is>
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>2021-11-24</t>
+          <t>2021-10-13</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -18627,7 +19632,7 @@
       </c>
       <c r="M260" t="inlineStr">
         <is>
-          <t>2021-11-24</t>
+          <t>2021-10-13</t>
         </is>
       </c>
       <c r="N260" t="inlineStr">
@@ -18638,18 +19643,13 @@
       <c r="O260" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
-        </is>
-      </c>
-      <c r="P260" t="inlineStr">
-        <is>
-          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>MFD09810</t>
+          <t>MFD09710</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -18658,10 +19658,10 @@
         </is>
       </c>
       <c r="C261">
-        <v>54.9502</v>
+        <v>54.90996142141954</v>
       </c>
       <c r="D261">
-        <v>11.9839</v>
+        <v>12.08001852723672</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -18670,7 +19670,12 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>3150</t>
+          <t>1150</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>Barholm</t>
         </is>
       </c>
       <c r="H261" t="inlineStr">
@@ -18700,24 +19705,19 @@
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>Freshwater</t>
+          <t>Saltwater</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>Standing freshwater</t>
-        </is>
-      </c>
-      <c r="P261" t="inlineStr">
-        <is>
-          <t>Lake, Rich pondweed</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>MFD09872</t>
+          <t>MFD09750</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -18726,10 +19726,10 @@
         </is>
       </c>
       <c r="C262">
-        <v>54.6672</v>
+        <v>54.73137811613208</v>
       </c>
       <c r="D262">
-        <v>11.4959</v>
+        <v>11.56490240300276</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
@@ -18738,7 +19738,12 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>3150</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>Maribo</t>
         </is>
       </c>
       <c r="H262" t="inlineStr">
@@ -18774,74 +19779,324 @@
       <c r="O262" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P262" t="inlineStr">
+        <is>
+          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
+          <t>MFD09810</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>sediment</t>
+        </is>
+      </c>
+      <c r="C263">
+        <v>54.95024640903198</v>
+      </c>
+      <c r="D263">
+        <v>11.98397119474465</v>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>lakes</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>3150</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>Farø</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>2021-11-23</t>
+        </is>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>P09_1</t>
+        </is>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>Sediment</t>
+        </is>
+      </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="M263" t="inlineStr">
+        <is>
+          <t>2021-11-23</t>
+        </is>
+      </c>
+      <c r="N263" t="inlineStr">
+        <is>
+          <t>Freshwater</t>
+        </is>
+      </c>
+      <c r="O263" t="inlineStr">
+        <is>
+          <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P263" t="inlineStr">
+        <is>
+          <t>Lake, Rich pondweed</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>MFD09872</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>sediment</t>
+        </is>
+      </c>
+      <c r="C264">
+        <v>54.66730153042856</v>
+      </c>
+      <c r="D264">
+        <v>11.49592189538049</v>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>lakes</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>3103</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>Errindlev</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>2021-11-24</t>
+        </is>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>P09_1</t>
+        </is>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>Sediment</t>
+        </is>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="M264" t="inlineStr">
+        <is>
+          <t>2021-11-24</t>
+        </is>
+      </c>
+      <c r="N264" t="inlineStr">
+        <is>
+          <t>Freshwater</t>
+        </is>
+      </c>
+      <c r="O264" t="inlineStr">
+        <is>
+          <t>Standing freshwater</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
           <t>MFD09883</t>
         </is>
       </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>sediment</t>
-        </is>
-      </c>
-      <c r="C263">
-        <v>54.7082</v>
-      </c>
-      <c r="D263">
-        <v>11.5793</v>
-      </c>
-      <c r="E263" t="inlineStr">
-        <is>
-          <t>lakes</t>
-        </is>
-      </c>
-      <c r="F263" t="inlineStr">
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>sediment</t>
+        </is>
+      </c>
+      <c r="C265">
+        <v>54.70836245653176</v>
+      </c>
+      <c r="D265">
+        <v>11.57937804158778</v>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>lakes</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
         <is>
           <t>3150</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>Maribo</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
         <is>
           <t>2021-11-24</t>
         </is>
       </c>
-      <c r="J263" t="inlineStr">
-        <is>
-          <t>P09_1</t>
-        </is>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>Sediment</t>
-        </is>
-      </c>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>Natural</t>
-        </is>
-      </c>
-      <c r="M263" t="inlineStr">
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>P09_1</t>
+        </is>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>Sediment</t>
+        </is>
+      </c>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="M265" t="inlineStr">
         <is>
           <t>2021-11-24</t>
         </is>
       </c>
-      <c r="N263" t="inlineStr">
-        <is>
-          <t>Freshwater</t>
-        </is>
-      </c>
-      <c r="O263" t="inlineStr">
-        <is>
-          <t>Standing freshwater</t>
-        </is>
-      </c>
-      <c r="P263" t="inlineStr">
+      <c r="N265" t="inlineStr">
+        <is>
+          <t>Freshwater</t>
+        </is>
+      </c>
+      <c r="O265" t="inlineStr">
+        <is>
+          <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P265" t="inlineStr">
         <is>
           <t>Lake, Rich pondweed</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>MFD01868</t>
+        </is>
+      </c>
+      <c r="C266">
+        <v>56.31010084119873</v>
+      </c>
+      <c r="D266">
+        <v>9.828232632939248</v>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>3150</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>sø-2753</t>
+        </is>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>P09_1</t>
+        </is>
+      </c>
+      <c r="M266" t="inlineStr">
+        <is>
+          <t>2021-06-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>MFD05726</t>
+        </is>
+      </c>
+      <c r="C267">
+        <v>55.07127391494983</v>
+      </c>
+      <c r="D267">
+        <v>9.386485475047044</v>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>3150</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>Aabenraa 16 - sø</t>
+        </is>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>P09_1</t>
+        </is>
+      </c>
+      <c r="M267" t="inlineStr">
+        <is>
+          <t>2021-07-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>MFD09545</t>
+        </is>
+      </c>
+      <c r="C268">
+        <v>55.12967711472056</v>
+      </c>
+      <c r="D268">
+        <v>14.94596954609461</v>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>3150</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>Bornholm</t>
+        </is>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>P09_1</t>
+        </is>
+      </c>
+      <c r="M268" t="inlineStr">
+        <is>
+          <t>2021-09-28</t>
         </is>
       </c>
     </row>

--- a/analysis/metadata/P09_1/P09_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P09_1/P09_1_minimal_metadata.xlsx
@@ -2378,7 +2378,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>3104</t>
+          <t>3160</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2424,6 +2424,11 @@
       <c r="O27" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Lake, Dystrophic</t>
         </is>
       </c>
     </row>
@@ -2904,7 +2909,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3103</t>
+          <t>3150</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2950,6 +2955,11 @@
       <c r="O34" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>
@@ -5053,7 +5063,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>3103</t>
+          <t>3150</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -5094,6 +5104,11 @@
       <c r="O62" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>
@@ -5969,7 +5984,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>3103</t>
+          <t>3150</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -6015,6 +6030,11 @@
       <c r="O74" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>
@@ -7001,7 +7021,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>3103</t>
+          <t>3150</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -7042,6 +7062,11 @@
       <c r="O88" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>
@@ -9981,7 +10006,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>3103</t>
+          <t>3150</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -10022,6 +10047,11 @@
       <c r="O128" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>
@@ -10122,7 +10152,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>3103</t>
+          <t>3150</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -10163,6 +10193,11 @@
       <c r="O130" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>
@@ -10628,7 +10663,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>3103</t>
+          <t>3150</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -10669,6 +10704,11 @@
       <c r="O137" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>
@@ -11363,7 +11403,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>3103</t>
+          <t>3150</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -11404,6 +11444,11 @@
       <c r="O147" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>
@@ -11650,7 +11695,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>3103</t>
+          <t>3150</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -11696,6 +11741,11 @@
       <c r="O151" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>
@@ -11796,7 +11846,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>3103</t>
+          <t>3150</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -11837,6 +11887,11 @@
       <c r="O153" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>
@@ -12687,7 +12742,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>3103</t>
+          <t>3150</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -12733,6 +12788,11 @@
       <c r="O165" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>
@@ -12760,7 +12820,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>3103</t>
+          <t>3150</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -12806,6 +12866,11 @@
       <c r="O166" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>
@@ -12833,7 +12898,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>3103</t>
+          <t>3150</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -12879,6 +12944,11 @@
       <c r="O167" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>
@@ -15224,7 +15294,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>3103</t>
+          <t>3150</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -15265,6 +15335,11 @@
       <c r="O199" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>
@@ -15292,7 +15367,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>3103</t>
+          <t>3150</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -15333,6 +15408,11 @@
       <c r="O200" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>
@@ -17243,7 +17323,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>3104</t>
+          <t>3160</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -17284,6 +17364,11 @@
       <c r="O227" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>Lake, Dystrophic</t>
         </is>
       </c>
     </row>
@@ -17525,7 +17610,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>3103</t>
+          <t>3150</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -17566,6 +17651,11 @@
       <c r="O231" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P231" t="inlineStr">
+        <is>
+          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>
@@ -17812,7 +17902,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>3103</t>
+          <t>3150</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -17853,6 +17943,11 @@
       <c r="O235" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P235" t="inlineStr">
+        <is>
+          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>
@@ -17880,7 +17975,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>3103</t>
+          <t>3150</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -17921,6 +18016,11 @@
       <c r="O236" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P236" t="inlineStr">
+        <is>
+          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>
@@ -18089,7 +18189,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>3103</t>
+          <t>3150</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -18130,6 +18230,11 @@
       <c r="O239" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P239" t="inlineStr">
+        <is>
+          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>
@@ -18590,7 +18695,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>3103</t>
+          <t>3150</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
@@ -18631,6 +18736,11 @@
       <c r="O246" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P246" t="inlineStr">
+        <is>
+          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>
@@ -19884,7 +19994,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>3103</t>
+          <t>3150</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -19925,6 +20035,11 @@
       <c r="O264" t="inlineStr">
         <is>
           <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P264" t="inlineStr">
+        <is>
+          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>
@@ -20028,9 +20143,34 @@
           <t>P09_1</t>
         </is>
       </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>Sediment</t>
+        </is>
+      </c>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M266" t="inlineStr">
         <is>
           <t>2021-06-08</t>
+        </is>
+      </c>
+      <c r="N266" t="inlineStr">
+        <is>
+          <t>Freshwater</t>
+        </is>
+      </c>
+      <c r="O266" t="inlineStr">
+        <is>
+          <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P266" t="inlineStr">
+        <is>
+          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>
@@ -20061,9 +20201,34 @@
           <t>P09_1</t>
         </is>
       </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>Sediment</t>
+        </is>
+      </c>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M267" t="inlineStr">
         <is>
           <t>2021-07-14</t>
+        </is>
+      </c>
+      <c r="N267" t="inlineStr">
+        <is>
+          <t>Freshwater</t>
+        </is>
+      </c>
+      <c r="O267" t="inlineStr">
+        <is>
+          <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P267" t="inlineStr">
+        <is>
+          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>
@@ -20094,9 +20259,34 @@
           <t>P09_1</t>
         </is>
       </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>Sediment</t>
+        </is>
+      </c>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M268" t="inlineStr">
         <is>
           <t>2021-09-28</t>
+        </is>
+      </c>
+      <c r="N268" t="inlineStr">
+        <is>
+          <t>Freshwater</t>
+        </is>
+      </c>
+      <c r="O268" t="inlineStr">
+        <is>
+          <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P268" t="inlineStr">
+        <is>
+          <t>Lake, Rich pondweed</t>
         </is>
       </c>
     </row>

--- a/analysis/metadata/P09_1/P09_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P09_1/P09_1_minimal_metadata.xlsx
@@ -1321,7 +1321,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1150</t>
+          <t>3170</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1361,12 +1361,17 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Saltwater</t>
+          <t>Freshwater</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Lake shores and lagoons</t>
         </is>
       </c>
     </row>
@@ -1394,7 +1399,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1150</t>
+          <t>3170</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1434,12 +1439,17 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Saltwater</t>
+          <t>Freshwater</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Lake shores and lagoons</t>
         </is>
       </c>
     </row>
@@ -2164,7 +2174,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1150</t>
+          <t>3170</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2204,12 +2214,17 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Saltwater</t>
+          <t>Freshwater</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Lake shores and lagoons</t>
         </is>
       </c>
     </row>
@@ -2310,7 +2325,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1150</t>
+          <t>3170</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2345,12 +2360,17 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Saltwater</t>
+          <t>Freshwater</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Lake shores and lagoons</t>
         </is>
       </c>
     </row>
@@ -6135,7 +6155,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>1150</t>
+          <t>3170</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -6170,12 +6190,17 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>Saltwater</t>
+          <t>Freshwater</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>Lake shores and lagoons</t>
         </is>
       </c>
     </row>
@@ -6573,7 +6598,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>1150</t>
+          <t>3170</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -6608,12 +6633,17 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>Saltwater</t>
+          <t>Freshwater</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>Lake shores and lagoons</t>
         </is>
       </c>
     </row>
@@ -7620,7 +7650,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>1150</t>
+          <t>3170</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -7660,12 +7690,17 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>Saltwater</t>
+          <t>Freshwater</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>Lake shores and lagoons</t>
         </is>
       </c>
     </row>
@@ -7766,7 +7801,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>1150</t>
+          <t>3170</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -7806,12 +7841,17 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>Saltwater</t>
+          <t>Freshwater</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>Lake shores and lagoons</t>
         </is>
       </c>
     </row>
@@ -7990,7 +8030,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>1150</t>
+          <t>3170</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -8030,12 +8070,17 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>Saltwater</t>
+          <t>Freshwater</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>Lake shores and lagoons</t>
         </is>
       </c>
     </row>
@@ -9339,7 +9384,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>1150</t>
+          <t>3170</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -9379,12 +9424,17 @@
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>Saltwater</t>
+          <t>Freshwater</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>Lake shores and lagoons</t>
         </is>
       </c>
     </row>
@@ -9938,7 +9988,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>1150</t>
+          <t>3170</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -9973,12 +10023,17 @@
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>Saltwater</t>
+          <t>Freshwater</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>Lake shores and lagoons</t>
         </is>
       </c>
     </row>
@@ -12065,7 +12120,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>1150</t>
+          <t>3170</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -12105,12 +12160,17 @@
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>Saltwater</t>
+          <t>Freshwater</t>
         </is>
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>Lake shores and lagoons</t>
         </is>
       </c>
     </row>
@@ -12591,7 +12651,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>1150</t>
+          <t>3170</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -12631,12 +12691,17 @@
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>Saltwater</t>
+          <t>Freshwater</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>Lake shores and lagoons</t>
         </is>
       </c>
     </row>
@@ -13366,7 +13431,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>1150</t>
+          <t>3170</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -13401,12 +13466,17 @@
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>Saltwater</t>
+          <t>Freshwater</t>
         </is>
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>Lake shores and lagoons</t>
         </is>
       </c>
     </row>
@@ -16676,7 +16746,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>1150</t>
+          <t>3170</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -16711,12 +16781,17 @@
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>Saltwater</t>
+          <t>Freshwater</t>
         </is>
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P218" t="inlineStr">
+        <is>
+          <t>Lake shores and lagoons</t>
         </is>
       </c>
     </row>
@@ -17396,7 +17471,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>1150</t>
+          <t>3170</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -17431,12 +17506,17 @@
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>Saltwater</t>
+          <t>Freshwater</t>
         </is>
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>Lake shores and lagoons</t>
         </is>
       </c>
     </row>
@@ -19780,7 +19860,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>1150</t>
+          <t>3170</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
@@ -19815,12 +19895,17 @@
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>Saltwater</t>
+          <t>Freshwater</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Standing freshwater</t>
+        </is>
+      </c>
+      <c r="P261" t="inlineStr">
+        <is>
+          <t>Lake shores and lagoons</t>
         </is>
       </c>
     </row>
